--- a/购车/家用车对比.xlsx
+++ b/购车/家用车对比.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\iwangding\2020资料\test\购车\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E9AE6C-75DA-4F6C-A429-3F938DCAD443}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,74 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+  <si>
+    <t>指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣威RX5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全气囊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驻车雷达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒车影像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全系配备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全景天窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低配没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座椅材质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仿皮和织物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +115,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +405,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/购车/家用车对比.xlsx
+++ b/购车/家用车对比.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\iwangding\2020资料\test\购车\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E9AE6C-75DA-4F6C-A429-3F938DCAD443}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319A6CBB-3801-4982-A49E-0A4A1FF5E8C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="车型对比" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,29 +26,189 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
   <si>
     <t>指南</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>荣威RX5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全气囊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观内饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>品牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>荣威RX5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全气囊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驻车雷达</t>
+    <t>铝合金轮毂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车顶行李架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED日间行车灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软质环保搪塑仪表台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D型运动高质感方向盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛道风前栅格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全LED参数化尾灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能全景天窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手刹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPB电子手刹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胎压监测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刹车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBA智能刹车辅助系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESP车辆稳定系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HHC坡道辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前排限力式安全带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有（EBD也有）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高质环绕式立体音响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动升降玻璃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机互联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carlife手机互联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收音机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能收音机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能电动空调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触控屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10英寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能车载蓝牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无线充电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -55,23 +216,212 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全系配备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全景天窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低配没有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>座椅材质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仿皮和织物</t>
+    <t>电动后视镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动机参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.现金礼 补贴5000元
+2.金融礼 3年0利息或送3个月月供款
+3.科技力 赠送1年蓝牙钥匙
+4.10年不限量里程质保
+5.4000元增/换购补贴
+6.赠送5年车联网流量（2G/月）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亦炫GS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230T自动越目版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230T自动越酷版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230T自动越享版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.19万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.99万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.89万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶砖透镜前大灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全LED参数化尾灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能车机系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑全LED大灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑流水式转向灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑真皮方向盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑雨量感应雨刮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑透亮LED前雾灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑副座椅电动调节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑前后一体式侧气帘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑前排预紧安全带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无钥匙进入及启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能定速度巡航系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无骨雨刮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能电动空调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM2.5自动净化系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒车雷达及影像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全液晶仪表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑后视镜锁车自动折叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑主座椅六向电动调节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑自动恒温空调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑全景360超清影像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑前向碰撞预警系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑自动紧急制动系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑前排侧安全气囊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑带启停自适应巡航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑AEB-P自动制动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑车道偏离预警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑车道保持辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑车道居中控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑车道标志识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑交通拥堵辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑只能领航辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亦炫GS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长X宽X高+轴距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4610X1830X1600+2680</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +429,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +439,40 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -115,16 +499,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,107 +817,1594 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="18.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="C27" s="9">
+        <v>2</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+    </row>
+    <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+    </row>
+    <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+    </row>
+    <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+    </row>
+    <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+    </row>
+    <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+    </row>
+    <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+    </row>
+    <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+    </row>
+    <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+    </row>
+    <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="B45" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+    </row>
+    <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+    </row>
+    <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+    </row>
+    <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+    </row>
+    <row r="49" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+    </row>
+    <row r="50" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+    </row>
+    <row r="51" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+    </row>
+    <row r="52" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+    </row>
+    <row r="53" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+    </row>
+    <row r="54" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+    </row>
+    <row r="55" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+    </row>
+    <row r="56" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+    </row>
+    <row r="60" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:N2"/>
+  <mergeCells count="8">
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="C50:C55"/>
+    <mergeCell ref="B1:O2"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A25:A35"/>
+    <mergeCell ref="A36:A49"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A5:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7337A4D3-9B6A-452B-9F3F-E938F48CC0FB}">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9"/>
+      <c r="B1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A4:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/购车/家用车对比.xlsx
+++ b/购车/家用车对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\iwangding\2020资料\test\购车\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319A6CBB-3801-4982-A49E-0A4A1FF5E8C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD5AC0B-EFE9-4C35-89F3-91A038F1A351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="117">
   <si>
     <t>指南</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,12 +424,88 @@
     <t>4610X1830X1600+2680</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>常用功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车内空间更大、舒适性更好、车辆的行驶稳定性越高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动机功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功率越高，车辆的动力就越好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动机扭矩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定提速，功率决定时速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒车影像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒车雷达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后视镜折叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后视镜加热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后排出风口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多功能方向盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动空调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座椅通风加热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胎压监测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座椅腰部支撑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +554,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -499,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -510,20 +600,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -534,8 +615,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:C55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -833,1058 +932,1061 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="7" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-    </row>
-    <row r="8" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-    </row>
-    <row r="11" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-    </row>
-    <row r="12" spans="1:15" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="6">
         <v>2</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="9"/>
+      <c r="B31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="9"/>
+      <c r="B37" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="9"/>
+      <c r="B38" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="9"/>
+      <c r="B39" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="9" t="s">
+      <c r="A40" s="9"/>
+      <c r="B40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
     </row>
     <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="9"/>
+      <c r="B42" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="9"/>
+      <c r="B43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="9"/>
+      <c r="B44" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
     </row>
     <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="9"/>
+      <c r="B45" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
     </row>
     <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
     </row>
     <row r="49" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="12" t="s">
+      <c r="B50" s="6"/>
+      <c r="C50" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
     </row>
     <row r="51" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
     </row>
     <row r="53" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
     </row>
     <row r="54" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
     </row>
     <row r="55" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
     </row>
     <row r="56" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -1899,6 +2001,15 @@
       <c r="O56" s="2"/>
     </row>
     <row r="57" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>1</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -1913,6 +2024,15 @@
       <c r="O57" s="2"/>
     </row>
     <row r="58" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>2</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -1927,6 +2047,15 @@
       <c r="O58" s="2"/>
     </row>
     <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>3</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -1941,6 +2070,12 @@
       <c r="O59" s="2"/>
     </row>
     <row r="60" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>4</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -1953,6 +2088,102 @@
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
+    </row>
+    <row r="61" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>5</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>6</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>7</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>8</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>9</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>10</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>11</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>12</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>13</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>14</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>15</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>16</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1987,368 +2218,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>

--- a/购车/家用车对比.xlsx
+++ b/购车/家用车对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\iwangding\2020资料\test\购车\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD5AC0B-EFE9-4C35-89F3-91A038F1A351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D41BE1-A2B0-40BA-AE7B-DC21AF757F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="128">
   <si>
     <t>指南</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -498,6 +498,50 @@
   </si>
   <si>
     <t>座椅腰部支撑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡肋功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏天隔热很差，隔音也不好，密封胶条时间长会老化，导致密封不严，进灰漏雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大灯自动清洗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市道路根本不存在泥浆很多这种问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动启停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反而更耗油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动泊车系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完美状况下才能实现（没有垃圾桶，砖块，车间距合理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日间行车灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白天开着耗电</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -618,6 +662,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -631,10 +684,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -932,38 +982,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1005,7 +1055,7 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="16" t="s">
         <v>95</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1028,7 +1078,7 @@
       <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1045,7 +1095,7 @@
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1062,7 +1112,7 @@
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1079,7 +1129,7 @@
       <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1096,7 +1146,7 @@
       <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1113,7 +1163,7 @@
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1130,7 +1180,7 @@
       <c r="O11" s="8"/>
     </row>
     <row r="12" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1147,7 +1197,7 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="6"/>
@@ -1166,7 +1216,7 @@
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1183,7 +1233,7 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1200,7 +1250,7 @@
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1221,7 +1271,7 @@
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
@@ -1240,7 +1290,7 @@
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
@@ -1261,7 +1311,7 @@
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="6" t="s">
         <v>9</v>
       </c>
@@ -1280,7 +1330,7 @@
       <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
@@ -1299,7 +1349,7 @@
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
@@ -1318,7 +1368,7 @@
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="6" t="s">
         <v>12</v>
       </c>
@@ -1337,7 +1387,7 @@
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1356,7 +1406,7 @@
       <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1373,7 +1423,7 @@
       <c r="O24" s="6"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -1396,7 +1446,7 @@
       <c r="O25" s="6"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="6" t="s">
         <v>17</v>
       </c>
@@ -1417,7 +1467,7 @@
       <c r="O26" s="6"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="6" t="s">
         <v>2</v>
       </c>
@@ -1438,7 +1488,7 @@
       <c r="O27" s="6"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="6" t="s">
         <v>19</v>
       </c>
@@ -1459,7 +1509,7 @@
       <c r="O28" s="6"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="6" t="s">
         <v>21</v>
       </c>
@@ -1480,7 +1530,7 @@
       <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="6" t="s">
         <v>23</v>
       </c>
@@ -1501,7 +1551,7 @@
       <c r="O30" s="6"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="6" t="s">
         <v>24</v>
       </c>
@@ -1522,7 +1572,7 @@
       <c r="O31" s="6"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="6" t="s">
         <v>26</v>
       </c>
@@ -1543,7 +1593,7 @@
       <c r="O32" s="6"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="6" t="s">
         <v>46</v>
       </c>
@@ -1564,7 +1614,7 @@
       <c r="O33" s="6"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1581,7 +1631,7 @@
       <c r="O34" s="6"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1598,7 +1648,7 @@
       <c r="O35" s="6"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -1621,7 +1671,7 @@
       <c r="O36" s="6"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="6" t="s">
         <v>30</v>
       </c>
@@ -1642,7 +1692,7 @@
       <c r="O37" s="6"/>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="6" t="s">
         <v>32</v>
       </c>
@@ -1663,7 +1713,7 @@
       <c r="O38" s="6"/>
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="6" t="s">
         <v>34</v>
       </c>
@@ -1684,7 +1734,7 @@
       <c r="O39" s="6"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="6" t="s">
         <v>36</v>
       </c>
@@ -1705,7 +1755,7 @@
       <c r="O40" s="6"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="6" t="s">
         <v>38</v>
       </c>
@@ -1726,7 +1776,7 @@
       <c r="O41" s="6"/>
     </row>
     <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="6" t="s">
         <v>40</v>
       </c>
@@ -1747,7 +1797,7 @@
       <c r="O42" s="6"/>
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="6" t="s">
         <v>42</v>
       </c>
@@ -1768,7 +1818,7 @@
       <c r="O43" s="6"/>
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="6" t="s">
         <v>44</v>
       </c>
@@ -1789,7 +1839,7 @@
       <c r="O44" s="6"/>
     </row>
     <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="6" t="s">
         <v>47</v>
       </c>
@@ -1810,7 +1860,7 @@
       <c r="O45" s="6"/>
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1827,7 +1877,7 @@
       <c r="O46" s="6"/>
     </row>
     <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -1844,7 +1894,7 @@
       <c r="O47" s="6"/>
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1861,7 +1911,7 @@
       <c r="O48" s="6"/>
     </row>
     <row r="49" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1878,11 +1928,11 @@
       <c r="O49" s="6"/>
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="6"/>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D50" s="6"/>
@@ -1899,9 +1949,9 @@
       <c r="O50" s="6"/>
     </row>
     <row r="51" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="10"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -1916,9 +1966,9 @@
       <c r="O51" s="6"/>
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="10"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -1933,9 +1983,9 @@
       <c r="O52" s="6"/>
     </row>
     <row r="53" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="10"/>
+      <c r="C53" s="13"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -1950,9 +2000,9 @@
       <c r="O53" s="6"/>
     </row>
     <row r="54" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="10"/>
+      <c r="C54" s="13"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -1967,9 +2017,9 @@
       <c r="O54" s="6"/>
     </row>
     <row r="55" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="10"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -2004,10 +2054,10 @@
       <c r="A57" s="2">
         <v>1</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D57" s="2"/>
@@ -2030,7 +2080,7 @@
       <c r="B58" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="10" t="s">
         <v>102</v>
       </c>
       <c r="D58" s="2"/>
@@ -2053,7 +2103,7 @@
       <c r="B59" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="10" t="s">
         <v>104</v>
       </c>
       <c r="D59" s="2"/>
@@ -2073,7 +2123,7 @@
       <c r="A60" s="3">
         <v>4</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="10" t="s">
         <v>105</v>
       </c>
       <c r="D60" s="2"/>
@@ -2093,7 +2143,7 @@
       <c r="A61" s="3">
         <v>5</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="10" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2101,7 +2151,7 @@
       <c r="A62" s="3">
         <v>6</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="10" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2109,7 +2159,7 @@
       <c r="A63" s="3">
         <v>7</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="10" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2117,72 +2167,132 @@
       <c r="A64" s="3">
         <v>8</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>9</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>10</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>11</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>12</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>13</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>14</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>15</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>16</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="9">
+        <v>2</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="9">
+        <v>3</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="9">
+        <v>4</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="9">
+        <v>5</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2219,11 +2329,11 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -2270,7 +2380,7 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -2290,7 +2400,7 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
@@ -2308,7 +2418,7 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="6" t="s">
         <v>62</v>
       </c>
@@ -2326,7 +2436,7 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="6" t="s">
         <v>63</v>
       </c>
@@ -2344,7 +2454,7 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2364,7 +2474,7 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="6" t="s">
         <v>73</v>
       </c>
@@ -2382,7 +2492,7 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="6" t="s">
         <v>74</v>
       </c>
@@ -2400,7 +2510,7 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="6" t="s">
         <v>75</v>
       </c>
@@ -2418,7 +2528,7 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="6" t="s">
         <v>76</v>
       </c>
@@ -2436,7 +2546,7 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="6" t="s">
         <v>77</v>
       </c>
@@ -2454,7 +2564,7 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="6" t="s">
         <v>78</v>
       </c>
@@ -2472,7 +2582,7 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
@@ -2486,7 +2596,7 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>

--- a/购车/家用车对比.xlsx
+++ b/购车/家用车对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\iwangding\2020资料\test\购车\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D41BE1-A2B0-40BA-AE7B-DC21AF757F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D4FFBE-16CA-4C9E-832C-44FBA4064505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="132">
   <si>
     <t>指南</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,6 +542,22 @@
   </si>
   <si>
     <t>白天开着耗电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈弗M6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯柯达柯米克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它是哈弗H6的衍生车型，顶配车型1.5T DCT两驱精武型 8.1万元，完全落地11万足够，哈弗的车市场占有量高，以后维修保养便宜 此款车顶配，配置较全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果也要11万落地只能考虑中低配，柯米克1.5L自动标准版只要8.99万，配置中等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -668,6 +684,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,7 +702,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -968,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -978,42 +997,44 @@
     <col min="2" max="2" width="18.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="39.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="29.625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1026,8 +1047,12 @@
       <c r="D3" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1038,12 +1063,16 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>131</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1055,7 +1084,7 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>95</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1078,7 +1107,7 @@
       <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1095,7 +1124,7 @@
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1112,7 +1141,7 @@
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1129,7 +1158,7 @@
       <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1146,7 +1175,7 @@
       <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1163,7 +1192,7 @@
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1180,7 +1209,7 @@
       <c r="O11" s="8"/>
     </row>
     <row r="12" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1197,7 +1226,7 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="6"/>
@@ -1216,7 +1245,7 @@
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1233,7 +1262,7 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1250,7 +1279,7 @@
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1271,7 +1300,7 @@
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
@@ -1290,7 +1319,7 @@
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
@@ -1311,7 +1340,7 @@
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="6" t="s">
         <v>9</v>
       </c>
@@ -1330,7 +1359,7 @@
       <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
@@ -1349,7 +1378,7 @@
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
@@ -1368,7 +1397,7 @@
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="6" t="s">
         <v>12</v>
       </c>
@@ -1387,7 +1416,7 @@
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1406,7 +1435,7 @@
       <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1423,7 +1452,7 @@
       <c r="O24" s="6"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -1446,7 +1475,7 @@
       <c r="O25" s="6"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="6" t="s">
         <v>17</v>
       </c>
@@ -1467,7 +1496,7 @@
       <c r="O26" s="6"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="6" t="s">
         <v>2</v>
       </c>
@@ -1488,7 +1517,7 @@
       <c r="O27" s="6"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="6" t="s">
         <v>19</v>
       </c>
@@ -1509,7 +1538,7 @@
       <c r="O28" s="6"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="6" t="s">
         <v>21</v>
       </c>
@@ -1530,7 +1559,7 @@
       <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="6" t="s">
         <v>23</v>
       </c>
@@ -1551,7 +1580,7 @@
       <c r="O30" s="6"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="6" t="s">
         <v>24</v>
       </c>
@@ -1572,7 +1601,7 @@
       <c r="O31" s="6"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="6" t="s">
         <v>26</v>
       </c>
@@ -1593,7 +1622,7 @@
       <c r="O32" s="6"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="6" t="s">
         <v>46</v>
       </c>
@@ -1614,7 +1643,7 @@
       <c r="O33" s="6"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1631,7 +1660,7 @@
       <c r="O34" s="6"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1648,7 +1677,7 @@
       <c r="O35" s="6"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -1671,7 +1700,7 @@
       <c r="O36" s="6"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="6" t="s">
         <v>30</v>
       </c>
@@ -1692,7 +1721,7 @@
       <c r="O37" s="6"/>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="6" t="s">
         <v>32</v>
       </c>
@@ -1713,7 +1742,7 @@
       <c r="O38" s="6"/>
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="6" t="s">
         <v>34</v>
       </c>
@@ -1734,7 +1763,7 @@
       <c r="O39" s="6"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="6" t="s">
         <v>36</v>
       </c>
@@ -1755,7 +1784,7 @@
       <c r="O40" s="6"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="6" t="s">
         <v>38</v>
       </c>
@@ -1776,7 +1805,7 @@
       <c r="O41" s="6"/>
     </row>
     <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="6" t="s">
         <v>40</v>
       </c>
@@ -1797,7 +1826,7 @@
       <c r="O42" s="6"/>
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="6" t="s">
         <v>42</v>
       </c>
@@ -1818,7 +1847,7 @@
       <c r="O43" s="6"/>
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="6" t="s">
         <v>44</v>
       </c>
@@ -1839,7 +1868,7 @@
       <c r="O44" s="6"/>
     </row>
     <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="6" t="s">
         <v>47</v>
       </c>
@@ -1860,7 +1889,7 @@
       <c r="O45" s="6"/>
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1877,7 +1906,7 @@
       <c r="O46" s="6"/>
     </row>
     <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -1894,7 +1923,7 @@
       <c r="O47" s="6"/>
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1911,7 +1940,7 @@
       <c r="O48" s="6"/>
     </row>
     <row r="49" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
+      <c r="A49" s="13"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1928,11 +1957,11 @@
       <c r="O49" s="6"/>
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="6"/>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D50" s="6"/>
@@ -1949,9 +1978,9 @@
       <c r="O50" s="6"/>
     </row>
     <row r="51" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
+      <c r="A51" s="13"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="13"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -1966,9 +1995,9 @@
       <c r="O51" s="6"/>
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
+      <c r="A52" s="13"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="13"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -1983,9 +2012,9 @@
       <c r="O52" s="6"/>
     </row>
     <row r="53" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="13"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -2000,9 +2029,9 @@
       <c r="O53" s="6"/>
     </row>
     <row r="54" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
+      <c r="A54" s="13"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="13"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -2017,9 +2046,9 @@
       <c r="O54" s="6"/>
     </row>
     <row r="55" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
+      <c r="A55" s="13"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="13"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -2247,7 +2276,7 @@
       <c r="B74" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="12" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2258,7 +2287,7 @@
       <c r="B75" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="12" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2280,7 +2309,7 @@
       <c r="B77" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="12" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2329,11 +2358,11 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -2380,7 +2409,7 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -2400,7 +2429,7 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
@@ -2418,7 +2447,7 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="6" t="s">
         <v>62</v>
       </c>
@@ -2436,7 +2465,7 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="6" t="s">
         <v>63</v>
       </c>
@@ -2454,7 +2483,7 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2474,7 +2503,7 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="6" t="s">
         <v>73</v>
       </c>
@@ -2492,7 +2521,7 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="6" t="s">
         <v>74</v>
       </c>
@@ -2510,7 +2539,7 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="6" t="s">
         <v>75</v>
       </c>
@@ -2528,7 +2557,7 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="6" t="s">
         <v>76</v>
       </c>
@@ -2546,7 +2575,7 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="6" t="s">
         <v>77</v>
       </c>
@@ -2564,7 +2593,7 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="6" t="s">
         <v>78</v>
       </c>
@@ -2582,7 +2611,7 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
@@ -2596,7 +2625,7 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>

--- a/购车/家用车对比.xlsx
+++ b/购车/家用车对比.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\iwangding\2020资料\test\购车\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D4FFBE-16CA-4C9E-832C-44FBA4064505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE637F12-1AF4-4914-9C53-B93740D4AAE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="135">
   <si>
     <t>指南</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -545,19 +545,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>哈弗M6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>斯柯达柯米克</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>它是哈弗H6的衍生车型，顶配车型1.5T DCT两驱精武型 8.1万元，完全落地11万足够，哈弗的车市场占有量高，以后维修保养便宜 此款车顶配，配置较全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果也要11万落地只能考虑中低配，柯米克1.5L自动标准版只要8.99万，配置中等</t>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈弗H6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉利博越</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比亚迪宋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广汽传媒gs4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安cs75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,6 +699,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -701,9 +716,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -987,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -999,42 +1011,46 @@
     <col min="4" max="4" width="29.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="33.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="27.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1048,31 +1064,38 @@
         <v>94</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>131</v>
-      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1084,7 +1107,7 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>95</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1107,7 +1130,7 @@
       <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1124,7 +1147,7 @@
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1141,7 +1164,7 @@
       <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1158,7 +1181,7 @@
       <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1175,7 +1198,7 @@
       <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1192,7 +1215,7 @@
       <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1209,7 +1232,7 @@
       <c r="O11" s="8"/>
     </row>
     <row r="12" spans="1:15" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1226,7 +1249,7 @@
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="6"/>
@@ -1245,7 +1268,7 @@
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1262,7 +1285,7 @@
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1279,7 +1302,7 @@
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1300,7 +1323,7 @@
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
@@ -1319,7 +1342,7 @@
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
@@ -1340,7 +1363,7 @@
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="6" t="s">
         <v>9</v>
       </c>
@@ -1359,7 +1382,7 @@
       <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
@@ -1378,7 +1401,7 @@
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
@@ -1397,7 +1420,7 @@
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="6" t="s">
         <v>12</v>
       </c>
@@ -1416,7 +1439,7 @@
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1458,7 @@
       <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1452,7 +1475,7 @@
       <c r="O24" s="6"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -1475,7 +1498,7 @@
       <c r="O25" s="6"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="6" t="s">
         <v>17</v>
       </c>
@@ -1496,7 +1519,7 @@
       <c r="O26" s="6"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="6" t="s">
         <v>2</v>
       </c>
@@ -1517,7 +1540,7 @@
       <c r="O27" s="6"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="6" t="s">
         <v>19</v>
       </c>
@@ -1538,7 +1561,7 @@
       <c r="O28" s="6"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="6" t="s">
         <v>21</v>
       </c>
@@ -1559,7 +1582,7 @@
       <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="6" t="s">
         <v>23</v>
       </c>
@@ -1580,7 +1603,7 @@
       <c r="O30" s="6"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="6" t="s">
         <v>24</v>
       </c>
@@ -1601,7 +1624,7 @@
       <c r="O31" s="6"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="6" t="s">
         <v>26</v>
       </c>
@@ -1622,7 +1645,7 @@
       <c r="O32" s="6"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="6" t="s">
         <v>46</v>
       </c>
@@ -1643,7 +1666,7 @@
       <c r="O33" s="6"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1660,7 +1683,7 @@
       <c r="O34" s="6"/>
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1677,7 +1700,7 @@
       <c r="O35" s="6"/>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -1700,7 +1723,7 @@
       <c r="O36" s="6"/>
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="6" t="s">
         <v>30</v>
       </c>
@@ -1721,7 +1744,7 @@
       <c r="O37" s="6"/>
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="6" t="s">
         <v>32</v>
       </c>
@@ -1742,7 +1765,7 @@
       <c r="O38" s="6"/>
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="6" t="s">
         <v>34</v>
       </c>
@@ -1763,7 +1786,7 @@
       <c r="O39" s="6"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="6" t="s">
         <v>36</v>
       </c>
@@ -1784,7 +1807,7 @@
       <c r="O40" s="6"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="6" t="s">
         <v>38</v>
       </c>
@@ -1805,7 +1828,7 @@
       <c r="O41" s="6"/>
     </row>
     <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="6" t="s">
         <v>40</v>
       </c>
@@ -1826,7 +1849,7 @@
       <c r="O42" s="6"/>
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="6" t="s">
         <v>42</v>
       </c>
@@ -1847,7 +1870,7 @@
       <c r="O43" s="6"/>
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="6" t="s">
         <v>44</v>
       </c>
@@ -1868,7 +1891,7 @@
       <c r="O44" s="6"/>
     </row>
     <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="6" t="s">
         <v>47</v>
       </c>
@@ -1889,7 +1912,7 @@
       <c r="O45" s="6"/>
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1906,7 +1929,7 @@
       <c r="O46" s="6"/>
     </row>
     <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
+      <c r="A47" s="14"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -1923,7 +1946,7 @@
       <c r="O47" s="6"/>
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
+      <c r="A48" s="14"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1940,7 +1963,7 @@
       <c r="O48" s="6"/>
     </row>
     <row r="49" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="13"/>
+      <c r="A49" s="14"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1957,11 +1980,11 @@
       <c r="O49" s="6"/>
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="6"/>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="15" t="s">
         <v>50</v>
       </c>
       <c r="D50" s="6"/>
@@ -1978,9 +2001,9 @@
       <c r="O50" s="6"/>
     </row>
     <row r="51" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="13"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="14"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -1995,9 +2018,9 @@
       <c r="O51" s="6"/>
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="13"/>
+      <c r="A52" s="14"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="14"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -2012,9 +2035,9 @@
       <c r="O52" s="6"/>
     </row>
     <row r="53" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="13"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="14"/>
+      <c r="C53" s="15"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -2029,9 +2052,9 @@
       <c r="O53" s="6"/>
     </row>
     <row r="54" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="13"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="14"/>
+      <c r="C54" s="15"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -2046,9 +2069,9 @@
       <c r="O54" s="6"/>
     </row>
     <row r="55" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="14"/>
+      <c r="C55" s="15"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -2358,11 +2381,11 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -2409,7 +2432,7 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -2429,7 +2452,7 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
@@ -2447,7 +2470,7 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
         <v>62</v>
       </c>
@@ -2465,7 +2488,7 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="6" t="s">
         <v>63</v>
       </c>
@@ -2483,7 +2506,7 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2503,7 +2526,7 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="6" t="s">
         <v>73</v>
       </c>
@@ -2521,7 +2544,7 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="6" t="s">
         <v>74</v>
       </c>
@@ -2539,7 +2562,7 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="6" t="s">
         <v>75</v>
       </c>
@@ -2557,7 +2580,7 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="6" t="s">
         <v>76</v>
       </c>
@@ -2575,7 +2598,7 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="6" t="s">
         <v>77</v>
       </c>
@@ -2593,7 +2616,7 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="6" t="s">
         <v>78</v>
       </c>
@@ -2611,7 +2634,7 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
@@ -2625,7 +2648,7 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>

--- a/购车/家用车对比.xlsx
+++ b/购车/家用车对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\iwangding\2020资料\test\购车\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B204BDB-43A7-43AB-896E-790FFF9B31F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E78D65-4902-42A9-8F81-0D98734023CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="180">
   <si>
     <t>指南</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -721,7 +721,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最大马力（）</t>
+    <t>最大马力（ps）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大功率（kw）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大功率转速（rpm）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大扭矩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大扭矩转速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动机特有技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃料形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃油标号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -821,7 +849,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -831,9 +859,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -848,16 +873,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -868,9 +887,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -878,6 +894,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1161,52 +1192,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V107"/>
+  <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="39.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="7" customWidth="1"/>
-    <col min="8" max="8" width="6.375" style="7" customWidth="1"/>
-    <col min="9" max="10" width="29.625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="26.5" style="7" customWidth="1"/>
-    <col min="13" max="13" width="33.625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="27.75" style="7" customWidth="1"/>
-    <col min="15" max="15" width="21.5" style="7" customWidth="1"/>
-    <col min="16" max="16" width="18" style="7" customWidth="1"/>
-    <col min="17" max="17" width="21.5" style="7" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="12.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="39.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="6" customWidth="1"/>
+    <col min="8" max="8" width="6.375" style="6" customWidth="1"/>
+    <col min="9" max="10" width="29.625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="26.5" style="6" customWidth="1"/>
+    <col min="13" max="13" width="33.625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="27.75" style="6" customWidth="1"/>
+    <col min="15" max="15" width="21.5" style="6" customWidth="1"/>
+    <col min="16" max="16" width="18" style="6" customWidth="1"/>
+    <col min="17" max="17" width="21.5" style="6" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:22" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>94</v>
       </c>
       <c r="E3" s="16" t="s">
@@ -1219,828 +1250,830 @@
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
     </row>
     <row r="4" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
     </row>
     <row r="5" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
     </row>
     <row r="6" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-    </row>
-    <row r="7" spans="1:22" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="D6" s="4"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+    </row>
+    <row r="7" spans="1:22" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-    </row>
-    <row r="8" spans="1:22" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="18" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+    </row>
+    <row r="8" spans="1:22" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-    </row>
-    <row r="9" spans="1:22" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="18" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+    </row>
+    <row r="9" spans="1:22" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-    </row>
-    <row r="10" spans="1:22" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="18" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+    </row>
+    <row r="10" spans="1:22" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-    </row>
-    <row r="11" spans="1:22" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="18" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+    </row>
+    <row r="11" spans="1:22" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-    </row>
-    <row r="12" spans="1:22" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="18" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+    </row>
+    <row r="12" spans="1:22" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-    </row>
-    <row r="13" spans="1:22" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="18" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+    </row>
+    <row r="13" spans="1:22" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
     </row>
     <row r="14" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
     </row>
     <row r="15" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
     </row>
     <row r="16" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
     </row>
     <row r="17" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
     </row>
     <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
     </row>
     <row r="19" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
     </row>
     <row r="20" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
     </row>
     <row r="21" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
     </row>
     <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
     </row>
     <row r="24" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
     </row>
     <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
+      <c r="D25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
     </row>
     <row r="26" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="19" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
     </row>
     <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="19" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
+      <c r="D27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
     </row>
     <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="19" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
+      <c r="D28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
     </row>
     <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
+      <c r="D29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
     </row>
     <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
     </row>
     <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="19" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="19" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
     </row>
     <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
+      <c r="D33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
     </row>
     <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
+      <c r="D34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
     </row>
     <row r="35" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
+      <c r="D35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
     </row>
     <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="5" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
+      <c r="D36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
     </row>
     <row r="37" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="5" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
+      <c r="D37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
     </row>
     <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="5" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
+      <c r="D38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
     </row>
     <row r="39" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
+      <c r="D39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
     </row>
     <row r="40" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="5" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
+      <c r="D40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
     </row>
     <row r="41" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="18"/>
+      <c r="B41" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
+      <c r="D41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
     </row>
     <row r="42" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="18"/>
+      <c r="B42" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
+      <c r="D42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
     </row>
     <row r="43" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="5" t="s">
+      <c r="A43" s="18"/>
+      <c r="B43" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
+      <c r="D43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
     </row>
     <row r="44" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="D44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
     </row>
     <row r="45" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="A45" s="18"/>
       <c r="B45" s="5" t="s">
-        <v>6</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
@@ -2055,10 +2088,11 @@
       <c r="V45" s="5"/>
     </row>
     <row r="46" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -2073,13 +2107,11 @@
       <c r="V46" s="5"/>
     </row>
     <row r="47" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
@@ -2094,10 +2126,11 @@
       <c r="V47" s="5"/>
     </row>
     <row r="48" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
@@ -2112,10 +2145,11 @@
       <c r="V48" s="5"/>
     </row>
     <row r="49" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
@@ -2130,10 +2164,11 @@
       <c r="V49" s="5"/>
     </row>
     <row r="50" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
@@ -2148,10 +2183,9 @@
       <c r="V50" s="5"/>
     </row>
     <row r="51" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
-      <c r="B51" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="A51" s="18"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
@@ -2166,10 +2200,9 @@
       <c r="V51" s="5"/>
     </row>
     <row r="52" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="6"/>
-      <c r="B52" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A52" s="18"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -2184,7 +2217,9 @@
       <c r="V52" s="5"/>
     </row>
     <row r="53" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -2199,15 +2234,9 @@
       <c r="V53" s="5"/>
     </row>
     <row r="54" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A54" s="18"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -2222,13 +2251,9 @@
       <c r="V54" s="5"/>
     </row>
     <row r="55" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
-      <c r="B55" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A55" s="18"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
@@ -2243,813 +2268,1021 @@
       <c r="V55" s="5"/>
     </row>
     <row r="56" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="6"/>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+    </row>
+    <row r="57" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="19"/>
+      <c r="B57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+    </row>
+    <row r="58" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="19"/>
+      <c r="B58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+    </row>
+    <row r="59" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="19"/>
+      <c r="B59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+    </row>
+    <row r="60" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="19"/>
+      <c r="B60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+    </row>
+    <row r="61" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="19"/>
+      <c r="B61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+    </row>
+    <row r="62" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="19"/>
+      <c r="B62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+    </row>
+    <row r="63" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="19"/>
+      <c r="B63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+    </row>
+    <row r="64" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="19"/>
+      <c r="D64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+    </row>
+    <row r="65" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+    </row>
+    <row r="66" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="19"/>
+      <c r="B66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+    </row>
+    <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="19"/>
+      <c r="B67" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C67" s="4">
         <v>2</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-    </row>
-    <row r="57" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
-      <c r="B57" s="5" t="s">
+      <c r="D67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+    </row>
+    <row r="68" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="19"/>
+      <c r="B68" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-    </row>
-    <row r="58" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
-      <c r="B58" s="5" t="s">
+      <c r="D68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+    </row>
+    <row r="69" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="19"/>
+      <c r="B69" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-    </row>
-    <row r="59" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="6"/>
-      <c r="B59" s="5" t="s">
+      <c r="D69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+    </row>
+    <row r="70" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="19"/>
+      <c r="B70" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-    </row>
-    <row r="60" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="6"/>
-      <c r="B60" s="5" t="s">
+      <c r="D70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+    </row>
+    <row r="71" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="19"/>
+      <c r="B71" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C71" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-    </row>
-    <row r="61" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
-      <c r="B61" s="5" t="s">
+      <c r="D71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+    </row>
+    <row r="72" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="19"/>
+      <c r="B72" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
-    </row>
-    <row r="62" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="6"/>
-      <c r="B62" s="5" t="s">
+      <c r="D72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+    </row>
+    <row r="73" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="19"/>
+      <c r="B73" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
-    </row>
-    <row r="63" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
-      <c r="D63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="5"/>
-    </row>
-    <row r="64" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
-      <c r="D64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-    </row>
-    <row r="65" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
+      <c r="D73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+    </row>
+    <row r="74" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="19"/>
+      <c r="D74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+    </row>
+    <row r="75" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="19"/>
+      <c r="D75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+    </row>
+    <row r="76" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C76" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
-    </row>
-    <row r="66" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
-      <c r="B66" s="5" t="s">
+      <c r="D76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+    </row>
+    <row r="77" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="19"/>
+      <c r="B77" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C77" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-    </row>
-    <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
-      <c r="B67" s="5" t="s">
+      <c r="D77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+    </row>
+    <row r="78" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="19"/>
+      <c r="B78" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C78" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-    </row>
-    <row r="68" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
-      <c r="B68" s="5" t="s">
+      <c r="D78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+    </row>
+    <row r="79" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="19"/>
+      <c r="B79" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C79" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-    </row>
-    <row r="69" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
-      <c r="B69" s="5" t="s">
+      <c r="D79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+    </row>
+    <row r="80" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="19"/>
+      <c r="B80" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C80" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
-    </row>
-    <row r="70" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="6"/>
-      <c r="B70" s="5" t="s">
+      <c r="D80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+    </row>
+    <row r="81" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="19"/>
+      <c r="B81" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C81" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5"/>
-      <c r="V70" s="5"/>
-    </row>
-    <row r="71" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="6"/>
-      <c r="B71" s="5" t="s">
+      <c r="D81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+    </row>
+    <row r="82" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="19"/>
+      <c r="B82" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C82" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-    </row>
-    <row r="72" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="6"/>
-      <c r="B72" s="5" t="s">
+      <c r="D82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+    </row>
+    <row r="83" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="19"/>
+      <c r="B83" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C83" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
-    </row>
-    <row r="73" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
-      <c r="B73" s="5" t="s">
+      <c r="D83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+    </row>
+    <row r="84" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="19"/>
+      <c r="B84" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C84" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5"/>
-    </row>
-    <row r="74" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="6"/>
-      <c r="B74" s="5" t="s">
+      <c r="D84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="4"/>
+    </row>
+    <row r="85" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="19"/>
+      <c r="B85" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C85" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5"/>
-      <c r="V74" s="5"/>
-    </row>
-    <row r="75" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
-      <c r="D75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5"/>
-      <c r="V75" s="5"/>
-    </row>
-    <row r="76" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="6"/>
-      <c r="D76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5"/>
-      <c r="V76" s="5"/>
-    </row>
-    <row r="77" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
-      <c r="D77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5"/>
-      <c r="V77" s="5"/>
-    </row>
-    <row r="78" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="6"/>
-      <c r="D78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5"/>
-      <c r="V78" s="5"/>
-    </row>
-    <row r="79" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
+      <c r="D85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+    </row>
+    <row r="86" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="19"/>
+      <c r="D86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+      <c r="S86" s="4"/>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+    </row>
+    <row r="87" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="19"/>
+      <c r="D87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+    </row>
+    <row r="88" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="19"/>
+      <c r="D88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+      <c r="S88" s="4"/>
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="4"/>
+    </row>
+    <row r="89" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="19"/>
+      <c r="D89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+    </row>
+    <row r="90" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C90" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5"/>
-      <c r="V79" s="5"/>
-    </row>
-    <row r="80" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="6"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5"/>
-      <c r="V80" s="5"/>
-    </row>
-    <row r="81" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="5"/>
-      <c r="V81" s="5"/>
-    </row>
-    <row r="82" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="6"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5"/>
-      <c r="V82" s="5"/>
-    </row>
-    <row r="83" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="6"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
-    </row>
-    <row r="84" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="6"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="5"/>
-      <c r="V84" s="5"/>
-    </row>
-    <row r="85" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="5" t="s">
+      <c r="D90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="4"/>
+    </row>
+    <row r="91" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="19"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4"/>
+    </row>
+    <row r="92" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="19"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+    </row>
+    <row r="93" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="19"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+    </row>
+    <row r="94" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="19"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="4"/>
+    </row>
+    <row r="95" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="19"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+    </row>
+    <row r="96" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D85" s="5"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5"/>
-      <c r="V85" s="5"/>
-    </row>
-    <row r="86" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="5">
+      <c r="D96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="4"/>
+    </row>
+    <row r="97" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
         <v>1</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C97" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5"/>
-      <c r="V86" s="5"/>
-    </row>
-    <row r="87" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="5">
+      <c r="D97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+    </row>
+    <row r="98" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
         <v>2</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C98" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5"/>
-      <c r="V87" s="5"/>
-    </row>
-    <row r="88" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
+      <c r="D98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="4"/>
+    </row>
+    <row r="99" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
         <v>3</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B99" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C99" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5"/>
-      <c r="V88" s="5"/>
-    </row>
-    <row r="89" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="5">
+      <c r="D99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+    </row>
+    <row r="100" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
         <v>4</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B100" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-      <c r="U89" s="5"/>
-      <c r="V89" s="5"/>
-    </row>
-    <row r="90" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="5">
+      <c r="D100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="4"/>
+    </row>
+    <row r="101" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
         <v>5</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B101" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="5">
+    <row r="102" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
         <v>6</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B102" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="5">
+    <row r="103" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
         <v>7</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B103" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="5">
+    <row r="104" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
         <v>8</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B104" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+    <row r="105" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
         <v>9</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B105" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="5">
+    <row r="106" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
         <v>10</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B106" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="5">
+    <row r="107" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
         <v>11</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B107" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="5">
+    <row r="108" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
         <v>12</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B108" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="5">
+    <row r="109" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="4">
         <v>13</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B109" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="5">
+    <row r="110" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="4">
         <v>14</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B110" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="5">
+    <row r="111" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
         <v>15</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B111" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="5">
+    <row r="112" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
         <v>16</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B112" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="5" t="s">
+    <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="5">
+    <row r="114" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
         <v>1</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B114" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C114" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="5">
+    <row r="115" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
         <v>2</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B115" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C115" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="5">
+    <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
         <v>3</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B116" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C116" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="5">
+    <row r="117" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
         <v>4</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B117" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C117" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="5">
+    <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
         <v>5</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B118" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C118" s="4" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3058,11 +3291,11 @@
     <mergeCell ref="E3:L3"/>
     <mergeCell ref="A7:A24"/>
     <mergeCell ref="A25:A31"/>
-    <mergeCell ref="A33:A44"/>
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A45:A53"/>
-    <mergeCell ref="A54:A64"/>
-    <mergeCell ref="A65:A78"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A65:A75"/>
+    <mergeCell ref="A76:A89"/>
+    <mergeCell ref="A33:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3087,11 +3320,11 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3138,7 +3371,7 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="20" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3158,7 +3391,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3176,7 +3409,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="2" t="s">
         <v>62</v>
       </c>
@@ -3194,7 +3427,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="2" t="s">
         <v>63</v>
       </c>
@@ -3212,7 +3445,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3232,7 +3465,7 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="2" t="s">
         <v>73</v>
       </c>
@@ -3250,7 +3483,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="2" t="s">
         <v>74</v>
       </c>
@@ -3268,7 +3501,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="2" t="s">
         <v>75</v>
       </c>
@@ -3286,7 +3519,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="2" t="s">
         <v>76</v>
       </c>
@@ -3304,7 +3537,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="2" t="s">
         <v>77</v>
       </c>
@@ -3322,7 +3555,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="2" t="s">
         <v>78</v>
       </c>
@@ -3340,7 +3573,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
@@ -3354,7 +3587,7 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>

--- a/购车/家用车对比.xlsx
+++ b/购车/家用车对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\iwangding\2020资料\test\购车\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E78D65-4902-42A9-8F81-0D98734023CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6F1759-6E27-4B76-AB68-85FCB97088F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="324">
   <si>
     <t>指南</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -750,6 +750,582 @@
   </si>
   <si>
     <t>燃油标号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供油方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缸盖材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缸体材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环保标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变速箱参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档位个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变速箱类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱动方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前悬架类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后悬架类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>助力类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车体结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底盘转向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前制动器类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后制动器类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驻车制动类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前轮胎规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后轮胎规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备胎规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车轮制动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主/被动安全装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主/副驾驶座安全气囊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前/后排侧气囊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前/后排头部气囊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膝部气囊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副驾驶坐垫式气囊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后排安全带式气囊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后排座椅防下滑气囊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后排中央安全气囊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动行人保护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胎压监测功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺气保用轮胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全带未系提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童座椅接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABS防抱死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制动力分配（EBD/CBC等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刹车辅助（EBA/BAS/BA等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牵引力制动（ASR/TCS/TRC等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车身稳定控制（ESC/ESP/DSC等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并线辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车道偏离预警系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车道保持辅助系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道路交通标识识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动刹车/主动安全系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜视系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳驾驶提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助/操控配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前/后驻车雷达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶辅助影像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒车车侧预警系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡航系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驾驶模式切换（运动/经济/标准）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动泊车入位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动机启停技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动驻车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上坡辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陡坡缓降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可变悬架功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气悬架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁感应悬架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可变转向比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中央差速器锁止功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体主动转向系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防滑差速器/差速锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉水感应系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部/防盗配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天窗类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动外观套件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动扰流板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮圈材质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动吸合车门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧滑门形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动后备箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感应后备箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动后备箱位置记忆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾门玻璃独立开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车顶行李架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动机电子防盗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车内中控锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无钥匙启动系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无钥匙进入功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动闭合进气栅格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程启动功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车侧脚踏板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池预加热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向盘材质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向盘位置调节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多功能方向盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向盘加热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向盘记忆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行车电脑显示屏幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全液晶仪表盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>液晶仪表尺寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUD抬头数字显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内置行车记录仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动降噪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机无线充电功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动可调踏板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座椅配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座椅材质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动风格座椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主/副驾驶座电动调节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前排座椅功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动座椅记忆功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副驾驶位后排可调节按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二排座椅调节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后排座椅电动调节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后排座椅功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后排小桌板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二排独立座椅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座椅布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后排座椅放倒形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后排座椅电动放倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前/后中央扶手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后排杯架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加热/制冷杯架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多媒体配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主座椅调节方式（前后/靠背/高低）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副座椅调节方式（前后/靠背/高低）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中控彩色液晶屏幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中控液晶屏尺寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS导航系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航路况信息提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道路救援呼叫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中控液晶屏分屏显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝牙/车载电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机互联/映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音识别控制系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手势控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面部识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTA升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车载电视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后排液晶屏幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后排控制多媒体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多媒体/充电接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB/Type-C接口数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车载CD/DVD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220V/230V电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行李箱12V电源接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬声器品牌名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬声器数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,7 +1425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -896,6 +1472,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -903,10 +1482,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1192,16 +1771,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V118"/>
+  <dimension ref="A1:V254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="C196" sqref="C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23" style="4" customWidth="1"/>
     <col min="3" max="3" width="39.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="29.625" style="6" customWidth="1"/>
     <col min="5" max="5" width="9" style="6" customWidth="1"/>
@@ -1240,16 +1819,16 @@
       <c r="D3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="11" t="s">
         <v>125</v>
       </c>
@@ -1323,7 +1902,7 @@
       <c r="V6" s="4"/>
     </row>
     <row r="7" spans="1:22" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>139</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -1351,7 +1930,7 @@
       <c r="V7" s="8"/>
     </row>
     <row r="8" spans="1:22" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="14" t="s">
         <v>135</v>
       </c>
@@ -1377,7 +1956,7 @@
       <c r="V8" s="8"/>
     </row>
     <row r="9" spans="1:22" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="14" t="s">
         <v>136</v>
       </c>
@@ -1403,7 +1982,7 @@
       <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="14" t="s">
         <v>137</v>
       </c>
@@ -1429,7 +2008,7 @@
       <c r="V10" s="8"/>
     </row>
     <row r="11" spans="1:22" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="14" t="s">
         <v>138</v>
       </c>
@@ -1455,7 +2034,7 @@
       <c r="V11" s="8"/>
     </row>
     <row r="12" spans="1:22" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="14" t="s">
         <v>140</v>
       </c>
@@ -1481,7 +2060,7 @@
       <c r="V12" s="8"/>
     </row>
     <row r="13" spans="1:22" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="14" t="s">
         <v>141</v>
       </c>
@@ -1507,7 +2086,7 @@
       <c r="V13" s="8"/>
     </row>
     <row r="14" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="15" t="s">
         <v>142</v>
       </c>
@@ -1525,7 +2104,7 @@
       <c r="V14" s="4"/>
     </row>
     <row r="15" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="15" t="s">
         <v>143</v>
       </c>
@@ -1543,7 +2122,7 @@
       <c r="V15" s="4"/>
     </row>
     <row r="16" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="15" t="s">
         <v>144</v>
       </c>
@@ -1561,7 +2140,7 @@
       <c r="V16" s="4"/>
     </row>
     <row r="17" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="15" t="s">
         <v>145</v>
       </c>
@@ -1579,7 +2158,7 @@
       <c r="V17" s="4"/>
     </row>
     <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="15" t="s">
         <v>149</v>
       </c>
@@ -1597,7 +2176,7 @@
       <c r="V18" s="4"/>
     </row>
     <row r="19" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="15" t="s">
         <v>148</v>
       </c>
@@ -1615,7 +2194,7 @@
       <c r="V19" s="4"/>
     </row>
     <row r="20" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="15" t="s">
         <v>147</v>
       </c>
@@ -1633,7 +2212,7 @@
       <c r="V20" s="4"/>
     </row>
     <row r="21" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="15" t="s">
         <v>146</v>
       </c>
@@ -1651,7 +2230,7 @@
       <c r="V21" s="4"/>
     </row>
     <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="15" t="s">
         <v>150</v>
       </c>
@@ -1669,7 +2248,7 @@
       <c r="V22" s="4"/>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="15" t="s">
         <v>151</v>
       </c>
@@ -1687,7 +2266,7 @@
       <c r="V23" s="4"/>
     </row>
     <row r="24" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="15" t="s">
         <v>152</v>
       </c>
@@ -1705,7 +2284,7 @@
       <c r="V24" s="4"/>
     </row>
     <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="18" t="s">
         <v>153</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -1725,7 +2304,7 @@
       <c r="V25" s="4"/>
     </row>
     <row r="26" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="15" t="s">
         <v>155</v>
       </c>
@@ -1743,7 +2322,7 @@
       <c r="V26" s="4"/>
     </row>
     <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="15" t="s">
         <v>156</v>
       </c>
@@ -1761,7 +2340,7 @@
       <c r="V27" s="4"/>
     </row>
     <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="15" t="s">
         <v>157</v>
       </c>
@@ -1779,7 +2358,7 @@
       <c r="V28" s="4"/>
     </row>
     <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="15" t="s">
         <v>158</v>
       </c>
@@ -1797,7 +2376,7 @@
       <c r="V29" s="4"/>
     </row>
     <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="15" t="s">
         <v>159</v>
       </c>
@@ -1815,7 +2394,7 @@
       <c r="V30" s="4"/>
     </row>
     <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="15" t="s">
         <v>160</v>
       </c>
@@ -1851,7 +2430,7 @@
       <c r="V32" s="4"/>
     </row>
     <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -1871,7 +2450,7 @@
       <c r="V33" s="4"/>
     </row>
     <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="4" t="s">
         <v>163</v>
       </c>
@@ -1889,7 +2468,7 @@
       <c r="V34" s="4"/>
     </row>
     <row r="35" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="4" t="s">
         <v>164</v>
       </c>
@@ -1907,7 +2486,7 @@
       <c r="V35" s="4"/>
     </row>
     <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="4" t="s">
         <v>165</v>
       </c>
@@ -1925,7 +2504,7 @@
       <c r="V36" s="4"/>
     </row>
     <row r="37" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="4" t="s">
         <v>166</v>
       </c>
@@ -1943,7 +2522,7 @@
       <c r="V37" s="4"/>
     </row>
     <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="4" t="s">
         <v>167</v>
       </c>
@@ -1961,7 +2540,7 @@
       <c r="V38" s="4"/>
     </row>
     <row r="39" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="4" t="s">
         <v>168</v>
       </c>
@@ -1979,7 +2558,7 @@
       <c r="V39" s="4"/>
     </row>
     <row r="40" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="4" t="s">
         <v>169</v>
       </c>
@@ -1997,7 +2576,7 @@
       <c r="V40" s="4"/>
     </row>
     <row r="41" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="4" t="s">
         <v>170</v>
       </c>
@@ -2015,7 +2594,7 @@
       <c r="V41" s="4"/>
     </row>
     <row r="42" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="4" t="s">
         <v>171</v>
       </c>
@@ -2033,7 +2612,7 @@
       <c r="V42" s="4"/>
     </row>
     <row r="43" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="4" t="s">
         <v>172</v>
       </c>
@@ -2051,7 +2630,7 @@
       <c r="V43" s="4"/>
     </row>
     <row r="44" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="4" t="s">
         <v>173</v>
       </c>
@@ -2069,7 +2648,7 @@
       <c r="V44" s="4"/>
     </row>
     <row r="45" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="5" t="s">
         <v>174</v>
       </c>
@@ -2088,7 +2667,7 @@
       <c r="V45" s="5"/>
     </row>
     <row r="46" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="5" t="s">
         <v>175</v>
       </c>
@@ -2107,7 +2686,7 @@
       <c r="V46" s="5"/>
     </row>
     <row r="47" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="5" t="s">
         <v>176</v>
       </c>
@@ -2126,7 +2705,7 @@
       <c r="V47" s="5"/>
     </row>
     <row r="48" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="5" t="s">
         <v>177</v>
       </c>
@@ -2145,7 +2724,7 @@
       <c r="V48" s="5"/>
     </row>
     <row r="49" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="5" t="s">
         <v>178</v>
       </c>
@@ -2164,7 +2743,7 @@
       <c r="V49" s="5"/>
     </row>
     <row r="50" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="5" t="s">
         <v>179</v>
       </c>
@@ -2183,8 +2762,10 @@
       <c r="V50" s="5"/>
     </row>
     <row r="51" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="5"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="L51" s="5"/>
@@ -2200,8 +2781,10 @@
       <c r="V51" s="5"/>
     </row>
     <row r="52" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
-      <c r="B52" s="5"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="L52" s="5"/>
@@ -2217,8 +2800,10 @@
       <c r="V52" s="5"/>
     </row>
     <row r="53" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
-      <c r="B53" s="5"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="L53" s="5"/>
@@ -2234,8 +2819,10 @@
       <c r="V53" s="5"/>
     </row>
     <row r="54" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
-      <c r="B54" s="5"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="L54" s="5"/>
@@ -2251,1051 +2838,3652 @@
       <c r="V54" s="5"/>
     </row>
     <row r="55" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
+      <c r="A55" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
     </row>
     <row r="56" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
     </row>
     <row r="57" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
-      <c r="B57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
+      <c r="A57" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
     </row>
     <row r="58" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
-      <c r="B58" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
     </row>
     <row r="59" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
-      <c r="B59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="16"/>
     </row>
     <row r="60" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
-      <c r="B60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="16"/>
+      <c r="U60" s="16"/>
+      <c r="V60" s="16"/>
     </row>
     <row r="61" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="19"/>
-      <c r="B61" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16"/>
+      <c r="S61" s="16"/>
+      <c r="T61" s="16"/>
+      <c r="U61" s="16"/>
+      <c r="V61" s="16"/>
     </row>
     <row r="62" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="19"/>
-      <c r="B62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
+      <c r="A62" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
+      <c r="T62" s="16"/>
+      <c r="U62" s="16"/>
+      <c r="V62" s="16"/>
     </row>
     <row r="63" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="19"/>
-      <c r="B63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
+      <c r="B63" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="16"/>
     </row>
     <row r="64" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="19"/>
-      <c r="D64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
+      <c r="B64" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="16"/>
     </row>
     <row r="65" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="4"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="16"/>
+      <c r="T65" s="16"/>
+      <c r="U65" s="16"/>
+      <c r="V65" s="16"/>
     </row>
     <row r="66" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
-      <c r="B66" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
+      <c r="B66" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="16"/>
+      <c r="V66" s="16"/>
     </row>
     <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="19"/>
-      <c r="B67" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" s="4">
-        <v>2</v>
-      </c>
-      <c r="D67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4"/>
-      <c r="S67" s="4"/>
-      <c r="T67" s="4"/>
-      <c r="U67" s="4"/>
-      <c r="V67" s="4"/>
+      <c r="B67" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
+      <c r="T67" s="16"/>
+      <c r="U67" s="16"/>
+      <c r="V67" s="16"/>
     </row>
     <row r="68" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19"/>
-      <c r="B68" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4"/>
-      <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
+      <c r="A68" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="16"/>
+      <c r="V68" s="16"/>
     </row>
     <row r="69" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
-      <c r="B69" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
+      <c r="B69" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="16"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="16"/>
+      <c r="V69" s="16"/>
     </row>
     <row r="70" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="19"/>
-      <c r="B70" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
+      <c r="B70" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="16"/>
+      <c r="V70" s="16"/>
     </row>
     <row r="71" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="19"/>
-      <c r="B71" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
-      <c r="T71" s="4"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
+      <c r="B71" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
     </row>
     <row r="72" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
-      <c r="B72" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
+      <c r="B72" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
     </row>
     <row r="73" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="19"/>
-      <c r="B73" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="4"/>
+      <c r="B73" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="16"/>
     </row>
     <row r="74" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="19"/>
-      <c r="D74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-      <c r="S74" s="4"/>
-      <c r="T74" s="4"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4"/>
-    </row>
-    <row r="75" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="16"/>
+      <c r="U74" s="16"/>
+      <c r="V74" s="16"/>
+    </row>
+    <row r="75" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="19"/>
-      <c r="D75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
-    </row>
-    <row r="76" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
+      <c r="B75" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="16"/>
+      <c r="S75" s="16"/>
+      <c r="T75" s="16"/>
+      <c r="U75" s="16"/>
+      <c r="V75" s="16"/>
+    </row>
+    <row r="76" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="19"/>
+      <c r="B76" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="16"/>
+      <c r="U76" s="16"/>
+      <c r="V76" s="16"/>
+    </row>
+    <row r="77" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="19"/>
+      <c r="B77" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="16"/>
+      <c r="S77" s="16"/>
+      <c r="T77" s="16"/>
+      <c r="U77" s="16"/>
+      <c r="V77" s="16"/>
+    </row>
+    <row r="78" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="19"/>
+      <c r="B78" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="16"/>
+      <c r="Q78" s="16"/>
+      <c r="R78" s="16"/>
+      <c r="S78" s="16"/>
+      <c r="T78" s="16"/>
+      <c r="U78" s="16"/>
+      <c r="V78" s="16"/>
+    </row>
+    <row r="79" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="19"/>
+      <c r="B79" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="16"/>
+      <c r="S79" s="16"/>
+      <c r="T79" s="16"/>
+      <c r="U79" s="16"/>
+      <c r="V79" s="16"/>
+    </row>
+    <row r="80" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="19"/>
+      <c r="B80" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
+      <c r="P80" s="16"/>
+      <c r="Q80" s="16"/>
+      <c r="R80" s="16"/>
+      <c r="S80" s="16"/>
+      <c r="T80" s="16"/>
+      <c r="U80" s="16"/>
+      <c r="V80" s="16"/>
+    </row>
+    <row r="81" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="19"/>
+      <c r="B81" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="16"/>
+      <c r="Q81" s="16"/>
+      <c r="R81" s="16"/>
+      <c r="S81" s="16"/>
+      <c r="T81" s="16"/>
+      <c r="U81" s="16"/>
+      <c r="V81" s="16"/>
+    </row>
+    <row r="82" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="19"/>
+      <c r="B82" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="16"/>
+      <c r="Q82" s="16"/>
+      <c r="R82" s="16"/>
+      <c r="S82" s="16"/>
+      <c r="T82" s="16"/>
+      <c r="U82" s="16"/>
+      <c r="V82" s="16"/>
+    </row>
+    <row r="83" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="19"/>
+      <c r="B83" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="16"/>
+      <c r="R83" s="16"/>
+      <c r="S83" s="16"/>
+      <c r="T83" s="16"/>
+      <c r="U83" s="16"/>
+      <c r="V83" s="16"/>
+    </row>
+    <row r="84" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="19"/>
+      <c r="B84" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+      <c r="Q84" s="16"/>
+      <c r="R84" s="16"/>
+      <c r="S84" s="16"/>
+      <c r="T84" s="16"/>
+      <c r="U84" s="16"/>
+      <c r="V84" s="16"/>
+    </row>
+    <row r="85" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="19"/>
+      <c r="B85" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
+      <c r="Q85" s="16"/>
+      <c r="R85" s="16"/>
+      <c r="S85" s="16"/>
+      <c r="T85" s="16"/>
+      <c r="U85" s="16"/>
+      <c r="V85" s="16"/>
+    </row>
+    <row r="86" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="19"/>
+      <c r="B86" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+      <c r="P86" s="16"/>
+      <c r="Q86" s="16"/>
+      <c r="R86" s="16"/>
+      <c r="S86" s="16"/>
+      <c r="T86" s="16"/>
+      <c r="U86" s="16"/>
+      <c r="V86" s="16"/>
+    </row>
+    <row r="87" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="19"/>
+      <c r="B87" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="16"/>
+      <c r="P87" s="16"/>
+      <c r="Q87" s="16"/>
+      <c r="R87" s="16"/>
+      <c r="S87" s="16"/>
+      <c r="T87" s="16"/>
+      <c r="U87" s="16"/>
+      <c r="V87" s="16"/>
+    </row>
+    <row r="88" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="19"/>
+      <c r="B88" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
+      <c r="P88" s="16"/>
+      <c r="Q88" s="16"/>
+      <c r="R88" s="16"/>
+      <c r="S88" s="16"/>
+      <c r="T88" s="16"/>
+      <c r="U88" s="16"/>
+      <c r="V88" s="16"/>
+    </row>
+    <row r="89" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="19"/>
+      <c r="B89" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="16"/>
+      <c r="P89" s="16"/>
+      <c r="Q89" s="16"/>
+      <c r="R89" s="16"/>
+      <c r="S89" s="16"/>
+      <c r="T89" s="16"/>
+      <c r="U89" s="16"/>
+      <c r="V89" s="16"/>
+    </row>
+    <row r="90" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="19"/>
+      <c r="B90" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="16"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="16"/>
+      <c r="P90" s="16"/>
+      <c r="Q90" s="16"/>
+      <c r="R90" s="16"/>
+      <c r="S90" s="16"/>
+      <c r="T90" s="16"/>
+      <c r="U90" s="16"/>
+      <c r="V90" s="16"/>
+    </row>
+    <row r="91" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="19"/>
+      <c r="B91" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="16"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="16"/>
+      <c r="P91" s="16"/>
+      <c r="Q91" s="16"/>
+      <c r="R91" s="16"/>
+      <c r="S91" s="16"/>
+      <c r="T91" s="16"/>
+      <c r="U91" s="16"/>
+      <c r="V91" s="16"/>
+    </row>
+    <row r="92" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="19"/>
+      <c r="B92" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="16"/>
+      <c r="P92" s="16"/>
+      <c r="Q92" s="16"/>
+      <c r="R92" s="16"/>
+      <c r="S92" s="16"/>
+      <c r="T92" s="16"/>
+      <c r="U92" s="16"/>
+      <c r="V92" s="16"/>
+    </row>
+    <row r="93" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="16"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="16"/>
+      <c r="P93" s="16"/>
+      <c r="Q93" s="16"/>
+      <c r="R93" s="16"/>
+      <c r="S93" s="16"/>
+      <c r="T93" s="16"/>
+      <c r="U93" s="16"/>
+      <c r="V93" s="16"/>
+    </row>
+    <row r="94" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="19"/>
+      <c r="B94" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="16"/>
+      <c r="P94" s="16"/>
+      <c r="Q94" s="16"/>
+      <c r="R94" s="16"/>
+      <c r="S94" s="16"/>
+      <c r="T94" s="16"/>
+      <c r="U94" s="16"/>
+      <c r="V94" s="16"/>
+    </row>
+    <row r="95" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="19"/>
+      <c r="B95" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="16"/>
+      <c r="P95" s="16"/>
+      <c r="Q95" s="16"/>
+      <c r="R95" s="16"/>
+      <c r="S95" s="16"/>
+      <c r="T95" s="16"/>
+      <c r="U95" s="16"/>
+      <c r="V95" s="16"/>
+    </row>
+    <row r="96" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="19"/>
+      <c r="B96" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="16"/>
+      <c r="P96" s="16"/>
+      <c r="Q96" s="16"/>
+      <c r="R96" s="16"/>
+      <c r="S96" s="16"/>
+      <c r="T96" s="16"/>
+      <c r="U96" s="16"/>
+      <c r="V96" s="16"/>
+    </row>
+    <row r="97" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="19"/>
+      <c r="B97" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="16"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="16"/>
+      <c r="P97" s="16"/>
+      <c r="Q97" s="16"/>
+      <c r="R97" s="16"/>
+      <c r="S97" s="16"/>
+      <c r="T97" s="16"/>
+      <c r="U97" s="16"/>
+      <c r="V97" s="16"/>
+    </row>
+    <row r="98" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="19"/>
+      <c r="B98" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="16"/>
+      <c r="N98" s="16"/>
+      <c r="O98" s="16"/>
+      <c r="P98" s="16"/>
+      <c r="Q98" s="16"/>
+      <c r="R98" s="16"/>
+      <c r="S98" s="16"/>
+      <c r="T98" s="16"/>
+      <c r="U98" s="16"/>
+      <c r="V98" s="16"/>
+    </row>
+    <row r="99" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="19"/>
+      <c r="B99" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="16"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="16"/>
+      <c r="P99" s="16"/>
+      <c r="Q99" s="16"/>
+      <c r="R99" s="16"/>
+      <c r="S99" s="16"/>
+      <c r="T99" s="16"/>
+      <c r="U99" s="16"/>
+      <c r="V99" s="16"/>
+    </row>
+    <row r="100" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="19"/>
+      <c r="B100" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="16"/>
+      <c r="N100" s="16"/>
+      <c r="O100" s="16"/>
+      <c r="P100" s="16"/>
+      <c r="Q100" s="16"/>
+      <c r="R100" s="16"/>
+      <c r="S100" s="16"/>
+      <c r="T100" s="16"/>
+      <c r="U100" s="16"/>
+      <c r="V100" s="16"/>
+    </row>
+    <row r="101" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="19"/>
+      <c r="B101" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="16"/>
+      <c r="N101" s="16"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
+      <c r="R101" s="16"/>
+      <c r="S101" s="16"/>
+      <c r="T101" s="16"/>
+      <c r="U101" s="16"/>
+      <c r="V101" s="16"/>
+    </row>
+    <row r="102" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="19"/>
+      <c r="B102" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="16"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="16"/>
+      <c r="P102" s="16"/>
+      <c r="Q102" s="16"/>
+      <c r="R102" s="16"/>
+      <c r="S102" s="16"/>
+      <c r="T102" s="16"/>
+      <c r="U102" s="16"/>
+      <c r="V102" s="16"/>
+    </row>
+    <row r="103" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="19"/>
+      <c r="B103" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="L103" s="16"/>
+      <c r="M103" s="16"/>
+      <c r="N103" s="16"/>
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="16"/>
+      <c r="R103" s="16"/>
+      <c r="S103" s="16"/>
+      <c r="T103" s="16"/>
+      <c r="U103" s="16"/>
+      <c r="V103" s="16"/>
+    </row>
+    <row r="104" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="19"/>
+      <c r="B104" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="16"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="16"/>
+      <c r="P104" s="16"/>
+      <c r="Q104" s="16"/>
+      <c r="R104" s="16"/>
+      <c r="S104" s="16"/>
+      <c r="T104" s="16"/>
+      <c r="U104" s="16"/>
+      <c r="V104" s="16"/>
+    </row>
+    <row r="105" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="19"/>
+      <c r="B105" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="L105" s="16"/>
+      <c r="M105" s="16"/>
+      <c r="N105" s="16"/>
+      <c r="O105" s="16"/>
+      <c r="P105" s="16"/>
+      <c r="Q105" s="16"/>
+      <c r="R105" s="16"/>
+      <c r="S105" s="16"/>
+      <c r="T105" s="16"/>
+      <c r="U105" s="16"/>
+      <c r="V105" s="16"/>
+    </row>
+    <row r="106" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="19"/>
+      <c r="B106" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="L106" s="16"/>
+      <c r="M106" s="16"/>
+      <c r="N106" s="16"/>
+      <c r="O106" s="16"/>
+      <c r="P106" s="16"/>
+      <c r="Q106" s="16"/>
+      <c r="R106" s="16"/>
+      <c r="S106" s="16"/>
+      <c r="T106" s="16"/>
+      <c r="U106" s="16"/>
+      <c r="V106" s="16"/>
+    </row>
+    <row r="107" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="19"/>
+      <c r="B107" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="L107" s="16"/>
+      <c r="M107" s="16"/>
+      <c r="N107" s="16"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="16"/>
+      <c r="Q107" s="16"/>
+      <c r="R107" s="16"/>
+      <c r="S107" s="16"/>
+      <c r="T107" s="16"/>
+      <c r="U107" s="16"/>
+      <c r="V107" s="16"/>
+    </row>
+    <row r="108" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="19"/>
+      <c r="B108" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="L108" s="16"/>
+      <c r="M108" s="16"/>
+      <c r="N108" s="16"/>
+      <c r="O108" s="16"/>
+      <c r="P108" s="16"/>
+      <c r="Q108" s="16"/>
+      <c r="R108" s="16"/>
+      <c r="S108" s="16"/>
+      <c r="T108" s="16"/>
+      <c r="U108" s="16"/>
+      <c r="V108" s="16"/>
+    </row>
+    <row r="109" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="19"/>
+      <c r="B109" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="L109" s="16"/>
+      <c r="M109" s="16"/>
+      <c r="N109" s="16"/>
+      <c r="O109" s="16"/>
+      <c r="P109" s="16"/>
+      <c r="Q109" s="16"/>
+      <c r="R109" s="16"/>
+      <c r="S109" s="16"/>
+      <c r="T109" s="16"/>
+      <c r="U109" s="16"/>
+      <c r="V109" s="16"/>
+    </row>
+    <row r="110" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="19"/>
+      <c r="B110" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="L110" s="16"/>
+      <c r="M110" s="16"/>
+      <c r="N110" s="16"/>
+      <c r="O110" s="16"/>
+      <c r="P110" s="16"/>
+      <c r="Q110" s="16"/>
+      <c r="R110" s="16"/>
+      <c r="S110" s="16"/>
+      <c r="T110" s="16"/>
+      <c r="U110" s="16"/>
+      <c r="V110" s="16"/>
+    </row>
+    <row r="111" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="16"/>
+      <c r="N111" s="16"/>
+      <c r="O111" s="16"/>
+      <c r="P111" s="16"/>
+      <c r="Q111" s="16"/>
+      <c r="R111" s="16"/>
+      <c r="S111" s="16"/>
+      <c r="T111" s="16"/>
+      <c r="U111" s="16"/>
+      <c r="V111" s="16"/>
+    </row>
+    <row r="112" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="19"/>
+      <c r="B112" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="L112" s="16"/>
+      <c r="M112" s="16"/>
+      <c r="N112" s="16"/>
+      <c r="O112" s="16"/>
+      <c r="P112" s="16"/>
+      <c r="Q112" s="16"/>
+      <c r="R112" s="16"/>
+      <c r="S112" s="16"/>
+      <c r="T112" s="16"/>
+      <c r="U112" s="16"/>
+      <c r="V112" s="16"/>
+    </row>
+    <row r="113" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="19"/>
+      <c r="B113" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="L113" s="16"/>
+      <c r="M113" s="16"/>
+      <c r="N113" s="16"/>
+      <c r="O113" s="16"/>
+      <c r="P113" s="16"/>
+      <c r="Q113" s="16"/>
+      <c r="R113" s="16"/>
+      <c r="S113" s="16"/>
+      <c r="T113" s="16"/>
+      <c r="U113" s="16"/>
+      <c r="V113" s="16"/>
+    </row>
+    <row r="114" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="19"/>
+      <c r="B114" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="L114" s="16"/>
+      <c r="M114" s="16"/>
+      <c r="N114" s="16"/>
+      <c r="O114" s="16"/>
+      <c r="P114" s="16"/>
+      <c r="Q114" s="16"/>
+      <c r="R114" s="16"/>
+      <c r="S114" s="16"/>
+      <c r="T114" s="16"/>
+      <c r="U114" s="16"/>
+      <c r="V114" s="16"/>
+    </row>
+    <row r="115" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="19"/>
+      <c r="B115" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="L115" s="16"/>
+      <c r="M115" s="16"/>
+      <c r="N115" s="16"/>
+      <c r="O115" s="16"/>
+      <c r="P115" s="16"/>
+      <c r="Q115" s="16"/>
+      <c r="R115" s="16"/>
+      <c r="S115" s="16"/>
+      <c r="T115" s="16"/>
+      <c r="U115" s="16"/>
+      <c r="V115" s="16"/>
+    </row>
+    <row r="116" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="19"/>
+      <c r="B116" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="L116" s="16"/>
+      <c r="M116" s="16"/>
+      <c r="N116" s="16"/>
+      <c r="O116" s="16"/>
+      <c r="P116" s="16"/>
+      <c r="Q116" s="16"/>
+      <c r="R116" s="16"/>
+      <c r="S116" s="16"/>
+      <c r="T116" s="16"/>
+      <c r="U116" s="16"/>
+      <c r="V116" s="16"/>
+    </row>
+    <row r="117" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="19"/>
+      <c r="B117" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="L117" s="16"/>
+      <c r="M117" s="16"/>
+      <c r="N117" s="16"/>
+      <c r="O117" s="16"/>
+      <c r="P117" s="16"/>
+      <c r="Q117" s="16"/>
+      <c r="R117" s="16"/>
+      <c r="S117" s="16"/>
+      <c r="T117" s="16"/>
+      <c r="U117" s="16"/>
+      <c r="V117" s="16"/>
+    </row>
+    <row r="118" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="19"/>
+      <c r="B118" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="L118" s="16"/>
+      <c r="M118" s="16"/>
+      <c r="N118" s="16"/>
+      <c r="O118" s="16"/>
+      <c r="P118" s="16"/>
+      <c r="Q118" s="16"/>
+      <c r="R118" s="16"/>
+      <c r="S118" s="16"/>
+      <c r="T118" s="16"/>
+      <c r="U118" s="16"/>
+      <c r="V118" s="16"/>
+    </row>
+    <row r="119" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="19"/>
+      <c r="B119" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="L119" s="16"/>
+      <c r="M119" s="16"/>
+      <c r="N119" s="16"/>
+      <c r="O119" s="16"/>
+      <c r="P119" s="16"/>
+      <c r="Q119" s="16"/>
+      <c r="R119" s="16"/>
+      <c r="S119" s="16"/>
+      <c r="T119" s="16"/>
+      <c r="U119" s="16"/>
+      <c r="V119" s="16"/>
+    </row>
+    <row r="120" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="19"/>
+      <c r="B120" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="L120" s="16"/>
+      <c r="M120" s="16"/>
+      <c r="N120" s="16"/>
+      <c r="O120" s="16"/>
+      <c r="P120" s="16"/>
+      <c r="Q120" s="16"/>
+      <c r="R120" s="16"/>
+      <c r="S120" s="16"/>
+      <c r="T120" s="16"/>
+      <c r="U120" s="16"/>
+      <c r="V120" s="16"/>
+    </row>
+    <row r="121" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="19"/>
+      <c r="B121" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="L121" s="16"/>
+      <c r="M121" s="16"/>
+      <c r="N121" s="16"/>
+      <c r="O121" s="16"/>
+      <c r="P121" s="16"/>
+      <c r="Q121" s="16"/>
+      <c r="R121" s="16"/>
+      <c r="S121" s="16"/>
+      <c r="T121" s="16"/>
+      <c r="U121" s="16"/>
+      <c r="V121" s="16"/>
+    </row>
+    <row r="122" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="19"/>
+      <c r="B122" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="L122" s="16"/>
+      <c r="M122" s="16"/>
+      <c r="N122" s="16"/>
+      <c r="O122" s="16"/>
+      <c r="P122" s="16"/>
+      <c r="Q122" s="16"/>
+      <c r="R122" s="16"/>
+      <c r="S122" s="16"/>
+      <c r="T122" s="16"/>
+      <c r="U122" s="16"/>
+      <c r="V122" s="16"/>
+    </row>
+    <row r="123" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="19"/>
+      <c r="B123" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="L123" s="16"/>
+      <c r="M123" s="16"/>
+      <c r="N123" s="16"/>
+      <c r="O123" s="16"/>
+      <c r="P123" s="16"/>
+      <c r="Q123" s="16"/>
+      <c r="R123" s="16"/>
+      <c r="S123" s="16"/>
+      <c r="T123" s="16"/>
+      <c r="U123" s="16"/>
+      <c r="V123" s="16"/>
+    </row>
+    <row r="124" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="19"/>
+      <c r="B124" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="L124" s="16"/>
+      <c r="M124" s="16"/>
+      <c r="N124" s="16"/>
+      <c r="O124" s="16"/>
+      <c r="P124" s="16"/>
+      <c r="Q124" s="16"/>
+      <c r="R124" s="16"/>
+      <c r="S124" s="16"/>
+      <c r="T124" s="16"/>
+      <c r="U124" s="16"/>
+      <c r="V124" s="16"/>
+    </row>
+    <row r="125" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="19"/>
+      <c r="B125" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="L125" s="16"/>
+      <c r="M125" s="16"/>
+      <c r="N125" s="16"/>
+      <c r="O125" s="16"/>
+      <c r="P125" s="16"/>
+      <c r="Q125" s="16"/>
+      <c r="R125" s="16"/>
+      <c r="S125" s="16"/>
+      <c r="T125" s="16"/>
+      <c r="U125" s="16"/>
+      <c r="V125" s="16"/>
+    </row>
+    <row r="126" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="19"/>
+      <c r="B126" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
+      <c r="L126" s="16"/>
+      <c r="M126" s="16"/>
+      <c r="N126" s="16"/>
+      <c r="O126" s="16"/>
+      <c r="P126" s="16"/>
+      <c r="Q126" s="16"/>
+      <c r="R126" s="16"/>
+      <c r="S126" s="16"/>
+      <c r="T126" s="16"/>
+      <c r="U126" s="16"/>
+      <c r="V126" s="16"/>
+    </row>
+    <row r="127" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="19"/>
+      <c r="B127" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="L127" s="16"/>
+      <c r="M127" s="16"/>
+      <c r="N127" s="16"/>
+      <c r="O127" s="16"/>
+      <c r="P127" s="16"/>
+      <c r="Q127" s="16"/>
+      <c r="R127" s="16"/>
+      <c r="S127" s="16"/>
+      <c r="T127" s="16"/>
+      <c r="U127" s="16"/>
+      <c r="V127" s="16"/>
+    </row>
+    <row r="128" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="19"/>
+      <c r="B128" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
+      <c r="L128" s="16"/>
+      <c r="M128" s="16"/>
+      <c r="N128" s="16"/>
+      <c r="O128" s="16"/>
+      <c r="P128" s="16"/>
+      <c r="Q128" s="16"/>
+      <c r="R128" s="16"/>
+      <c r="S128" s="16"/>
+      <c r="T128" s="16"/>
+      <c r="U128" s="16"/>
+      <c r="V128" s="16"/>
+    </row>
+    <row r="129" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="19"/>
+      <c r="B129" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
+      <c r="L129" s="16"/>
+      <c r="M129" s="16"/>
+      <c r="N129" s="16"/>
+      <c r="O129" s="16"/>
+      <c r="P129" s="16"/>
+      <c r="Q129" s="16"/>
+      <c r="R129" s="16"/>
+      <c r="S129" s="16"/>
+      <c r="T129" s="16"/>
+      <c r="U129" s="16"/>
+      <c r="V129" s="16"/>
+    </row>
+    <row r="130" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="19"/>
+      <c r="B130" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
+      <c r="L130" s="16"/>
+      <c r="M130" s="16"/>
+      <c r="N130" s="16"/>
+      <c r="O130" s="16"/>
+      <c r="P130" s="16"/>
+      <c r="Q130" s="16"/>
+      <c r="R130" s="16"/>
+      <c r="S130" s="16"/>
+      <c r="T130" s="16"/>
+      <c r="U130" s="16"/>
+      <c r="V130" s="16"/>
+    </row>
+    <row r="131" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
+      <c r="L131" s="16"/>
+      <c r="M131" s="16"/>
+      <c r="N131" s="16"/>
+      <c r="O131" s="16"/>
+      <c r="P131" s="16"/>
+      <c r="Q131" s="16"/>
+      <c r="R131" s="16"/>
+      <c r="S131" s="16"/>
+      <c r="T131" s="16"/>
+      <c r="U131" s="16"/>
+      <c r="V131" s="16"/>
+    </row>
+    <row r="132" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="19"/>
+      <c r="B132" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
+      <c r="L132" s="16"/>
+      <c r="M132" s="16"/>
+      <c r="N132" s="16"/>
+      <c r="O132" s="16"/>
+      <c r="P132" s="16"/>
+      <c r="Q132" s="16"/>
+      <c r="R132" s="16"/>
+      <c r="S132" s="16"/>
+      <c r="T132" s="16"/>
+      <c r="U132" s="16"/>
+      <c r="V132" s="16"/>
+    </row>
+    <row r="133" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="19"/>
+      <c r="B133" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
+      <c r="L133" s="16"/>
+      <c r="M133" s="16"/>
+      <c r="N133" s="16"/>
+      <c r="O133" s="16"/>
+      <c r="P133" s="16"/>
+      <c r="Q133" s="16"/>
+      <c r="R133" s="16"/>
+      <c r="S133" s="16"/>
+      <c r="T133" s="16"/>
+      <c r="U133" s="16"/>
+      <c r="V133" s="16"/>
+    </row>
+    <row r="134" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="19"/>
+      <c r="B134" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
+      <c r="L134" s="16"/>
+      <c r="M134" s="16"/>
+      <c r="N134" s="16"/>
+      <c r="O134" s="16"/>
+      <c r="P134" s="16"/>
+      <c r="Q134" s="16"/>
+      <c r="R134" s="16"/>
+      <c r="S134" s="16"/>
+      <c r="T134" s="16"/>
+      <c r="U134" s="16"/>
+      <c r="V134" s="16"/>
+    </row>
+    <row r="135" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="19"/>
+      <c r="B135" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
+      <c r="L135" s="16"/>
+      <c r="M135" s="16"/>
+      <c r="N135" s="16"/>
+      <c r="O135" s="16"/>
+      <c r="P135" s="16"/>
+      <c r="Q135" s="16"/>
+      <c r="R135" s="16"/>
+      <c r="S135" s="16"/>
+      <c r="T135" s="16"/>
+      <c r="U135" s="16"/>
+      <c r="V135" s="16"/>
+    </row>
+    <row r="136" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="19"/>
+      <c r="B136" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C136" s="16"/>
+      <c r="D136" s="16"/>
+      <c r="L136" s="16"/>
+      <c r="M136" s="16"/>
+      <c r="N136" s="16"/>
+      <c r="O136" s="16"/>
+      <c r="P136" s="16"/>
+      <c r="Q136" s="16"/>
+      <c r="R136" s="16"/>
+      <c r="S136" s="16"/>
+      <c r="T136" s="16"/>
+      <c r="U136" s="16"/>
+      <c r="V136" s="16"/>
+    </row>
+    <row r="137" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="19"/>
+      <c r="B137" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
+      <c r="L137" s="16"/>
+      <c r="M137" s="16"/>
+      <c r="N137" s="16"/>
+      <c r="O137" s="16"/>
+      <c r="P137" s="16"/>
+      <c r="Q137" s="16"/>
+      <c r="R137" s="16"/>
+      <c r="S137" s="16"/>
+      <c r="T137" s="16"/>
+      <c r="U137" s="16"/>
+      <c r="V137" s="16"/>
+    </row>
+    <row r="138" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="19"/>
+      <c r="B138" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+      <c r="L138" s="16"/>
+      <c r="M138" s="16"/>
+      <c r="N138" s="16"/>
+      <c r="O138" s="16"/>
+      <c r="P138" s="16"/>
+      <c r="Q138" s="16"/>
+      <c r="R138" s="16"/>
+      <c r="S138" s="16"/>
+      <c r="T138" s="16"/>
+      <c r="U138" s="16"/>
+      <c r="V138" s="16"/>
+    </row>
+    <row r="139" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="19"/>
+      <c r="B139" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+      <c r="L139" s="16"/>
+      <c r="M139" s="16"/>
+      <c r="N139" s="16"/>
+      <c r="O139" s="16"/>
+      <c r="P139" s="16"/>
+      <c r="Q139" s="16"/>
+      <c r="R139" s="16"/>
+      <c r="S139" s="16"/>
+      <c r="T139" s="16"/>
+      <c r="U139" s="16"/>
+      <c r="V139" s="16"/>
+    </row>
+    <row r="140" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="19"/>
+      <c r="B140" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C140" s="16"/>
+      <c r="D140" s="16"/>
+      <c r="L140" s="16"/>
+      <c r="M140" s="16"/>
+      <c r="N140" s="16"/>
+      <c r="O140" s="16"/>
+      <c r="P140" s="16"/>
+      <c r="Q140" s="16"/>
+      <c r="R140" s="16"/>
+      <c r="S140" s="16"/>
+      <c r="T140" s="16"/>
+      <c r="U140" s="16"/>
+      <c r="V140" s="16"/>
+    </row>
+    <row r="141" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="19"/>
+      <c r="B141" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
+      <c r="L141" s="16"/>
+      <c r="M141" s="16"/>
+      <c r="N141" s="16"/>
+      <c r="O141" s="16"/>
+      <c r="P141" s="16"/>
+      <c r="Q141" s="16"/>
+      <c r="R141" s="16"/>
+      <c r="S141" s="16"/>
+      <c r="T141" s="16"/>
+      <c r="U141" s="16"/>
+      <c r="V141" s="16"/>
+    </row>
+    <row r="142" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="19"/>
+      <c r="B142" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C142" s="16"/>
+      <c r="D142" s="16"/>
+      <c r="L142" s="16"/>
+      <c r="M142" s="16"/>
+      <c r="N142" s="16"/>
+      <c r="O142" s="16"/>
+      <c r="P142" s="16"/>
+      <c r="Q142" s="16"/>
+      <c r="R142" s="16"/>
+      <c r="S142" s="16"/>
+      <c r="T142" s="16"/>
+      <c r="U142" s="16"/>
+      <c r="V142" s="16"/>
+    </row>
+    <row r="143" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="19"/>
+      <c r="B143" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
+      <c r="L143" s="16"/>
+      <c r="M143" s="16"/>
+      <c r="N143" s="16"/>
+      <c r="O143" s="16"/>
+      <c r="P143" s="16"/>
+      <c r="Q143" s="16"/>
+      <c r="R143" s="16"/>
+      <c r="S143" s="16"/>
+      <c r="T143" s="16"/>
+      <c r="U143" s="16"/>
+      <c r="V143" s="16"/>
+    </row>
+    <row r="144" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C144" s="16"/>
+      <c r="D144" s="16"/>
+      <c r="L144" s="16"/>
+      <c r="M144" s="16"/>
+      <c r="N144" s="16"/>
+      <c r="O144" s="16"/>
+      <c r="P144" s="16"/>
+      <c r="Q144" s="16"/>
+      <c r="R144" s="16"/>
+      <c r="S144" s="16"/>
+      <c r="T144" s="16"/>
+      <c r="U144" s="16"/>
+      <c r="V144" s="16"/>
+    </row>
+    <row r="145" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="19"/>
+      <c r="B145" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C145" s="16"/>
+      <c r="D145" s="16"/>
+      <c r="L145" s="16"/>
+      <c r="M145" s="16"/>
+      <c r="N145" s="16"/>
+      <c r="O145" s="16"/>
+      <c r="P145" s="16"/>
+      <c r="Q145" s="16"/>
+      <c r="R145" s="16"/>
+      <c r="S145" s="16"/>
+      <c r="T145" s="16"/>
+      <c r="U145" s="16"/>
+      <c r="V145" s="16"/>
+    </row>
+    <row r="146" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="19"/>
+      <c r="B146" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16"/>
+      <c r="L146" s="16"/>
+      <c r="M146" s="16"/>
+      <c r="N146" s="16"/>
+      <c r="O146" s="16"/>
+      <c r="P146" s="16"/>
+      <c r="Q146" s="16"/>
+      <c r="R146" s="16"/>
+      <c r="S146" s="16"/>
+      <c r="T146" s="16"/>
+      <c r="U146" s="16"/>
+      <c r="V146" s="16"/>
+    </row>
+    <row r="147" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="19"/>
+      <c r="B147" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
+      <c r="L147" s="16"/>
+      <c r="M147" s="16"/>
+      <c r="N147" s="16"/>
+      <c r="O147" s="16"/>
+      <c r="P147" s="16"/>
+      <c r="Q147" s="16"/>
+      <c r="R147" s="16"/>
+      <c r="S147" s="16"/>
+      <c r="T147" s="16"/>
+      <c r="U147" s="16"/>
+      <c r="V147" s="16"/>
+    </row>
+    <row r="148" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="19"/>
+      <c r="B148" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C148" s="16"/>
+      <c r="D148" s="16"/>
+      <c r="L148" s="16"/>
+      <c r="M148" s="16"/>
+      <c r="N148" s="16"/>
+      <c r="O148" s="16"/>
+      <c r="P148" s="16"/>
+      <c r="Q148" s="16"/>
+      <c r="R148" s="16"/>
+      <c r="S148" s="16"/>
+      <c r="T148" s="16"/>
+      <c r="U148" s="16"/>
+      <c r="V148" s="16"/>
+    </row>
+    <row r="149" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="19"/>
+      <c r="B149" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C149" s="16"/>
+      <c r="D149" s="16"/>
+      <c r="L149" s="16"/>
+      <c r="M149" s="16"/>
+      <c r="N149" s="16"/>
+      <c r="O149" s="16"/>
+      <c r="P149" s="16"/>
+      <c r="Q149" s="16"/>
+      <c r="R149" s="16"/>
+      <c r="S149" s="16"/>
+      <c r="T149" s="16"/>
+      <c r="U149" s="16"/>
+      <c r="V149" s="16"/>
+    </row>
+    <row r="150" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="19"/>
+      <c r="B150" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
+      <c r="L150" s="16"/>
+      <c r="M150" s="16"/>
+      <c r="N150" s="16"/>
+      <c r="O150" s="16"/>
+      <c r="P150" s="16"/>
+      <c r="Q150" s="16"/>
+      <c r="R150" s="16"/>
+      <c r="S150" s="16"/>
+      <c r="T150" s="16"/>
+      <c r="U150" s="16"/>
+      <c r="V150" s="16"/>
+    </row>
+    <row r="151" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="19"/>
+      <c r="B151" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C151" s="16"/>
+      <c r="D151" s="16"/>
+      <c r="L151" s="16"/>
+      <c r="M151" s="16"/>
+      <c r="N151" s="16"/>
+      <c r="O151" s="16"/>
+      <c r="P151" s="16"/>
+      <c r="Q151" s="16"/>
+      <c r="R151" s="16"/>
+      <c r="S151" s="16"/>
+      <c r="T151" s="16"/>
+      <c r="U151" s="16"/>
+      <c r="V151" s="16"/>
+    </row>
+    <row r="152" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="19"/>
+      <c r="B152" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
+      <c r="L152" s="16"/>
+      <c r="M152" s="16"/>
+      <c r="N152" s="16"/>
+      <c r="O152" s="16"/>
+      <c r="P152" s="16"/>
+      <c r="Q152" s="16"/>
+      <c r="R152" s="16"/>
+      <c r="S152" s="16"/>
+      <c r="T152" s="16"/>
+      <c r="U152" s="16"/>
+      <c r="V152" s="16"/>
+    </row>
+    <row r="153" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="19"/>
+      <c r="B153" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C153" s="16"/>
+      <c r="D153" s="16"/>
+      <c r="L153" s="16"/>
+      <c r="M153" s="16"/>
+      <c r="N153" s="16"/>
+      <c r="O153" s="16"/>
+      <c r="P153" s="16"/>
+      <c r="Q153" s="16"/>
+      <c r="R153" s="16"/>
+      <c r="S153" s="16"/>
+      <c r="T153" s="16"/>
+      <c r="U153" s="16"/>
+      <c r="V153" s="16"/>
+    </row>
+    <row r="154" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="19"/>
+      <c r="B154" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C154" s="16"/>
+      <c r="D154" s="16"/>
+      <c r="L154" s="16"/>
+      <c r="M154" s="16"/>
+      <c r="N154" s="16"/>
+      <c r="O154" s="16"/>
+      <c r="P154" s="16"/>
+      <c r="Q154" s="16"/>
+      <c r="R154" s="16"/>
+      <c r="S154" s="16"/>
+      <c r="T154" s="16"/>
+      <c r="U154" s="16"/>
+      <c r="V154" s="16"/>
+    </row>
+    <row r="155" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="19"/>
+      <c r="B155" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C155" s="16"/>
+      <c r="D155" s="16"/>
+      <c r="L155" s="16"/>
+      <c r="M155" s="16"/>
+      <c r="N155" s="16"/>
+      <c r="O155" s="16"/>
+      <c r="P155" s="16"/>
+      <c r="Q155" s="16"/>
+      <c r="R155" s="16"/>
+      <c r="S155" s="16"/>
+      <c r="T155" s="16"/>
+      <c r="U155" s="16"/>
+      <c r="V155" s="16"/>
+    </row>
+    <row r="156" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="19"/>
+      <c r="B156" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C156" s="16"/>
+      <c r="D156" s="16"/>
+      <c r="L156" s="16"/>
+      <c r="M156" s="16"/>
+      <c r="N156" s="16"/>
+      <c r="O156" s="16"/>
+      <c r="P156" s="16"/>
+      <c r="Q156" s="16"/>
+      <c r="R156" s="16"/>
+      <c r="S156" s="16"/>
+      <c r="T156" s="16"/>
+      <c r="U156" s="16"/>
+      <c r="V156" s="16"/>
+    </row>
+    <row r="157" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="19"/>
+      <c r="B157" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C157" s="16"/>
+      <c r="D157" s="16"/>
+      <c r="L157" s="16"/>
+      <c r="M157" s="16"/>
+      <c r="N157" s="16"/>
+      <c r="O157" s="16"/>
+      <c r="P157" s="16"/>
+      <c r="Q157" s="16"/>
+      <c r="R157" s="16"/>
+      <c r="S157" s="16"/>
+      <c r="T157" s="16"/>
+      <c r="U157" s="16"/>
+      <c r="V157" s="16"/>
+    </row>
+    <row r="158" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="19"/>
+      <c r="B158" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C158" s="16"/>
+      <c r="D158" s="16"/>
+      <c r="L158" s="16"/>
+      <c r="M158" s="16"/>
+      <c r="N158" s="16"/>
+      <c r="O158" s="16"/>
+      <c r="P158" s="16"/>
+      <c r="Q158" s="16"/>
+      <c r="R158" s="16"/>
+      <c r="S158" s="16"/>
+      <c r="T158" s="16"/>
+      <c r="U158" s="16"/>
+      <c r="V158" s="16"/>
+    </row>
+    <row r="159" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="19"/>
+      <c r="B159" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C159" s="16"/>
+      <c r="D159" s="16"/>
+      <c r="L159" s="16"/>
+      <c r="M159" s="16"/>
+      <c r="N159" s="16"/>
+      <c r="O159" s="16"/>
+      <c r="P159" s="16"/>
+      <c r="Q159" s="16"/>
+      <c r="R159" s="16"/>
+      <c r="S159" s="16"/>
+      <c r="T159" s="16"/>
+      <c r="U159" s="16"/>
+      <c r="V159" s="16"/>
+    </row>
+    <row r="160" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="19"/>
+      <c r="B160" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C160" s="16"/>
+      <c r="D160" s="16"/>
+      <c r="L160" s="16"/>
+      <c r="M160" s="16"/>
+      <c r="N160" s="16"/>
+      <c r="O160" s="16"/>
+      <c r="P160" s="16"/>
+      <c r="Q160" s="16"/>
+      <c r="R160" s="16"/>
+      <c r="S160" s="16"/>
+      <c r="T160" s="16"/>
+      <c r="U160" s="16"/>
+      <c r="V160" s="16"/>
+    </row>
+    <row r="161" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="19"/>
+      <c r="B161" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C161" s="16"/>
+      <c r="D161" s="16"/>
+      <c r="L161" s="16"/>
+      <c r="M161" s="16"/>
+      <c r="N161" s="16"/>
+      <c r="O161" s="16"/>
+      <c r="P161" s="16"/>
+      <c r="Q161" s="16"/>
+      <c r="R161" s="16"/>
+      <c r="S161" s="16"/>
+      <c r="T161" s="16"/>
+      <c r="U161" s="16"/>
+      <c r="V161" s="16"/>
+    </row>
+    <row r="162" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="19"/>
+      <c r="B162" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C162" s="16"/>
+      <c r="D162" s="16"/>
+      <c r="L162" s="16"/>
+      <c r="M162" s="16"/>
+      <c r="N162" s="16"/>
+      <c r="O162" s="16"/>
+      <c r="P162" s="16"/>
+      <c r="Q162" s="16"/>
+      <c r="R162" s="16"/>
+      <c r="S162" s="16"/>
+      <c r="T162" s="16"/>
+      <c r="U162" s="16"/>
+      <c r="V162" s="16"/>
+    </row>
+    <row r="163" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="B163" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
+      <c r="L163" s="16"/>
+      <c r="M163" s="16"/>
+      <c r="N163" s="16"/>
+      <c r="O163" s="16"/>
+      <c r="P163" s="16"/>
+      <c r="Q163" s="16"/>
+      <c r="R163" s="16"/>
+      <c r="S163" s="16"/>
+      <c r="T163" s="16"/>
+      <c r="U163" s="16"/>
+      <c r="V163" s="16"/>
+    </row>
+    <row r="164" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="19"/>
+      <c r="B164" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16"/>
+      <c r="L164" s="16"/>
+      <c r="M164" s="16"/>
+      <c r="N164" s="16"/>
+      <c r="O164" s="16"/>
+      <c r="P164" s="16"/>
+      <c r="Q164" s="16"/>
+      <c r="R164" s="16"/>
+      <c r="S164" s="16"/>
+      <c r="T164" s="16"/>
+      <c r="U164" s="16"/>
+      <c r="V164" s="16"/>
+    </row>
+    <row r="165" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="19"/>
+      <c r="B165" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C165" s="16"/>
+      <c r="D165" s="16"/>
+      <c r="L165" s="16"/>
+      <c r="M165" s="16"/>
+      <c r="N165" s="16"/>
+      <c r="O165" s="16"/>
+      <c r="P165" s="16"/>
+      <c r="Q165" s="16"/>
+      <c r="R165" s="16"/>
+      <c r="S165" s="16"/>
+      <c r="T165" s="16"/>
+      <c r="U165" s="16"/>
+      <c r="V165" s="16"/>
+    </row>
+    <row r="166" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="19"/>
+      <c r="B166" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C166" s="16"/>
+      <c r="D166" s="16"/>
+      <c r="L166" s="16"/>
+      <c r="M166" s="16"/>
+      <c r="N166" s="16"/>
+      <c r="O166" s="16"/>
+      <c r="P166" s="16"/>
+      <c r="Q166" s="16"/>
+      <c r="R166" s="16"/>
+      <c r="S166" s="16"/>
+      <c r="T166" s="16"/>
+      <c r="U166" s="16"/>
+      <c r="V166" s="16"/>
+    </row>
+    <row r="167" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="19"/>
+      <c r="B167" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="C167" s="16"/>
+      <c r="D167" s="16"/>
+      <c r="L167" s="16"/>
+      <c r="M167" s="16"/>
+      <c r="N167" s="16"/>
+      <c r="O167" s="16"/>
+      <c r="P167" s="16"/>
+      <c r="Q167" s="16"/>
+      <c r="R167" s="16"/>
+      <c r="S167" s="16"/>
+      <c r="T167" s="16"/>
+      <c r="U167" s="16"/>
+      <c r="V167" s="16"/>
+    </row>
+    <row r="168" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="19"/>
+      <c r="B168" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C168" s="16"/>
+      <c r="D168" s="16"/>
+      <c r="L168" s="16"/>
+      <c r="M168" s="16"/>
+      <c r="N168" s="16"/>
+      <c r="O168" s="16"/>
+      <c r="P168" s="16"/>
+      <c r="Q168" s="16"/>
+      <c r="R168" s="16"/>
+      <c r="S168" s="16"/>
+      <c r="T168" s="16"/>
+      <c r="U168" s="16"/>
+      <c r="V168" s="16"/>
+    </row>
+    <row r="169" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="19"/>
+      <c r="B169" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C169" s="16"/>
+      <c r="D169" s="16"/>
+      <c r="L169" s="16"/>
+      <c r="M169" s="16"/>
+      <c r="N169" s="16"/>
+      <c r="O169" s="16"/>
+      <c r="P169" s="16"/>
+      <c r="Q169" s="16"/>
+      <c r="R169" s="16"/>
+      <c r="S169" s="16"/>
+      <c r="T169" s="16"/>
+      <c r="U169" s="16"/>
+      <c r="V169" s="16"/>
+    </row>
+    <row r="170" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="19"/>
+      <c r="B170" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C170" s="16"/>
+      <c r="D170" s="16"/>
+      <c r="L170" s="16"/>
+      <c r="M170" s="16"/>
+      <c r="N170" s="16"/>
+      <c r="O170" s="16"/>
+      <c r="P170" s="16"/>
+      <c r="Q170" s="16"/>
+      <c r="R170" s="16"/>
+      <c r="S170" s="16"/>
+      <c r="T170" s="16"/>
+      <c r="U170" s="16"/>
+      <c r="V170" s="16"/>
+    </row>
+    <row r="171" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="19"/>
+      <c r="B171" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C171" s="16"/>
+      <c r="D171" s="16"/>
+      <c r="L171" s="16"/>
+      <c r="M171" s="16"/>
+      <c r="N171" s="16"/>
+      <c r="O171" s="16"/>
+      <c r="P171" s="16"/>
+      <c r="Q171" s="16"/>
+      <c r="R171" s="16"/>
+      <c r="S171" s="16"/>
+      <c r="T171" s="16"/>
+      <c r="U171" s="16"/>
+      <c r="V171" s="16"/>
+    </row>
+    <row r="172" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="19"/>
+      <c r="B172" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="C172" s="16"/>
+      <c r="D172" s="16"/>
+      <c r="L172" s="16"/>
+      <c r="M172" s="16"/>
+      <c r="N172" s="16"/>
+      <c r="O172" s="16"/>
+      <c r="P172" s="16"/>
+      <c r="Q172" s="16"/>
+      <c r="R172" s="16"/>
+      <c r="S172" s="16"/>
+      <c r="T172" s="16"/>
+      <c r="U172" s="16"/>
+      <c r="V172" s="16"/>
+    </row>
+    <row r="173" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="19"/>
+      <c r="B173" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C173" s="16"/>
+      <c r="D173" s="16"/>
+      <c r="L173" s="16"/>
+      <c r="M173" s="16"/>
+      <c r="N173" s="16"/>
+      <c r="O173" s="16"/>
+      <c r="P173" s="16"/>
+      <c r="Q173" s="16"/>
+      <c r="R173" s="16"/>
+      <c r="S173" s="16"/>
+      <c r="T173" s="16"/>
+      <c r="U173" s="16"/>
+      <c r="V173" s="16"/>
+    </row>
+    <row r="174" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="19"/>
+      <c r="B174" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C174" s="16"/>
+      <c r="D174" s="16"/>
+      <c r="L174" s="16"/>
+      <c r="M174" s="16"/>
+      <c r="N174" s="16"/>
+      <c r="O174" s="16"/>
+      <c r="P174" s="16"/>
+      <c r="Q174" s="16"/>
+      <c r="R174" s="16"/>
+      <c r="S174" s="16"/>
+      <c r="T174" s="16"/>
+      <c r="U174" s="16"/>
+      <c r="V174" s="16"/>
+    </row>
+    <row r="175" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="19"/>
+      <c r="B175" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C175" s="16"/>
+      <c r="D175" s="16"/>
+      <c r="L175" s="16"/>
+      <c r="M175" s="16"/>
+      <c r="N175" s="16"/>
+      <c r="O175" s="16"/>
+      <c r="P175" s="16"/>
+      <c r="Q175" s="16"/>
+      <c r="R175" s="16"/>
+      <c r="S175" s="16"/>
+      <c r="T175" s="16"/>
+      <c r="U175" s="16"/>
+      <c r="V175" s="16"/>
+    </row>
+    <row r="176" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="19"/>
+      <c r="B176" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C176" s="16"/>
+      <c r="D176" s="16"/>
+      <c r="L176" s="16"/>
+      <c r="M176" s="16"/>
+      <c r="N176" s="16"/>
+      <c r="O176" s="16"/>
+      <c r="P176" s="16"/>
+      <c r="Q176" s="16"/>
+      <c r="R176" s="16"/>
+      <c r="S176" s="16"/>
+      <c r="T176" s="16"/>
+      <c r="U176" s="16"/>
+      <c r="V176" s="16"/>
+    </row>
+    <row r="177" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="19"/>
+      <c r="B177" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C177" s="16"/>
+      <c r="D177" s="16"/>
+      <c r="L177" s="16"/>
+      <c r="M177" s="16"/>
+      <c r="N177" s="16"/>
+      <c r="O177" s="16"/>
+      <c r="P177" s="16"/>
+      <c r="Q177" s="16"/>
+      <c r="R177" s="16"/>
+      <c r="S177" s="16"/>
+      <c r="T177" s="16"/>
+      <c r="U177" s="16"/>
+      <c r="V177" s="16"/>
+    </row>
+    <row r="178" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="19"/>
+      <c r="B178" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C178" s="16"/>
+      <c r="D178" s="16"/>
+      <c r="L178" s="16"/>
+      <c r="M178" s="16"/>
+      <c r="N178" s="16"/>
+      <c r="O178" s="16"/>
+      <c r="P178" s="16"/>
+      <c r="Q178" s="16"/>
+      <c r="R178" s="16"/>
+      <c r="S178" s="16"/>
+      <c r="T178" s="16"/>
+      <c r="U178" s="16"/>
+      <c r="V178" s="16"/>
+    </row>
+    <row r="179" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="19"/>
+      <c r="B179" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C179" s="16"/>
+      <c r="D179" s="16"/>
+      <c r="L179" s="16"/>
+      <c r="M179" s="16"/>
+      <c r="N179" s="16"/>
+      <c r="O179" s="16"/>
+      <c r="P179" s="16"/>
+      <c r="Q179" s="16"/>
+      <c r="R179" s="16"/>
+      <c r="S179" s="16"/>
+      <c r="T179" s="16"/>
+      <c r="U179" s="16"/>
+      <c r="V179" s="16"/>
+    </row>
+    <row r="180" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="19"/>
+      <c r="B180" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C180" s="16"/>
+      <c r="D180" s="16"/>
+      <c r="L180" s="16"/>
+      <c r="M180" s="16"/>
+      <c r="N180" s="16"/>
+      <c r="O180" s="16"/>
+      <c r="P180" s="16"/>
+      <c r="Q180" s="16"/>
+      <c r="R180" s="16"/>
+      <c r="S180" s="16"/>
+      <c r="T180" s="16"/>
+      <c r="U180" s="16"/>
+      <c r="V180" s="16"/>
+    </row>
+    <row r="181" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="19"/>
+      <c r="B181" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C181" s="16"/>
+      <c r="D181" s="16"/>
+      <c r="L181" s="16"/>
+      <c r="M181" s="16"/>
+      <c r="N181" s="16"/>
+      <c r="O181" s="16"/>
+      <c r="P181" s="16"/>
+      <c r="Q181" s="16"/>
+      <c r="R181" s="16"/>
+      <c r="S181" s="16"/>
+      <c r="T181" s="16"/>
+      <c r="U181" s="16"/>
+      <c r="V181" s="16"/>
+    </row>
+    <row r="182" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="19"/>
+      <c r="B182" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C182" s="16"/>
+      <c r="D182" s="16"/>
+      <c r="L182" s="16"/>
+      <c r="M182" s="16"/>
+      <c r="N182" s="16"/>
+      <c r="O182" s="16"/>
+      <c r="P182" s="16"/>
+      <c r="Q182" s="16"/>
+      <c r="R182" s="16"/>
+      <c r="S182" s="16"/>
+      <c r="T182" s="16"/>
+      <c r="U182" s="16"/>
+      <c r="V182" s="16"/>
+    </row>
+    <row r="183" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="19"/>
+      <c r="B183" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C183" s="16"/>
+      <c r="D183" s="16"/>
+      <c r="L183" s="16"/>
+      <c r="M183" s="16"/>
+      <c r="N183" s="16"/>
+      <c r="O183" s="16"/>
+      <c r="P183" s="16"/>
+      <c r="Q183" s="16"/>
+      <c r="R183" s="16"/>
+      <c r="S183" s="16"/>
+      <c r="T183" s="16"/>
+      <c r="U183" s="16"/>
+      <c r="V183" s="16"/>
+    </row>
+    <row r="184" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="19"/>
+      <c r="B184" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C184" s="16"/>
+      <c r="D184" s="16"/>
+      <c r="L184" s="16"/>
+      <c r="M184" s="16"/>
+      <c r="N184" s="16"/>
+      <c r="O184" s="16"/>
+      <c r="P184" s="16"/>
+      <c r="Q184" s="16"/>
+      <c r="R184" s="16"/>
+      <c r="S184" s="16"/>
+      <c r="T184" s="16"/>
+      <c r="U184" s="16"/>
+      <c r="V184" s="16"/>
+    </row>
+    <row r="185" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="19"/>
+      <c r="B185" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C185" s="16"/>
+      <c r="D185" s="16"/>
+      <c r="L185" s="16"/>
+      <c r="M185" s="16"/>
+      <c r="N185" s="16"/>
+      <c r="O185" s="16"/>
+      <c r="P185" s="16"/>
+      <c r="Q185" s="16"/>
+      <c r="R185" s="16"/>
+      <c r="S185" s="16"/>
+      <c r="T185" s="16"/>
+      <c r="U185" s="16"/>
+      <c r="V185" s="16"/>
+    </row>
+    <row r="186" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="16"/>
+      <c r="B186" s="16"/>
+      <c r="C186" s="16"/>
+      <c r="D186" s="16"/>
+      <c r="L186" s="16"/>
+      <c r="M186" s="16"/>
+      <c r="N186" s="16"/>
+      <c r="O186" s="16"/>
+      <c r="P186" s="16"/>
+      <c r="Q186" s="16"/>
+      <c r="R186" s="16"/>
+      <c r="S186" s="16"/>
+      <c r="T186" s="16"/>
+      <c r="U186" s="16"/>
+      <c r="V186" s="16"/>
+    </row>
+    <row r="187" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="16"/>
+      <c r="B187" s="16"/>
+      <c r="C187" s="16"/>
+      <c r="D187" s="16"/>
+      <c r="L187" s="16"/>
+      <c r="M187" s="16"/>
+      <c r="N187" s="16"/>
+      <c r="O187" s="16"/>
+      <c r="P187" s="16"/>
+      <c r="Q187" s="16"/>
+      <c r="R187" s="16"/>
+      <c r="S187" s="16"/>
+      <c r="T187" s="16"/>
+      <c r="U187" s="16"/>
+      <c r="V187" s="16"/>
+    </row>
+    <row r="188" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="16"/>
+      <c r="B188" s="16"/>
+      <c r="C188" s="16"/>
+      <c r="D188" s="16"/>
+      <c r="L188" s="16"/>
+      <c r="M188" s="16"/>
+      <c r="N188" s="16"/>
+      <c r="O188" s="16"/>
+      <c r="P188" s="16"/>
+      <c r="Q188" s="16"/>
+      <c r="R188" s="16"/>
+      <c r="S188" s="16"/>
+      <c r="T188" s="16"/>
+      <c r="U188" s="16"/>
+      <c r="V188" s="16"/>
+    </row>
+    <row r="189" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="16"/>
+      <c r="B189" s="16"/>
+      <c r="C189" s="16"/>
+      <c r="D189" s="16"/>
+      <c r="L189" s="16"/>
+      <c r="M189" s="16"/>
+      <c r="N189" s="16"/>
+      <c r="O189" s="16"/>
+      <c r="P189" s="16"/>
+      <c r="Q189" s="16"/>
+      <c r="R189" s="16"/>
+      <c r="S189" s="16"/>
+      <c r="T189" s="16"/>
+      <c r="U189" s="16"/>
+      <c r="V189" s="16"/>
+    </row>
+    <row r="190" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="16"/>
+      <c r="B190" s="16"/>
+      <c r="C190" s="16"/>
+      <c r="D190" s="16"/>
+      <c r="L190" s="16"/>
+      <c r="M190" s="16"/>
+      <c r="N190" s="16"/>
+      <c r="O190" s="16"/>
+      <c r="P190" s="16"/>
+      <c r="Q190" s="16"/>
+      <c r="R190" s="16"/>
+      <c r="S190" s="16"/>
+      <c r="T190" s="16"/>
+      <c r="U190" s="16"/>
+      <c r="V190" s="16"/>
+    </row>
+    <row r="191" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="16"/>
+      <c r="B191" s="16"/>
+      <c r="C191" s="16"/>
+      <c r="D191" s="16"/>
+      <c r="L191" s="16"/>
+      <c r="M191" s="16"/>
+      <c r="N191" s="16"/>
+      <c r="O191" s="16"/>
+      <c r="P191" s="16"/>
+      <c r="Q191" s="16"/>
+      <c r="R191" s="16"/>
+      <c r="S191" s="16"/>
+      <c r="T191" s="16"/>
+      <c r="U191" s="16"/>
+      <c r="V191" s="16"/>
+    </row>
+    <row r="192" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" s="4"/>
+      <c r="L192" s="4"/>
+      <c r="M192" s="4"/>
+      <c r="N192" s="4"/>
+      <c r="O192" s="4"/>
+      <c r="P192" s="4"/>
+      <c r="Q192" s="4"/>
+      <c r="R192" s="4"/>
+      <c r="S192" s="4"/>
+      <c r="T192" s="4"/>
+      <c r="U192" s="4"/>
+      <c r="V192" s="4"/>
+    </row>
+    <row r="193" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="19"/>
+      <c r="B193" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" s="4"/>
+      <c r="L193" s="4"/>
+      <c r="M193" s="4"/>
+      <c r="N193" s="4"/>
+      <c r="O193" s="4"/>
+      <c r="P193" s="4"/>
+      <c r="Q193" s="4"/>
+      <c r="R193" s="4"/>
+      <c r="S193" s="4"/>
+      <c r="T193" s="4"/>
+      <c r="U193" s="4"/>
+      <c r="V193" s="4"/>
+    </row>
+    <row r="194" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="19"/>
+      <c r="B194" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D194" s="4"/>
+      <c r="L194" s="4"/>
+      <c r="M194" s="4"/>
+      <c r="N194" s="4"/>
+      <c r="O194" s="4"/>
+      <c r="P194" s="4"/>
+      <c r="Q194" s="4"/>
+      <c r="R194" s="4"/>
+      <c r="S194" s="4"/>
+      <c r="T194" s="4"/>
+      <c r="U194" s="4"/>
+      <c r="V194" s="4"/>
+    </row>
+    <row r="195" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="19"/>
+      <c r="B195" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="4"/>
+      <c r="L195" s="4"/>
+      <c r="M195" s="4"/>
+      <c r="N195" s="4"/>
+      <c r="O195" s="4"/>
+      <c r="P195" s="4"/>
+      <c r="Q195" s="4"/>
+      <c r="R195" s="4"/>
+      <c r="S195" s="4"/>
+      <c r="T195" s="4"/>
+      <c r="U195" s="4"/>
+      <c r="V195" s="4"/>
+    </row>
+    <row r="196" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="19"/>
+      <c r="B196" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" s="4"/>
+      <c r="L196" s="4"/>
+      <c r="M196" s="4"/>
+      <c r="N196" s="4"/>
+      <c r="O196" s="4"/>
+      <c r="P196" s="4"/>
+      <c r="Q196" s="4"/>
+      <c r="R196" s="4"/>
+      <c r="S196" s="4"/>
+      <c r="T196" s="4"/>
+      <c r="U196" s="4"/>
+      <c r="V196" s="4"/>
+    </row>
+    <row r="197" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="19"/>
+      <c r="B197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D197" s="4"/>
+      <c r="L197" s="4"/>
+      <c r="M197" s="4"/>
+      <c r="N197" s="4"/>
+      <c r="O197" s="4"/>
+      <c r="P197" s="4"/>
+      <c r="Q197" s="4"/>
+      <c r="R197" s="4"/>
+      <c r="S197" s="4"/>
+      <c r="T197" s="4"/>
+      <c r="U197" s="4"/>
+      <c r="V197" s="4"/>
+    </row>
+    <row r="198" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="19"/>
+      <c r="B198" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="4"/>
+      <c r="L198" s="4"/>
+      <c r="M198" s="4"/>
+      <c r="N198" s="4"/>
+      <c r="O198" s="4"/>
+      <c r="P198" s="4"/>
+      <c r="Q198" s="4"/>
+      <c r="R198" s="4"/>
+      <c r="S198" s="4"/>
+      <c r="T198" s="4"/>
+      <c r="U198" s="4"/>
+      <c r="V198" s="4"/>
+    </row>
+    <row r="199" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="19"/>
+      <c r="B199" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D199" s="4"/>
+      <c r="L199" s="4"/>
+      <c r="M199" s="4"/>
+      <c r="N199" s="4"/>
+      <c r="O199" s="4"/>
+      <c r="P199" s="4"/>
+      <c r="Q199" s="4"/>
+      <c r="R199" s="4"/>
+      <c r="S199" s="4"/>
+      <c r="T199" s="4"/>
+      <c r="U199" s="4"/>
+      <c r="V199" s="4"/>
+    </row>
+    <row r="200" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="19"/>
+      <c r="D200" s="4"/>
+      <c r="L200" s="4"/>
+      <c r="M200" s="4"/>
+      <c r="N200" s="4"/>
+      <c r="O200" s="4"/>
+      <c r="P200" s="4"/>
+      <c r="Q200" s="4"/>
+      <c r="R200" s="4"/>
+      <c r="S200" s="4"/>
+      <c r="T200" s="4"/>
+      <c r="U200" s="4"/>
+      <c r="V200" s="4"/>
+    </row>
+    <row r="201" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" s="4"/>
+      <c r="L201" s="4"/>
+      <c r="M201" s="4"/>
+      <c r="N201" s="4"/>
+      <c r="O201" s="4"/>
+      <c r="P201" s="4"/>
+      <c r="Q201" s="4"/>
+      <c r="R201" s="4"/>
+      <c r="S201" s="4"/>
+      <c r="T201" s="4"/>
+      <c r="U201" s="4"/>
+      <c r="V201" s="4"/>
+    </row>
+    <row r="202" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="19"/>
+      <c r="B202" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D202" s="4"/>
+      <c r="L202" s="4"/>
+      <c r="M202" s="4"/>
+      <c r="N202" s="4"/>
+      <c r="O202" s="4"/>
+      <c r="P202" s="4"/>
+      <c r="Q202" s="4"/>
+      <c r="R202" s="4"/>
+      <c r="S202" s="4"/>
+      <c r="T202" s="4"/>
+      <c r="U202" s="4"/>
+      <c r="V202" s="4"/>
+    </row>
+    <row r="203" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="19"/>
+      <c r="B203" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C203" s="4">
+        <v>2</v>
+      </c>
+      <c r="D203" s="4"/>
+      <c r="L203" s="4"/>
+      <c r="M203" s="4"/>
+      <c r="N203" s="4"/>
+      <c r="O203" s="4"/>
+      <c r="P203" s="4"/>
+      <c r="Q203" s="4"/>
+      <c r="R203" s="4"/>
+      <c r="S203" s="4"/>
+      <c r="T203" s="4"/>
+      <c r="U203" s="4"/>
+      <c r="V203" s="4"/>
+    </row>
+    <row r="204" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="19"/>
+      <c r="B204" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D204" s="4"/>
+      <c r="L204" s="4"/>
+      <c r="M204" s="4"/>
+      <c r="N204" s="4"/>
+      <c r="O204" s="4"/>
+      <c r="P204" s="4"/>
+      <c r="Q204" s="4"/>
+      <c r="R204" s="4"/>
+      <c r="S204" s="4"/>
+      <c r="T204" s="4"/>
+      <c r="U204" s="4"/>
+      <c r="V204" s="4"/>
+    </row>
+    <row r="205" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="19"/>
+      <c r="B205" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D205" s="4"/>
+      <c r="L205" s="4"/>
+      <c r="M205" s="4"/>
+      <c r="N205" s="4"/>
+      <c r="O205" s="4"/>
+      <c r="P205" s="4"/>
+      <c r="Q205" s="4"/>
+      <c r="R205" s="4"/>
+      <c r="S205" s="4"/>
+      <c r="T205" s="4"/>
+      <c r="U205" s="4"/>
+      <c r="V205" s="4"/>
+    </row>
+    <row r="206" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="19"/>
+      <c r="B206" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D206" s="4"/>
+      <c r="L206" s="4"/>
+      <c r="M206" s="4"/>
+      <c r="N206" s="4"/>
+      <c r="O206" s="4"/>
+      <c r="P206" s="4"/>
+      <c r="Q206" s="4"/>
+      <c r="R206" s="4"/>
+      <c r="S206" s="4"/>
+      <c r="T206" s="4"/>
+      <c r="U206" s="4"/>
+      <c r="V206" s="4"/>
+    </row>
+    <row r="207" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="19"/>
+      <c r="B207" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D207" s="4"/>
+      <c r="L207" s="4"/>
+      <c r="M207" s="4"/>
+      <c r="N207" s="4"/>
+      <c r="O207" s="4"/>
+      <c r="P207" s="4"/>
+      <c r="Q207" s="4"/>
+      <c r="R207" s="4"/>
+      <c r="S207" s="4"/>
+      <c r="T207" s="4"/>
+      <c r="U207" s="4"/>
+      <c r="V207" s="4"/>
+    </row>
+    <row r="208" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="19"/>
+      <c r="B208" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D208" s="4"/>
+      <c r="L208" s="4"/>
+      <c r="M208" s="4"/>
+      <c r="N208" s="4"/>
+      <c r="O208" s="4"/>
+      <c r="P208" s="4"/>
+      <c r="Q208" s="4"/>
+      <c r="R208" s="4"/>
+      <c r="S208" s="4"/>
+      <c r="T208" s="4"/>
+      <c r="U208" s="4"/>
+      <c r="V208" s="4"/>
+    </row>
+    <row r="209" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="19"/>
+      <c r="B209" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D209" s="4"/>
+      <c r="L209" s="4"/>
+      <c r="M209" s="4"/>
+      <c r="N209" s="4"/>
+      <c r="O209" s="4"/>
+      <c r="P209" s="4"/>
+      <c r="Q209" s="4"/>
+      <c r="R209" s="4"/>
+      <c r="S209" s="4"/>
+      <c r="T209" s="4"/>
+      <c r="U209" s="4"/>
+      <c r="V209" s="4"/>
+    </row>
+    <row r="210" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="19"/>
+      <c r="D210" s="4"/>
+      <c r="L210" s="4"/>
+      <c r="M210" s="4"/>
+      <c r="N210" s="4"/>
+      <c r="O210" s="4"/>
+      <c r="P210" s="4"/>
+      <c r="Q210" s="4"/>
+      <c r="R210" s="4"/>
+      <c r="S210" s="4"/>
+      <c r="T210" s="4"/>
+      <c r="U210" s="4"/>
+      <c r="V210" s="4"/>
+    </row>
+    <row r="211" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="19"/>
+      <c r="D211" s="4"/>
+      <c r="L211" s="4"/>
+      <c r="M211" s="4"/>
+      <c r="N211" s="4"/>
+      <c r="O211" s="4"/>
+      <c r="P211" s="4"/>
+      <c r="Q211" s="4"/>
+      <c r="R211" s="4"/>
+      <c r="S211" s="4"/>
+      <c r="T211" s="4"/>
+      <c r="U211" s="4"/>
+      <c r="V211" s="4"/>
+    </row>
+    <row r="212" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B212" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C212" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
-      <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
-    </row>
-    <row r="77" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="19"/>
-      <c r="B77" s="4" t="s">
+      <c r="D212" s="4"/>
+      <c r="L212" s="4"/>
+      <c r="M212" s="4"/>
+      <c r="N212" s="4"/>
+      <c r="O212" s="4"/>
+      <c r="P212" s="4"/>
+      <c r="Q212" s="4"/>
+      <c r="R212" s="4"/>
+      <c r="S212" s="4"/>
+      <c r="T212" s="4"/>
+      <c r="U212" s="4"/>
+      <c r="V212" s="4"/>
+    </row>
+    <row r="213" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="19"/>
+      <c r="B213" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C213" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="4"/>
-    </row>
-    <row r="78" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="19"/>
-      <c r="B78" s="4" t="s">
+      <c r="D213" s="4"/>
+      <c r="L213" s="4"/>
+      <c r="M213" s="4"/>
+      <c r="N213" s="4"/>
+      <c r="O213" s="4"/>
+      <c r="P213" s="4"/>
+      <c r="Q213" s="4"/>
+      <c r="R213" s="4"/>
+      <c r="S213" s="4"/>
+      <c r="T213" s="4"/>
+      <c r="U213" s="4"/>
+      <c r="V213" s="4"/>
+    </row>
+    <row r="214" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="19"/>
+      <c r="B214" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C214" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-      <c r="S78" s="4"/>
-      <c r="T78" s="4"/>
-      <c r="U78" s="4"/>
-      <c r="V78" s="4"/>
-    </row>
-    <row r="79" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="19"/>
-      <c r="B79" s="4" t="s">
+      <c r="D214" s="4"/>
+      <c r="L214" s="4"/>
+      <c r="M214" s="4"/>
+      <c r="N214" s="4"/>
+      <c r="O214" s="4"/>
+      <c r="P214" s="4"/>
+      <c r="Q214" s="4"/>
+      <c r="R214" s="4"/>
+      <c r="S214" s="4"/>
+      <c r="T214" s="4"/>
+      <c r="U214" s="4"/>
+      <c r="V214" s="4"/>
+    </row>
+    <row r="215" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="19"/>
+      <c r="B215" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C215" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
-      <c r="S79" s="4"/>
-      <c r="T79" s="4"/>
-      <c r="U79" s="4"/>
-      <c r="V79" s="4"/>
-    </row>
-    <row r="80" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="19"/>
-      <c r="B80" s="4" t="s">
+      <c r="D215" s="4"/>
+      <c r="L215" s="4"/>
+      <c r="M215" s="4"/>
+      <c r="N215" s="4"/>
+      <c r="O215" s="4"/>
+      <c r="P215" s="4"/>
+      <c r="Q215" s="4"/>
+      <c r="R215" s="4"/>
+      <c r="S215" s="4"/>
+      <c r="T215" s="4"/>
+      <c r="U215" s="4"/>
+      <c r="V215" s="4"/>
+    </row>
+    <row r="216" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="19"/>
+      <c r="B216" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C216" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-      <c r="S80" s="4"/>
-      <c r="T80" s="4"/>
-      <c r="U80" s="4"/>
-      <c r="V80" s="4"/>
-    </row>
-    <row r="81" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="19"/>
-      <c r="B81" s="4" t="s">
+      <c r="D216" s="4"/>
+      <c r="L216" s="4"/>
+      <c r="M216" s="4"/>
+      <c r="N216" s="4"/>
+      <c r="O216" s="4"/>
+      <c r="P216" s="4"/>
+      <c r="Q216" s="4"/>
+      <c r="R216" s="4"/>
+      <c r="S216" s="4"/>
+      <c r="T216" s="4"/>
+      <c r="U216" s="4"/>
+      <c r="V216" s="4"/>
+    </row>
+    <row r="217" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="19"/>
+      <c r="B217" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C217" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
-      <c r="T81" s="4"/>
-      <c r="U81" s="4"/>
-      <c r="V81" s="4"/>
-    </row>
-    <row r="82" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="19"/>
-      <c r="B82" s="4" t="s">
+      <c r="D217" s="4"/>
+      <c r="L217" s="4"/>
+      <c r="M217" s="4"/>
+      <c r="N217" s="4"/>
+      <c r="O217" s="4"/>
+      <c r="P217" s="4"/>
+      <c r="Q217" s="4"/>
+      <c r="R217" s="4"/>
+      <c r="S217" s="4"/>
+      <c r="T217" s="4"/>
+      <c r="U217" s="4"/>
+      <c r="V217" s="4"/>
+    </row>
+    <row r="218" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="19"/>
+      <c r="B218" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C218" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4"/>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
-    </row>
-    <row r="83" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="19"/>
-      <c r="B83" s="4" t="s">
+      <c r="D218" s="4"/>
+      <c r="L218" s="4"/>
+      <c r="M218" s="4"/>
+      <c r="N218" s="4"/>
+      <c r="O218" s="4"/>
+      <c r="P218" s="4"/>
+      <c r="Q218" s="4"/>
+      <c r="R218" s="4"/>
+      <c r="S218" s="4"/>
+      <c r="T218" s="4"/>
+      <c r="U218" s="4"/>
+      <c r="V218" s="4"/>
+    </row>
+    <row r="219" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="19"/>
+      <c r="B219" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C219" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-      <c r="S83" s="4"/>
-      <c r="T83" s="4"/>
-      <c r="U83" s="4"/>
-      <c r="V83" s="4"/>
-    </row>
-    <row r="84" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="19"/>
-      <c r="B84" s="4" t="s">
+      <c r="D219" s="4"/>
+      <c r="L219" s="4"/>
+      <c r="M219" s="4"/>
+      <c r="N219" s="4"/>
+      <c r="O219" s="4"/>
+      <c r="P219" s="4"/>
+      <c r="Q219" s="4"/>
+      <c r="R219" s="4"/>
+      <c r="S219" s="4"/>
+      <c r="T219" s="4"/>
+      <c r="U219" s="4"/>
+      <c r="V219" s="4"/>
+    </row>
+    <row r="220" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="19"/>
+      <c r="B220" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C220" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
-      <c r="S84" s="4"/>
-      <c r="T84" s="4"/>
-      <c r="U84" s="4"/>
-      <c r="V84" s="4"/>
-    </row>
-    <row r="85" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="19"/>
-      <c r="B85" s="4" t="s">
+      <c r="D220" s="4"/>
+      <c r="L220" s="4"/>
+      <c r="M220" s="4"/>
+      <c r="N220" s="4"/>
+      <c r="O220" s="4"/>
+      <c r="P220" s="4"/>
+      <c r="Q220" s="4"/>
+      <c r="R220" s="4"/>
+      <c r="S220" s="4"/>
+      <c r="T220" s="4"/>
+      <c r="U220" s="4"/>
+      <c r="V220" s="4"/>
+    </row>
+    <row r="221" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="19"/>
+      <c r="B221" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C221" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
-      <c r="S85" s="4"/>
-      <c r="T85" s="4"/>
-      <c r="U85" s="4"/>
-      <c r="V85" s="4"/>
-    </row>
-    <row r="86" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="19"/>
-      <c r="D86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-      <c r="S86" s="4"/>
-      <c r="T86" s="4"/>
-      <c r="U86" s="4"/>
-      <c r="V86" s="4"/>
-    </row>
-    <row r="87" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="19"/>
-      <c r="D87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-      <c r="S87" s="4"/>
-      <c r="T87" s="4"/>
-      <c r="U87" s="4"/>
-      <c r="V87" s="4"/>
-    </row>
-    <row r="88" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="19"/>
-      <c r="D88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-      <c r="S88" s="4"/>
-      <c r="T88" s="4"/>
-      <c r="U88" s="4"/>
-      <c r="V88" s="4"/>
-    </row>
-    <row r="89" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="19"/>
-      <c r="D89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
-      <c r="S89" s="4"/>
-      <c r="T89" s="4"/>
-      <c r="U89" s="4"/>
-      <c r="V89" s="4"/>
-    </row>
-    <row r="90" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="19" t="s">
+      <c r="D221" s="4"/>
+      <c r="L221" s="4"/>
+      <c r="M221" s="4"/>
+      <c r="N221" s="4"/>
+      <c r="O221" s="4"/>
+      <c r="P221" s="4"/>
+      <c r="Q221" s="4"/>
+      <c r="R221" s="4"/>
+      <c r="S221" s="4"/>
+      <c r="T221" s="4"/>
+      <c r="U221" s="4"/>
+      <c r="V221" s="4"/>
+    </row>
+    <row r="222" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="19"/>
+      <c r="D222" s="4"/>
+      <c r="L222" s="4"/>
+      <c r="M222" s="4"/>
+      <c r="N222" s="4"/>
+      <c r="O222" s="4"/>
+      <c r="P222" s="4"/>
+      <c r="Q222" s="4"/>
+      <c r="R222" s="4"/>
+      <c r="S222" s="4"/>
+      <c r="T222" s="4"/>
+      <c r="U222" s="4"/>
+      <c r="V222" s="4"/>
+    </row>
+    <row r="223" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="19"/>
+      <c r="D223" s="4"/>
+      <c r="L223" s="4"/>
+      <c r="M223" s="4"/>
+      <c r="N223" s="4"/>
+      <c r="O223" s="4"/>
+      <c r="P223" s="4"/>
+      <c r="Q223" s="4"/>
+      <c r="R223" s="4"/>
+      <c r="S223" s="4"/>
+      <c r="T223" s="4"/>
+      <c r="U223" s="4"/>
+      <c r="V223" s="4"/>
+    </row>
+    <row r="224" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="19"/>
+      <c r="D224" s="4"/>
+      <c r="L224" s="4"/>
+      <c r="M224" s="4"/>
+      <c r="N224" s="4"/>
+      <c r="O224" s="4"/>
+      <c r="P224" s="4"/>
+      <c r="Q224" s="4"/>
+      <c r="R224" s="4"/>
+      <c r="S224" s="4"/>
+      <c r="T224" s="4"/>
+      <c r="U224" s="4"/>
+      <c r="V224" s="4"/>
+    </row>
+    <row r="225" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="19"/>
+      <c r="D225" s="4"/>
+      <c r="L225" s="4"/>
+      <c r="M225" s="4"/>
+      <c r="N225" s="4"/>
+      <c r="O225" s="4"/>
+      <c r="P225" s="4"/>
+      <c r="Q225" s="4"/>
+      <c r="R225" s="4"/>
+      <c r="S225" s="4"/>
+      <c r="T225" s="4"/>
+      <c r="U225" s="4"/>
+      <c r="V225" s="4"/>
+    </row>
+    <row r="226" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C226" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
-      <c r="S90" s="4"/>
-      <c r="T90" s="4"/>
-      <c r="U90" s="4"/>
-      <c r="V90" s="4"/>
-    </row>
-    <row r="91" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="19"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="4"/>
-      <c r="S91" s="4"/>
-      <c r="T91" s="4"/>
-      <c r="U91" s="4"/>
-      <c r="V91" s="4"/>
-    </row>
-    <row r="92" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="19"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-      <c r="S92" s="4"/>
-      <c r="T92" s="4"/>
-      <c r="U92" s="4"/>
-      <c r="V92" s="4"/>
-    </row>
-    <row r="93" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="19"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-      <c r="S93" s="4"/>
-      <c r="T93" s="4"/>
-      <c r="U93" s="4"/>
-      <c r="V93" s="4"/>
-    </row>
-    <row r="94" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="19"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
-      <c r="S94" s="4"/>
-      <c r="T94" s="4"/>
-      <c r="U94" s="4"/>
-      <c r="V94" s="4"/>
-    </row>
-    <row r="95" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="19"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4"/>
-      <c r="S95" s="4"/>
-      <c r="T95" s="4"/>
-      <c r="U95" s="4"/>
-      <c r="V95" s="4"/>
-    </row>
-    <row r="96" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="4" t="s">
+      <c r="D226" s="4"/>
+      <c r="L226" s="4"/>
+      <c r="M226" s="4"/>
+      <c r="N226" s="4"/>
+      <c r="O226" s="4"/>
+      <c r="P226" s="4"/>
+      <c r="Q226" s="4"/>
+      <c r="R226" s="4"/>
+      <c r="S226" s="4"/>
+      <c r="T226" s="4"/>
+      <c r="U226" s="4"/>
+      <c r="V226" s="4"/>
+    </row>
+    <row r="227" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="19"/>
+      <c r="C227" s="10"/>
+      <c r="D227" s="4"/>
+      <c r="L227" s="4"/>
+      <c r="M227" s="4"/>
+      <c r="N227" s="4"/>
+      <c r="O227" s="4"/>
+      <c r="P227" s="4"/>
+      <c r="Q227" s="4"/>
+      <c r="R227" s="4"/>
+      <c r="S227" s="4"/>
+      <c r="T227" s="4"/>
+      <c r="U227" s="4"/>
+      <c r="V227" s="4"/>
+    </row>
+    <row r="228" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="19"/>
+      <c r="C228" s="10"/>
+      <c r="D228" s="4"/>
+      <c r="L228" s="4"/>
+      <c r="M228" s="4"/>
+      <c r="N228" s="4"/>
+      <c r="O228" s="4"/>
+      <c r="P228" s="4"/>
+      <c r="Q228" s="4"/>
+      <c r="R228" s="4"/>
+      <c r="S228" s="4"/>
+      <c r="T228" s="4"/>
+      <c r="U228" s="4"/>
+      <c r="V228" s="4"/>
+    </row>
+    <row r="229" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="19"/>
+      <c r="C229" s="10"/>
+      <c r="D229" s="4"/>
+      <c r="L229" s="4"/>
+      <c r="M229" s="4"/>
+      <c r="N229" s="4"/>
+      <c r="O229" s="4"/>
+      <c r="P229" s="4"/>
+      <c r="Q229" s="4"/>
+      <c r="R229" s="4"/>
+      <c r="S229" s="4"/>
+      <c r="T229" s="4"/>
+      <c r="U229" s="4"/>
+      <c r="V229" s="4"/>
+    </row>
+    <row r="230" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="19"/>
+      <c r="C230" s="10"/>
+      <c r="D230" s="4"/>
+      <c r="L230" s="4"/>
+      <c r="M230" s="4"/>
+      <c r="N230" s="4"/>
+      <c r="O230" s="4"/>
+      <c r="P230" s="4"/>
+      <c r="Q230" s="4"/>
+      <c r="R230" s="4"/>
+      <c r="S230" s="4"/>
+      <c r="T230" s="4"/>
+      <c r="U230" s="4"/>
+      <c r="V230" s="4"/>
+    </row>
+    <row r="231" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="19"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="4"/>
+      <c r="L231" s="4"/>
+      <c r="M231" s="4"/>
+      <c r="N231" s="4"/>
+      <c r="O231" s="4"/>
+      <c r="P231" s="4"/>
+      <c r="Q231" s="4"/>
+      <c r="R231" s="4"/>
+      <c r="S231" s="4"/>
+      <c r="T231" s="4"/>
+      <c r="U231" s="4"/>
+      <c r="V231" s="4"/>
+    </row>
+    <row r="232" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B232" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
-      <c r="S96" s="4"/>
-      <c r="T96" s="4"/>
-      <c r="U96" s="4"/>
-      <c r="V96" s="4"/>
-    </row>
-    <row r="97" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
+      <c r="D232" s="4"/>
+      <c r="L232" s="4"/>
+      <c r="M232" s="4"/>
+      <c r="N232" s="4"/>
+      <c r="O232" s="4"/>
+      <c r="P232" s="4"/>
+      <c r="Q232" s="4"/>
+      <c r="R232" s="4"/>
+      <c r="S232" s="4"/>
+      <c r="T232" s="4"/>
+      <c r="U232" s="4"/>
+      <c r="V232" s="4"/>
+    </row>
+    <row r="233" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="4">
         <v>1</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B233" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C233" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
-      <c r="P97" s="4"/>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="4"/>
-      <c r="S97" s="4"/>
-      <c r="T97" s="4"/>
-      <c r="U97" s="4"/>
-      <c r="V97" s="4"/>
-    </row>
-    <row r="98" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
+      <c r="D233" s="4"/>
+      <c r="L233" s="4"/>
+      <c r="M233" s="4"/>
+      <c r="N233" s="4"/>
+      <c r="O233" s="4"/>
+      <c r="P233" s="4"/>
+      <c r="Q233" s="4"/>
+      <c r="R233" s="4"/>
+      <c r="S233" s="4"/>
+      <c r="T233" s="4"/>
+      <c r="U233" s="4"/>
+      <c r="V233" s="4"/>
+    </row>
+    <row r="234" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="4">
         <v>2</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B234" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C234" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4"/>
-      <c r="P98" s="4"/>
-      <c r="Q98" s="4"/>
-      <c r="R98" s="4"/>
-      <c r="S98" s="4"/>
-      <c r="T98" s="4"/>
-      <c r="U98" s="4"/>
-      <c r="V98" s="4"/>
-    </row>
-    <row r="99" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
+      <c r="D234" s="4"/>
+      <c r="L234" s="4"/>
+      <c r="M234" s="4"/>
+      <c r="N234" s="4"/>
+      <c r="O234" s="4"/>
+      <c r="P234" s="4"/>
+      <c r="Q234" s="4"/>
+      <c r="R234" s="4"/>
+      <c r="S234" s="4"/>
+      <c r="T234" s="4"/>
+      <c r="U234" s="4"/>
+      <c r="V234" s="4"/>
+    </row>
+    <row r="235" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="4">
         <v>3</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B235" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C235" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-      <c r="P99" s="4"/>
-      <c r="Q99" s="4"/>
-      <c r="R99" s="4"/>
-      <c r="S99" s="4"/>
-      <c r="T99" s="4"/>
-      <c r="U99" s="4"/>
-      <c r="V99" s="4"/>
-    </row>
-    <row r="100" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
+      <c r="D235" s="4"/>
+      <c r="L235" s="4"/>
+      <c r="M235" s="4"/>
+      <c r="N235" s="4"/>
+      <c r="O235" s="4"/>
+      <c r="P235" s="4"/>
+      <c r="Q235" s="4"/>
+      <c r="R235" s="4"/>
+      <c r="S235" s="4"/>
+      <c r="T235" s="4"/>
+      <c r="U235" s="4"/>
+      <c r="V235" s="4"/>
+    </row>
+    <row r="236" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="4">
         <v>4</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B236" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4"/>
-      <c r="P100" s="4"/>
-      <c r="Q100" s="4"/>
-      <c r="R100" s="4"/>
-      <c r="S100" s="4"/>
-      <c r="T100" s="4"/>
-      <c r="U100" s="4"/>
-      <c r="V100" s="4"/>
-    </row>
-    <row r="101" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
+      <c r="D236" s="4"/>
+      <c r="L236" s="4"/>
+      <c r="M236" s="4"/>
+      <c r="N236" s="4"/>
+      <c r="O236" s="4"/>
+      <c r="P236" s="4"/>
+      <c r="Q236" s="4"/>
+      <c r="R236" s="4"/>
+      <c r="S236" s="4"/>
+      <c r="T236" s="4"/>
+      <c r="U236" s="4"/>
+      <c r="V236" s="4"/>
+    </row>
+    <row r="237" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="4">
         <v>5</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B237" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
+    <row r="238" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="4">
         <v>6</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B238" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
+    <row r="239" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="4">
         <v>7</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B239" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="4">
+    <row r="240" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="4">
         <v>8</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B240" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
+    <row r="241" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="4">
         <v>9</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B241" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
+    <row r="242" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="4">
         <v>10</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B242" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="4">
+    <row r="243" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="4">
         <v>11</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B243" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
+    <row r="244" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="4">
         <v>12</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B244" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
+    <row r="245" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="4">
         <v>13</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B245" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
+    <row r="246" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="4">
         <v>14</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B246" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
+    <row r="247" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="4">
         <v>15</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B247" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
+    <row r="248" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="4">
         <v>16</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B248" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="4" t="s">
+    <row r="249" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B249" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
+    <row r="250" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="4">
         <v>1</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B250" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C250" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
+    <row r="251" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="4">
         <v>2</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B251" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C251" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
+    <row r="252" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="4">
         <v>3</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B252" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C252" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
+    <row r="253" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="4">
         <v>4</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B253" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C253" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
+    <row r="254" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="4">
         <v>5</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B254" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C254" s="4" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="17">
+    <mergeCell ref="A163:A185"/>
+    <mergeCell ref="A111:A130"/>
+    <mergeCell ref="A131:A143"/>
+    <mergeCell ref="A144:A162"/>
     <mergeCell ref="E3:L3"/>
     <mergeCell ref="A7:A24"/>
     <mergeCell ref="A25:A31"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A65:A75"/>
-    <mergeCell ref="A76:A89"/>
-    <mergeCell ref="A33:A55"/>
+    <mergeCell ref="A226:A231"/>
+    <mergeCell ref="A192:A200"/>
+    <mergeCell ref="A201:A211"/>
+    <mergeCell ref="A212:A225"/>
+    <mergeCell ref="A33:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="A68:A92"/>
+    <mergeCell ref="A93:A110"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3320,11 +6508,11 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3371,7 +6559,7 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3391,7 +6579,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3409,7 +6597,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="2" t="s">
         <v>62</v>
       </c>
@@ -3427,7 +6615,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="2" t="s">
         <v>63</v>
       </c>
@@ -3445,7 +6633,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3465,7 +6653,7 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="2" t="s">
         <v>73</v>
       </c>
@@ -3483,7 +6671,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="2" t="s">
         <v>74</v>
       </c>
@@ -3501,7 +6689,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
         <v>75</v>
       </c>
@@ -3519,7 +6707,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="2" t="s">
         <v>76</v>
       </c>
@@ -3537,7 +6725,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="2" t="s">
         <v>77</v>
       </c>
@@ -3555,7 +6743,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="2" t="s">
         <v>78</v>
       </c>
@@ -3573,7 +6761,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
@@ -3587,7 +6775,7 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>

--- a/购车/家用车对比.xlsx
+++ b/购车/家用车对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\iwangding\2020资料\test\购车\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB3417E-8643-4AE0-A524-B4A3EB93D7BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D23673E-68A8-4E6A-94C1-D627DEC6C831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="300">
   <si>
     <t>指南</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,10 +233,6 @@
   </si>
   <si>
     <t>长安cs75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1170,6 +1166,66 @@
   <si>
     <t>1.参考链接https://car.autohome.com.cn/duibi/chexing/#column=4&amp;carids=T3DLTSOywI2ELYxAVzzD5w%3d%3d&amp;adids=&amp;pvareaid=101719
 2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安CS75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广汽传祺GS4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇瑞瑞虎8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比亚迪宋pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油耗低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉利博越pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13w可以买到最顶配的车型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣威RX5 max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13w只能买到手动挡版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地14w 1.5T自动尊贵型，指导价13.49w可谈价12.94w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5T 自动精英型 指导价11.59w 可谈价 9.89w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地12.5w 1.5T 自动精英型，指导价13.18w 可谈价 11.88w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8T DCT智尊pro指导价14.68w可谈价 12.68w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.90w 2.0T铂金冠军版，1.5T自动铂金冠军版 指导价12.1w可谈价10.6w</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1269,7 +1325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1331,14 +1387,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1623,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="D195" sqref="D195"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1632,13 +1697,14 @@
     <col min="1" max="1" width="12.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="16" customWidth="1"/>
     <col min="3" max="3" width="23" style="4" customWidth="1"/>
-    <col min="4" max="4" width="39.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9" style="6" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="6" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="6" customWidth="1"/>
-    <col min="10" max="11" width="29.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="19" customWidth="1"/>
+    <col min="9" max="9" width="20.375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="29.625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="29.625" style="6" customWidth="1"/>
     <col min="12" max="12" width="11.375" style="6" customWidth="1"/>
     <col min="13" max="13" width="26.5" style="6" customWidth="1"/>
     <col min="14" max="14" width="33.625" style="6" customWidth="1"/>
@@ -1664,21 +1730,30 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+        <v>279</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>293</v>
+      </c>
       <c r="N3" s="10" t="s">
         <v>47</v>
       </c>
@@ -1702,9 +1777,15 @@
     </row>
     <row r="4" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="E4" s="4"/>
+      <c r="F4" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>290</v>
+      </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="4"/>
@@ -1717,11 +1798,31 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>294</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="4"/>
@@ -1736,7 +1837,7 @@
     </row>
     <row r="6" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="16">
         <v>1</v>
@@ -1755,22 +1856,22 @@
       <c r="W6" s="4"/>
     </row>
     <row r="7" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>60</v>
+      <c r="A7" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="B7" s="16">
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="8"/>
@@ -1786,20 +1887,20 @@
       <c r="W7" s="8"/>
     </row>
     <row r="8" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="16">
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="8"/>
@@ -1815,20 +1916,20 @@
       <c r="W8" s="8"/>
     </row>
     <row r="9" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="16">
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="8"/>
@@ -1844,20 +1945,20 @@
       <c r="W9" s="8"/>
     </row>
     <row r="10" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="16">
         <v>5</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="8"/>
@@ -1873,20 +1974,20 @@
       <c r="W10" s="8"/>
     </row>
     <row r="11" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="16">
         <v>6</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="8"/>
@@ -1902,20 +2003,20 @@
       <c r="W11" s="8"/>
     </row>
     <row r="12" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="16">
         <v>7</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="8"/>
@@ -1931,20 +2032,20 @@
       <c r="W12" s="8"/>
     </row>
     <row r="13" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="16">
         <v>8</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="8"/>
@@ -1960,12 +2061,12 @@
       <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="16">
         <v>9</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="4"/>
       <c r="M14" s="4"/>
@@ -1981,12 +2082,12 @@
       <c r="W14" s="4"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="16">
         <v>10</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="4"/>
       <c r="M15" s="4"/>
@@ -2002,12 +2103,12 @@
       <c r="W15" s="4"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="16">
         <v>11</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="4"/>
       <c r="M16" s="4"/>
@@ -2023,12 +2124,12 @@
       <c r="W16" s="4"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="16">
         <v>12</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="4"/>
       <c r="M17" s="4"/>
@@ -2044,12 +2145,12 @@
       <c r="W17" s="4"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="16">
         <v>13</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="4"/>
       <c r="M18" s="4"/>
@@ -2065,12 +2166,12 @@
       <c r="W18" s="4"/>
     </row>
     <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="16">
         <v>14</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="4"/>
       <c r="M19" s="4"/>
@@ -2086,12 +2187,12 @@
       <c r="W19" s="4"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="16">
         <v>15</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="4"/>
       <c r="M20" s="4"/>
@@ -2107,12 +2208,12 @@
       <c r="W20" s="4"/>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="16">
         <v>16</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" s="4"/>
       <c r="M21" s="4"/>
@@ -2128,12 +2229,12 @@
       <c r="W21" s="4"/>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="16">
         <v>17</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="4"/>
       <c r="M22" s="4"/>
@@ -2149,12 +2250,12 @@
       <c r="W22" s="4"/>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="16">
         <v>18</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" s="4"/>
       <c r="M23" s="4"/>
@@ -2170,12 +2271,12 @@
       <c r="W23" s="4"/>
     </row>
     <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="16">
         <v>19</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="4"/>
       <c r="M24" s="4"/>
@@ -2191,14 +2292,14 @@
       <c r="W24" s="4"/>
     </row>
     <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>71</v>
+      <c r="A25" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="B25" s="16">
         <v>20</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E25" s="4"/>
       <c r="M25" s="4"/>
@@ -2214,12 +2315,12 @@
       <c r="W25" s="4"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="16">
         <v>21</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" s="4"/>
       <c r="M26" s="4"/>
@@ -2235,12 +2336,12 @@
       <c r="W26" s="4"/>
     </row>
     <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="16">
         <v>22</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" s="4"/>
       <c r="M27" s="4"/>
@@ -2256,12 +2357,12 @@
       <c r="W27" s="4"/>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="16">
         <v>23</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" s="4"/>
       <c r="M28" s="4"/>
@@ -2277,12 +2378,12 @@
       <c r="W28" s="4"/>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="16">
         <v>24</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" s="4"/>
       <c r="M29" s="4"/>
@@ -2298,12 +2399,12 @@
       <c r="W29" s="4"/>
     </row>
     <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="16">
         <v>25</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="4"/>
       <c r="M30" s="4"/>
@@ -2319,12 +2420,12 @@
       <c r="W30" s="4"/>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="16">
         <v>26</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" s="4"/>
       <c r="M31" s="4"/>
@@ -2340,12 +2441,12 @@
       <c r="W31" s="4"/>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="16">
         <v>27</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E32" s="4"/>
       <c r="M32" s="4"/>
@@ -2361,14 +2462,14 @@
       <c r="W32" s="4"/>
     </row>
     <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="16">
         <v>28</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E33" s="4"/>
       <c r="M33" s="4"/>
@@ -2384,12 +2485,12 @@
       <c r="W33" s="4"/>
     </row>
     <row r="34" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="16">
         <v>29</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E34" s="4"/>
       <c r="M34" s="4"/>
@@ -2405,12 +2506,12 @@
       <c r="W34" s="4"/>
     </row>
     <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="16">
         <v>30</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" s="4"/>
       <c r="M35" s="4"/>
@@ -2426,12 +2527,12 @@
       <c r="W35" s="4"/>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="16">
         <v>31</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E36" s="4"/>
       <c r="M36" s="4"/>
@@ -2447,12 +2548,12 @@
       <c r="W36" s="4"/>
     </row>
     <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="16">
         <v>32</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E37" s="4"/>
       <c r="M37" s="4"/>
@@ -2468,12 +2569,12 @@
       <c r="W37" s="4"/>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="16">
         <v>33</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E38" s="4"/>
       <c r="M38" s="4"/>
@@ -2489,12 +2590,12 @@
       <c r="W38" s="4"/>
     </row>
     <row r="39" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="16">
         <v>34</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E39" s="4"/>
       <c r="M39" s="4"/>
@@ -2510,12 +2611,12 @@
       <c r="W39" s="4"/>
     </row>
     <row r="40" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="16">
         <v>35</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E40" s="4"/>
       <c r="M40" s="4"/>
@@ -2531,12 +2632,12 @@
       <c r="W40" s="4"/>
     </row>
     <row r="41" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="16">
         <v>36</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E41" s="4"/>
       <c r="M41" s="4"/>
@@ -2552,12 +2653,12 @@
       <c r="W41" s="4"/>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="16">
         <v>37</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E42" s="4"/>
       <c r="M42" s="4"/>
@@ -2573,12 +2674,12 @@
       <c r="W42" s="4"/>
     </row>
     <row r="43" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="16">
         <v>38</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E43" s="4"/>
       <c r="M43" s="4"/>
@@ -2594,12 +2695,12 @@
       <c r="W43" s="4"/>
     </row>
     <row r="44" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="16">
         <v>39</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E44" s="4"/>
       <c r="M44" s="4"/>
@@ -2615,12 +2716,12 @@
       <c r="W44" s="4"/>
     </row>
     <row r="45" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="16">
         <v>40</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -2637,12 +2738,12 @@
       <c r="W45" s="5"/>
     </row>
     <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="16">
         <v>41</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -2659,12 +2760,12 @@
       <c r="W46" s="5"/>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="16">
         <v>42</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -2681,12 +2782,12 @@
       <c r="W47" s="5"/>
     </row>
     <row r="48" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="16">
         <v>43</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -2703,12 +2804,12 @@
       <c r="W48" s="5"/>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="16">
         <v>44</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -2725,12 +2826,12 @@
       <c r="W49" s="5"/>
     </row>
     <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="16">
         <v>45</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -2747,12 +2848,12 @@
       <c r="W50" s="5"/>
     </row>
     <row r="51" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="16">
         <v>46</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -2769,12 +2870,12 @@
       <c r="W51" s="5"/>
     </row>
     <row r="52" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="16">
         <v>47</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2791,12 +2892,12 @@
       <c r="W52" s="5"/>
     </row>
     <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="16">
         <v>48</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -2813,12 +2914,12 @@
       <c r="W53" s="5"/>
     </row>
     <row r="54" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
+      <c r="A54" s="25"/>
       <c r="B54" s="16">
         <v>49</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -2835,14 +2936,14 @@
       <c r="W54" s="5"/>
     </row>
     <row r="55" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="18" t="s">
-        <v>100</v>
+      <c r="A55" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="B55" s="16">
         <v>50</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
@@ -2859,12 +2960,12 @@
       <c r="W55" s="14"/>
     </row>
     <row r="56" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="16">
         <v>51</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
@@ -2881,14 +2982,14 @@
       <c r="W56" s="14"/>
     </row>
     <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="18" t="s">
-        <v>108</v>
+      <c r="A57" s="25" t="s">
+        <v>107</v>
       </c>
       <c r="B57" s="16">
         <v>52</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
@@ -2905,12 +3006,12 @@
       <c r="W57" s="14"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="16">
         <v>53</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
@@ -2927,12 +3028,12 @@
       <c r="W58" s="14"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="16">
         <v>54</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
@@ -2949,12 +3050,12 @@
       <c r="W59" s="14"/>
     </row>
     <row r="60" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="16">
         <v>55</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
@@ -2971,12 +3072,12 @@
       <c r="W60" s="14"/>
     </row>
     <row r="61" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="16">
         <v>56</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
@@ -2993,14 +3094,14 @@
       <c r="W61" s="14"/>
     </row>
     <row r="62" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
-        <v>115</v>
+      <c r="A62" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="B62" s="16">
         <v>57</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
@@ -3017,12 +3118,12 @@
       <c r="W62" s="14"/>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="16">
         <v>58</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
@@ -3039,12 +3140,12 @@
       <c r="W63" s="14"/>
     </row>
     <row r="64" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="19"/>
+      <c r="A64" s="24"/>
       <c r="B64" s="16">
         <v>59</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
@@ -3061,12 +3162,12 @@
       <c r="W64" s="14"/>
     </row>
     <row r="65" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="19"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="16">
         <v>60</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
@@ -3083,12 +3184,12 @@
       <c r="W65" s="14"/>
     </row>
     <row r="66" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="19"/>
+      <c r="A66" s="24"/>
       <c r="B66" s="16">
         <v>61</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
@@ -3105,12 +3206,12 @@
       <c r="W66" s="14"/>
     </row>
     <row r="67" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="19"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="16">
         <v>62</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
@@ -3127,14 +3228,14 @@
       <c r="W67" s="14"/>
     </row>
     <row r="68" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
-        <v>116</v>
+      <c r="A68" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="B68" s="16">
         <v>63</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
@@ -3151,12 +3252,12 @@
       <c r="W68" s="14"/>
     </row>
     <row r="69" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="19"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="16">
         <v>64</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
@@ -3173,12 +3274,12 @@
       <c r="W69" s="14"/>
     </row>
     <row r="70" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="19"/>
+      <c r="A70" s="24"/>
       <c r="B70" s="16">
         <v>65</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
@@ -3195,12 +3296,12 @@
       <c r="W70" s="14"/>
     </row>
     <row r="71" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="19"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="16">
         <v>66</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
@@ -3217,12 +3318,12 @@
       <c r="W71" s="14"/>
     </row>
     <row r="72" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="19"/>
+      <c r="A72" s="24"/>
       <c r="B72" s="16">
         <v>67</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
@@ -3239,12 +3340,12 @@
       <c r="W72" s="14"/>
     </row>
     <row r="73" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="19"/>
+      <c r="A73" s="24"/>
       <c r="B73" s="16">
         <v>68</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
@@ -3261,12 +3362,12 @@
       <c r="W73" s="14"/>
     </row>
     <row r="74" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="19"/>
+      <c r="A74" s="24"/>
       <c r="B74" s="16">
         <v>69</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
@@ -3283,12 +3384,12 @@
       <c r="W74" s="14"/>
     </row>
     <row r="75" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="19"/>
+      <c r="A75" s="24"/>
       <c r="B75" s="16">
         <v>70</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
@@ -3305,12 +3406,12 @@
       <c r="W75" s="14"/>
     </row>
     <row r="76" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="19"/>
+      <c r="A76" s="24"/>
       <c r="B76" s="16">
         <v>71</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
@@ -3327,12 +3428,12 @@
       <c r="W76" s="14"/>
     </row>
     <row r="77" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="19"/>
+      <c r="A77" s="24"/>
       <c r="B77" s="16">
         <v>72</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
@@ -3349,12 +3450,12 @@
       <c r="W77" s="14"/>
     </row>
     <row r="78" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="19"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="16">
         <v>73</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
@@ -3371,12 +3472,12 @@
       <c r="W78" s="14"/>
     </row>
     <row r="79" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="19"/>
+      <c r="A79" s="24"/>
       <c r="B79" s="16">
         <v>74</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
@@ -3393,12 +3494,12 @@
       <c r="W79" s="14"/>
     </row>
     <row r="80" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="19"/>
+      <c r="A80" s="24"/>
       <c r="B80" s="16">
         <v>75</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
@@ -3415,12 +3516,12 @@
       <c r="W80" s="14"/>
     </row>
     <row r="81" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="19"/>
+      <c r="A81" s="24"/>
       <c r="B81" s="16">
         <v>76</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
@@ -3437,12 +3538,12 @@
       <c r="W81" s="14"/>
     </row>
     <row r="82" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="19"/>
+      <c r="A82" s="24"/>
       <c r="B82" s="16">
         <v>77</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
@@ -3459,12 +3560,12 @@
       <c r="W82" s="14"/>
     </row>
     <row r="83" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="19"/>
+      <c r="A83" s="24"/>
       <c r="B83" s="16">
         <v>78</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
@@ -3481,12 +3582,12 @@
       <c r="W83" s="14"/>
     </row>
     <row r="84" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="19"/>
+      <c r="A84" s="24"/>
       <c r="B84" s="16">
         <v>79</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
@@ -3503,12 +3604,12 @@
       <c r="W84" s="14"/>
     </row>
     <row r="85" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="19"/>
+      <c r="A85" s="24"/>
       <c r="B85" s="16">
         <v>80</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
@@ -3525,12 +3626,12 @@
       <c r="W85" s="14"/>
     </row>
     <row r="86" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="19"/>
+      <c r="A86" s="24"/>
       <c r="B86" s="16">
         <v>81</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
@@ -3547,12 +3648,12 @@
       <c r="W86" s="14"/>
     </row>
     <row r="87" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="19"/>
+      <c r="A87" s="24"/>
       <c r="B87" s="16">
         <v>82</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
@@ -3569,12 +3670,12 @@
       <c r="W87" s="14"/>
     </row>
     <row r="88" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="19"/>
+      <c r="A88" s="24"/>
       <c r="B88" s="16">
         <v>83</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
@@ -3591,12 +3692,12 @@
       <c r="W88" s="14"/>
     </row>
     <row r="89" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="19"/>
+      <c r="A89" s="24"/>
       <c r="B89" s="16">
         <v>84</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
@@ -3613,12 +3714,12 @@
       <c r="W89" s="14"/>
     </row>
     <row r="90" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="19"/>
+      <c r="A90" s="24"/>
       <c r="B90" s="16">
         <v>85</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
@@ -3635,12 +3736,12 @@
       <c r="W90" s="14"/>
     </row>
     <row r="91" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="19"/>
+      <c r="A91" s="24"/>
       <c r="B91" s="16">
         <v>86</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -3657,12 +3758,12 @@
       <c r="W91" s="14"/>
     </row>
     <row r="92" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="19"/>
+      <c r="A92" s="24"/>
       <c r="B92" s="16">
         <v>87</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
@@ -3679,14 +3780,14 @@
       <c r="W92" s="14"/>
     </row>
     <row r="93" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="19" t="s">
-        <v>142</v>
+      <c r="A93" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="B93" s="16">
         <v>88</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
@@ -3703,12 +3804,12 @@
       <c r="W93" s="14"/>
     </row>
     <row r="94" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="19"/>
+      <c r="A94" s="24"/>
       <c r="B94" s="16">
         <v>89</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
@@ -3725,12 +3826,12 @@
       <c r="W94" s="14"/>
     </row>
     <row r="95" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="19"/>
+      <c r="A95" s="24"/>
       <c r="B95" s="16">
         <v>90</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -3747,12 +3848,12 @@
       <c r="W95" s="14"/>
     </row>
     <row r="96" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="19"/>
+      <c r="A96" s="24"/>
       <c r="B96" s="16">
         <v>91</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
@@ -3769,12 +3870,12 @@
       <c r="W96" s="14"/>
     </row>
     <row r="97" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="19"/>
+      <c r="A97" s="24"/>
       <c r="B97" s="16">
         <v>92</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
@@ -3791,12 +3892,12 @@
       <c r="W97" s="14"/>
     </row>
     <row r="98" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="19"/>
+      <c r="A98" s="24"/>
       <c r="B98" s="16">
         <v>93</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
@@ -3813,12 +3914,12 @@
       <c r="W98" s="14"/>
     </row>
     <row r="99" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="19"/>
+      <c r="A99" s="24"/>
       <c r="B99" s="16">
         <v>94</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
@@ -3835,12 +3936,12 @@
       <c r="W99" s="14"/>
     </row>
     <row r="100" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="19"/>
+      <c r="A100" s="24"/>
       <c r="B100" s="16">
         <v>95</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
@@ -3857,12 +3958,12 @@
       <c r="W100" s="14"/>
     </row>
     <row r="101" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="19"/>
+      <c r="A101" s="24"/>
       <c r="B101" s="16">
         <v>96</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
@@ -3879,12 +3980,12 @@
       <c r="W101" s="14"/>
     </row>
     <row r="102" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="19"/>
+      <c r="A102" s="24"/>
       <c r="B102" s="16">
         <v>97</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -3901,12 +4002,12 @@
       <c r="W102" s="14"/>
     </row>
     <row r="103" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="19"/>
+      <c r="A103" s="24"/>
       <c r="B103" s="16">
         <v>98</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -3923,12 +4024,12 @@
       <c r="W103" s="14"/>
     </row>
     <row r="104" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="19"/>
+      <c r="A104" s="24"/>
       <c r="B104" s="16">
         <v>99</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -3945,12 +4046,12 @@
       <c r="W104" s="14"/>
     </row>
     <row r="105" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="19"/>
+      <c r="A105" s="24"/>
       <c r="B105" s="16">
         <v>100</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
@@ -3967,12 +4068,12 @@
       <c r="W105" s="14"/>
     </row>
     <row r="106" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="19"/>
+      <c r="A106" s="24"/>
       <c r="B106" s="16">
         <v>101</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
@@ -3989,12 +4090,12 @@
       <c r="W106" s="14"/>
     </row>
     <row r="107" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="19"/>
+      <c r="A107" s="24"/>
       <c r="B107" s="16">
         <v>102</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
@@ -4011,12 +4112,12 @@
       <c r="W107" s="14"/>
     </row>
     <row r="108" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="19"/>
+      <c r="A108" s="24"/>
       <c r="B108" s="16">
         <v>103</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -4033,12 +4134,12 @@
       <c r="W108" s="14"/>
     </row>
     <row r="109" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="19"/>
+      <c r="A109" s="24"/>
       <c r="B109" s="16">
         <v>104</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -4055,12 +4156,12 @@
       <c r="W109" s="14"/>
     </row>
     <row r="110" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="19"/>
+      <c r="A110" s="24"/>
       <c r="B110" s="16">
         <v>105</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D110" s="14"/>
       <c r="E110" s="14"/>
@@ -4077,14 +4178,14 @@
       <c r="W110" s="14"/>
     </row>
     <row r="111" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="19" t="s">
-        <v>161</v>
+      <c r="A111" s="24" t="s">
+        <v>160</v>
       </c>
       <c r="B111" s="16">
         <v>106</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D111" s="14"/>
       <c r="E111" s="14"/>
@@ -4101,12 +4202,12 @@
       <c r="W111" s="14"/>
     </row>
     <row r="112" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="19"/>
+      <c r="A112" s="24"/>
       <c r="B112" s="16">
         <v>107</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="14"/>
@@ -4123,12 +4224,12 @@
       <c r="W112" s="14"/>
     </row>
     <row r="113" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="19"/>
+      <c r="A113" s="24"/>
       <c r="B113" s="16">
         <v>108</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D113" s="14"/>
       <c r="E113" s="14"/>
@@ -4145,12 +4246,12 @@
       <c r="W113" s="14"/>
     </row>
     <row r="114" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="19"/>
+      <c r="A114" s="24"/>
       <c r="B114" s="16">
         <v>109</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D114" s="14"/>
       <c r="E114" s="14"/>
@@ -4167,12 +4268,12 @@
       <c r="W114" s="14"/>
     </row>
     <row r="115" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="19"/>
+      <c r="A115" s="24"/>
       <c r="B115" s="16">
         <v>110</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D115" s="14"/>
       <c r="E115" s="14"/>
@@ -4189,12 +4290,12 @@
       <c r="W115" s="14"/>
     </row>
     <row r="116" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="19"/>
+      <c r="A116" s="24"/>
       <c r="B116" s="16">
         <v>111</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
@@ -4211,12 +4312,12 @@
       <c r="W116" s="14"/>
     </row>
     <row r="117" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="19"/>
+      <c r="A117" s="24"/>
       <c r="B117" s="16">
         <v>112</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D117" s="14"/>
       <c r="E117" s="14"/>
@@ -4233,12 +4334,12 @@
       <c r="W117" s="14"/>
     </row>
     <row r="118" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="19"/>
+      <c r="A118" s="24"/>
       <c r="B118" s="16">
         <v>113</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D118" s="14"/>
       <c r="E118" s="14"/>
@@ -4255,12 +4356,12 @@
       <c r="W118" s="14"/>
     </row>
     <row r="119" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="19"/>
+      <c r="A119" s="24"/>
       <c r="B119" s="16">
         <v>114</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D119" s="14"/>
       <c r="E119" s="14"/>
@@ -4277,12 +4378,12 @@
       <c r="W119" s="14"/>
     </row>
     <row r="120" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="19"/>
+      <c r="A120" s="24"/>
       <c r="B120" s="16">
         <v>115</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D120" s="14"/>
       <c r="E120" s="14"/>
@@ -4299,12 +4400,12 @@
       <c r="W120" s="14"/>
     </row>
     <row r="121" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="19"/>
+      <c r="A121" s="24"/>
       <c r="B121" s="16">
         <v>116</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D121" s="14"/>
       <c r="E121" s="14"/>
@@ -4321,12 +4422,12 @@
       <c r="W121" s="14"/>
     </row>
     <row r="122" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="19"/>
+      <c r="A122" s="24"/>
       <c r="B122" s="16">
         <v>117</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
@@ -4343,12 +4444,12 @@
       <c r="W122" s="14"/>
     </row>
     <row r="123" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="19"/>
+      <c r="A123" s="24"/>
       <c r="B123" s="16">
         <v>118</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D123" s="14"/>
       <c r="E123" s="14"/>
@@ -4365,12 +4466,12 @@
       <c r="W123" s="14"/>
     </row>
     <row r="124" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="19"/>
+      <c r="A124" s="24"/>
       <c r="B124" s="16">
         <v>119</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D124" s="14"/>
       <c r="E124" s="14"/>
@@ -4387,12 +4488,12 @@
       <c r="W124" s="14"/>
     </row>
     <row r="125" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="19"/>
+      <c r="A125" s="24"/>
       <c r="B125" s="16">
         <v>120</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D125" s="14"/>
       <c r="E125" s="14"/>
@@ -4409,12 +4510,12 @@
       <c r="W125" s="14"/>
     </row>
     <row r="126" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="19"/>
+      <c r="A126" s="24"/>
       <c r="B126" s="16">
         <v>121</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D126" s="14"/>
       <c r="E126" s="14"/>
@@ -4431,12 +4532,12 @@
       <c r="W126" s="14"/>
     </row>
     <row r="127" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="19"/>
+      <c r="A127" s="24"/>
       <c r="B127" s="16">
         <v>122</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D127" s="14"/>
       <c r="E127" s="14"/>
@@ -4453,12 +4554,12 @@
       <c r="W127" s="14"/>
     </row>
     <row r="128" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="19"/>
+      <c r="A128" s="24"/>
       <c r="B128" s="16">
         <v>123</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D128" s="14"/>
       <c r="E128" s="14"/>
@@ -4475,12 +4576,12 @@
       <c r="W128" s="14"/>
     </row>
     <row r="129" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="19"/>
+      <c r="A129" s="24"/>
       <c r="B129" s="16">
         <v>124</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
@@ -4497,12 +4598,12 @@
       <c r="W129" s="14"/>
     </row>
     <row r="130" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="19"/>
+      <c r="A130" s="24"/>
       <c r="B130" s="16">
         <v>125</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D130" s="14"/>
       <c r="E130" s="14"/>
@@ -4519,14 +4620,14 @@
       <c r="W130" s="14"/>
     </row>
     <row r="131" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="19" t="s">
-        <v>182</v>
+      <c r="A131" s="24" t="s">
+        <v>181</v>
       </c>
       <c r="B131" s="16">
         <v>126</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D131" s="14"/>
       <c r="E131" s="14"/>
@@ -4543,12 +4644,12 @@
       <c r="W131" s="14"/>
     </row>
     <row r="132" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="19"/>
+      <c r="A132" s="24"/>
       <c r="B132" s="16">
         <v>127</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D132" s="14"/>
       <c r="E132" s="14"/>
@@ -4565,12 +4666,12 @@
       <c r="W132" s="14"/>
     </row>
     <row r="133" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="19"/>
+      <c r="A133" s="24"/>
       <c r="B133" s="16">
         <v>128</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D133" s="14"/>
       <c r="E133" s="14"/>
@@ -4587,12 +4688,12 @@
       <c r="W133" s="14"/>
     </row>
     <row r="134" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="19"/>
+      <c r="A134" s="24"/>
       <c r="B134" s="16">
         <v>129</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D134" s="14"/>
       <c r="E134" s="14"/>
@@ -4609,12 +4710,12 @@
       <c r="W134" s="14"/>
     </row>
     <row r="135" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="19"/>
+      <c r="A135" s="24"/>
       <c r="B135" s="16">
         <v>130</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D135" s="14"/>
       <c r="E135" s="14"/>
@@ -4631,12 +4732,12 @@
       <c r="W135" s="14"/>
     </row>
     <row r="136" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="19"/>
+      <c r="A136" s="24"/>
       <c r="B136" s="16">
         <v>131</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D136" s="14"/>
       <c r="E136" s="14"/>
@@ -4653,12 +4754,12 @@
       <c r="W136" s="14"/>
     </row>
     <row r="137" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="19"/>
+      <c r="A137" s="24"/>
       <c r="B137" s="16">
         <v>132</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D137" s="14"/>
       <c r="E137" s="14"/>
@@ -4675,12 +4776,12 @@
       <c r="W137" s="14"/>
     </row>
     <row r="138" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="19"/>
+      <c r="A138" s="24"/>
       <c r="B138" s="16">
         <v>133</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D138" s="14"/>
       <c r="E138" s="14"/>
@@ -4697,12 +4798,12 @@
       <c r="W138" s="14"/>
     </row>
     <row r="139" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="19"/>
+      <c r="A139" s="24"/>
       <c r="B139" s="16">
         <v>134</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D139" s="14"/>
       <c r="E139" s="14"/>
@@ -4719,12 +4820,12 @@
       <c r="W139" s="14"/>
     </row>
     <row r="140" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="19"/>
+      <c r="A140" s="24"/>
       <c r="B140" s="16">
         <v>135</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D140" s="14"/>
       <c r="E140" s="14"/>
@@ -4741,12 +4842,12 @@
       <c r="W140" s="14"/>
     </row>
     <row r="141" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="19"/>
+      <c r="A141" s="24"/>
       <c r="B141" s="16">
         <v>136</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D141" s="14"/>
       <c r="E141" s="14"/>
@@ -4763,12 +4864,12 @@
       <c r="W141" s="14"/>
     </row>
     <row r="142" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="19"/>
+      <c r="A142" s="24"/>
       <c r="B142" s="16">
         <v>137</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D142" s="14"/>
       <c r="E142" s="14"/>
@@ -4785,12 +4886,12 @@
       <c r="W142" s="14"/>
     </row>
     <row r="143" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="19"/>
+      <c r="A143" s="24"/>
       <c r="B143" s="16">
         <v>138</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D143" s="14"/>
       <c r="E143" s="14"/>
@@ -4807,14 +4908,14 @@
       <c r="W143" s="14"/>
     </row>
     <row r="144" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="19" t="s">
-        <v>196</v>
+      <c r="A144" s="24" t="s">
+        <v>195</v>
       </c>
       <c r="B144" s="16">
         <v>139</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D144" s="14"/>
       <c r="E144" s="14"/>
@@ -4831,12 +4932,12 @@
       <c r="W144" s="14"/>
     </row>
     <row r="145" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="19"/>
+      <c r="A145" s="24"/>
       <c r="B145" s="16">
         <v>140</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D145" s="14"/>
       <c r="E145" s="14"/>
@@ -4853,12 +4954,12 @@
       <c r="W145" s="14"/>
     </row>
     <row r="146" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="19"/>
+      <c r="A146" s="24"/>
       <c r="B146" s="16">
         <v>141</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D146" s="14"/>
       <c r="E146" s="14"/>
@@ -4875,12 +4976,12 @@
       <c r="W146" s="14"/>
     </row>
     <row r="147" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="19"/>
+      <c r="A147" s="24"/>
       <c r="B147" s="16">
         <v>142</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D147" s="14"/>
       <c r="E147" s="14"/>
@@ -4897,12 +4998,12 @@
       <c r="W147" s="14"/>
     </row>
     <row r="148" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="19"/>
+      <c r="A148" s="24"/>
       <c r="B148" s="16">
         <v>143</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D148" s="14"/>
       <c r="E148" s="14"/>
@@ -4919,12 +5020,12 @@
       <c r="W148" s="14"/>
     </row>
     <row r="149" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="19"/>
+      <c r="A149" s="24"/>
       <c r="B149" s="16">
         <v>144</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D149" s="14"/>
       <c r="E149" s="14"/>
@@ -4941,12 +5042,12 @@
       <c r="W149" s="14"/>
     </row>
     <row r="150" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="19"/>
+      <c r="A150" s="24"/>
       <c r="B150" s="16">
         <v>145</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D150" s="14"/>
       <c r="E150" s="14"/>
@@ -4963,12 +5064,12 @@
       <c r="W150" s="14"/>
     </row>
     <row r="151" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="19"/>
+      <c r="A151" s="24"/>
       <c r="B151" s="16">
         <v>146</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D151" s="14"/>
       <c r="E151" s="14"/>
@@ -4985,12 +5086,12 @@
       <c r="W151" s="14"/>
     </row>
     <row r="152" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="19"/>
+      <c r="A152" s="24"/>
       <c r="B152" s="16">
         <v>147</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D152" s="14"/>
       <c r="E152" s="14"/>
@@ -5007,12 +5108,12 @@
       <c r="W152" s="14"/>
     </row>
     <row r="153" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="19"/>
+      <c r="A153" s="24"/>
       <c r="B153" s="16">
         <v>148</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D153" s="14"/>
       <c r="E153" s="14"/>
@@ -5029,12 +5130,12 @@
       <c r="W153" s="14"/>
     </row>
     <row r="154" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="19"/>
+      <c r="A154" s="24"/>
       <c r="B154" s="16">
         <v>149</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D154" s="14"/>
       <c r="E154" s="14"/>
@@ -5051,12 +5152,12 @@
       <c r="W154" s="14"/>
     </row>
     <row r="155" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="19"/>
+      <c r="A155" s="24"/>
       <c r="B155" s="16">
         <v>150</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D155" s="14"/>
       <c r="E155" s="14"/>
@@ -5073,12 +5174,12 @@
       <c r="W155" s="14"/>
     </row>
     <row r="156" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="19"/>
+      <c r="A156" s="24"/>
       <c r="B156" s="16">
         <v>151</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D156" s="14"/>
       <c r="E156" s="14"/>
@@ -5095,12 +5196,12 @@
       <c r="W156" s="14"/>
     </row>
     <row r="157" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="19"/>
+      <c r="A157" s="24"/>
       <c r="B157" s="16">
         <v>152</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D157" s="14"/>
       <c r="E157" s="14"/>
@@ -5117,12 +5218,12 @@
       <c r="W157" s="14"/>
     </row>
     <row r="158" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="19"/>
+      <c r="A158" s="24"/>
       <c r="B158" s="16">
         <v>153</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D158" s="14"/>
       <c r="E158" s="14"/>
@@ -5139,12 +5240,12 @@
       <c r="W158" s="14"/>
     </row>
     <row r="159" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="19"/>
+      <c r="A159" s="24"/>
       <c r="B159" s="16">
         <v>154</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D159" s="14"/>
       <c r="E159" s="14"/>
@@ -5161,12 +5262,12 @@
       <c r="W159" s="14"/>
     </row>
     <row r="160" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="19"/>
+      <c r="A160" s="24"/>
       <c r="B160" s="16">
         <v>155</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D160" s="14"/>
       <c r="E160" s="14"/>
@@ -5183,12 +5284,12 @@
       <c r="W160" s="14"/>
     </row>
     <row r="161" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="19"/>
+      <c r="A161" s="24"/>
       <c r="B161" s="16">
         <v>156</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D161" s="14"/>
       <c r="E161" s="14"/>
@@ -5205,12 +5306,12 @@
       <c r="W161" s="14"/>
     </row>
     <row r="162" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="19"/>
+      <c r="A162" s="24"/>
       <c r="B162" s="16">
         <v>157</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D162" s="14"/>
       <c r="E162" s="14"/>
@@ -5227,14 +5328,14 @@
       <c r="W162" s="14"/>
     </row>
     <row r="163" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="19" t="s">
-        <v>214</v>
+      <c r="A163" s="24" t="s">
+        <v>213</v>
       </c>
       <c r="B163" s="16">
         <v>158</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D163" s="14"/>
       <c r="E163" s="14"/>
@@ -5251,12 +5352,12 @@
       <c r="W163" s="14"/>
     </row>
     <row r="164" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="19"/>
+      <c r="A164" s="24"/>
       <c r="B164" s="16">
         <v>159</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D164" s="14"/>
       <c r="E164" s="14"/>
@@ -5273,12 +5374,12 @@
       <c r="W164" s="14"/>
     </row>
     <row r="165" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="19"/>
+      <c r="A165" s="24"/>
       <c r="B165" s="16">
         <v>160</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D165" s="14"/>
       <c r="E165" s="14"/>
@@ -5295,12 +5396,12 @@
       <c r="W165" s="14"/>
     </row>
     <row r="166" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="19"/>
+      <c r="A166" s="24"/>
       <c r="B166" s="16">
         <v>161</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D166" s="14"/>
       <c r="E166" s="14"/>
@@ -5317,12 +5418,12 @@
       <c r="W166" s="14"/>
     </row>
     <row r="167" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="19"/>
+      <c r="A167" s="24"/>
       <c r="B167" s="16">
         <v>162</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D167" s="14"/>
       <c r="E167" s="14"/>
@@ -5339,12 +5440,12 @@
       <c r="W167" s="14"/>
     </row>
     <row r="168" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="19"/>
+      <c r="A168" s="24"/>
       <c r="B168" s="16">
         <v>163</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D168" s="14"/>
       <c r="E168" s="14"/>
@@ -5361,12 +5462,12 @@
       <c r="W168" s="14"/>
     </row>
     <row r="169" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="19"/>
+      <c r="A169" s="24"/>
       <c r="B169" s="16">
         <v>164</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D169" s="14"/>
       <c r="E169" s="14"/>
@@ -5383,12 +5484,12 @@
       <c r="W169" s="14"/>
     </row>
     <row r="170" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="19"/>
+      <c r="A170" s="24"/>
       <c r="B170" s="16">
         <v>165</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D170" s="14"/>
       <c r="E170" s="14"/>
@@ -5405,12 +5506,12 @@
       <c r="W170" s="14"/>
     </row>
     <row r="171" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="19"/>
+      <c r="A171" s="24"/>
       <c r="B171" s="16">
         <v>166</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D171" s="14"/>
       <c r="E171" s="14"/>
@@ -5427,12 +5528,12 @@
       <c r="W171" s="14"/>
     </row>
     <row r="172" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="19"/>
+      <c r="A172" s="24"/>
       <c r="B172" s="16">
         <v>167</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D172" s="14"/>
       <c r="E172" s="14"/>
@@ -5449,12 +5550,12 @@
       <c r="W172" s="14"/>
     </row>
     <row r="173" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="19"/>
+      <c r="A173" s="24"/>
       <c r="B173" s="16">
         <v>168</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D173" s="14"/>
       <c r="E173" s="14"/>
@@ -5471,12 +5572,12 @@
       <c r="W173" s="14"/>
     </row>
     <row r="174" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="19"/>
+      <c r="A174" s="24"/>
       <c r="B174" s="16">
         <v>169</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D174" s="14"/>
       <c r="E174" s="14"/>
@@ -5493,12 +5594,12 @@
       <c r="W174" s="14"/>
     </row>
     <row r="175" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="19"/>
+      <c r="A175" s="24"/>
       <c r="B175" s="16">
         <v>170</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D175" s="14"/>
       <c r="E175" s="14"/>
@@ -5515,12 +5616,12 @@
       <c r="W175" s="14"/>
     </row>
     <row r="176" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="19"/>
+      <c r="A176" s="24"/>
       <c r="B176" s="16">
         <v>171</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D176" s="14"/>
       <c r="E176" s="14"/>
@@ -5537,12 +5638,12 @@
       <c r="W176" s="14"/>
     </row>
     <row r="177" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="19"/>
+      <c r="A177" s="24"/>
       <c r="B177" s="16">
         <v>172</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D177" s="14"/>
       <c r="E177" s="14"/>
@@ -5559,12 +5660,12 @@
       <c r="W177" s="14"/>
     </row>
     <row r="178" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="19"/>
+      <c r="A178" s="24"/>
       <c r="B178" s="16">
         <v>173</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D178" s="14"/>
       <c r="E178" s="14"/>
@@ -5581,12 +5682,12 @@
       <c r="W178" s="14"/>
     </row>
     <row r="179" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="19"/>
+      <c r="A179" s="24"/>
       <c r="B179" s="16">
         <v>174</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D179" s="14"/>
       <c r="E179" s="14"/>
@@ -5603,12 +5704,12 @@
       <c r="W179" s="14"/>
     </row>
     <row r="180" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="19"/>
+      <c r="A180" s="24"/>
       <c r="B180" s="16">
         <v>175</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D180" s="14"/>
       <c r="E180" s="14"/>
@@ -5625,12 +5726,12 @@
       <c r="W180" s="14"/>
     </row>
     <row r="181" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="19"/>
+      <c r="A181" s="24"/>
       <c r="B181" s="16">
         <v>176</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D181" s="14"/>
       <c r="E181" s="14"/>
@@ -5647,12 +5748,12 @@
       <c r="W181" s="14"/>
     </row>
     <row r="182" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="19"/>
+      <c r="A182" s="24"/>
       <c r="B182" s="16">
         <v>177</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D182" s="14"/>
       <c r="E182" s="14"/>
@@ -5669,12 +5770,12 @@
       <c r="W182" s="14"/>
     </row>
     <row r="183" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="19"/>
+      <c r="A183" s="24"/>
       <c r="B183" s="16">
         <v>178</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D183" s="14"/>
       <c r="E183" s="14"/>
@@ -5691,12 +5792,12 @@
       <c r="W183" s="14"/>
     </row>
     <row r="184" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="19"/>
+      <c r="A184" s="24"/>
       <c r="B184" s="16">
         <v>179</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D184" s="14"/>
       <c r="E184" s="14"/>
@@ -5713,12 +5814,12 @@
       <c r="W184" s="14"/>
     </row>
     <row r="185" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="19"/>
+      <c r="A185" s="24"/>
       <c r="B185" s="16">
         <v>180</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D185" s="14"/>
       <c r="E185" s="14"/>
@@ -5735,14 +5836,14 @@
       <c r="W185" s="14"/>
     </row>
     <row r="186" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="19" t="s">
-        <v>240</v>
+      <c r="A186" s="24" t="s">
+        <v>239</v>
       </c>
       <c r="B186" s="16">
         <v>181</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D186" s="14"/>
       <c r="E186" s="14"/>
@@ -5759,12 +5860,12 @@
       <c r="W186" s="14"/>
     </row>
     <row r="187" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="19"/>
+      <c r="A187" s="24"/>
       <c r="B187" s="16">
         <v>182</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D187" s="14"/>
       <c r="E187" s="14"/>
@@ -5781,12 +5882,12 @@
       <c r="W187" s="14"/>
     </row>
     <row r="188" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="19"/>
+      <c r="A188" s="24"/>
       <c r="B188" s="16">
         <v>183</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D188" s="14"/>
       <c r="E188" s="14"/>
@@ -5803,12 +5904,12 @@
       <c r="W188" s="14"/>
     </row>
     <row r="189" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="19"/>
+      <c r="A189" s="24"/>
       <c r="B189" s="16">
         <v>184</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D189" s="14"/>
       <c r="E189" s="14"/>
@@ -5825,12 +5926,12 @@
       <c r="W189" s="14"/>
     </row>
     <row r="190" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="19"/>
+      <c r="A190" s="24"/>
       <c r="B190" s="16">
         <v>185</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D190" s="14"/>
       <c r="E190" s="14"/>
@@ -5847,12 +5948,12 @@
       <c r="W190" s="14"/>
     </row>
     <row r="191" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="19"/>
+      <c r="A191" s="24"/>
       <c r="B191" s="16">
         <v>186</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
@@ -5869,12 +5970,12 @@
       <c r="W191" s="15"/>
     </row>
     <row r="192" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="19"/>
+      <c r="A192" s="24"/>
       <c r="B192" s="16">
         <v>187</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
@@ -5891,12 +5992,12 @@
       <c r="W192" s="15"/>
     </row>
     <row r="193" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="19"/>
+      <c r="A193" s="24"/>
       <c r="B193" s="16">
         <v>188</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
@@ -5913,12 +6014,12 @@
       <c r="W193" s="15"/>
     </row>
     <row r="194" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="19"/>
+      <c r="A194" s="24"/>
       <c r="B194" s="16">
         <v>189</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
@@ -5935,12 +6036,12 @@
       <c r="W194" s="15"/>
     </row>
     <row r="195" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="19"/>
+      <c r="A195" s="24"/>
       <c r="B195" s="16">
         <v>190</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
@@ -5957,12 +6058,12 @@
       <c r="W195" s="15"/>
     </row>
     <row r="196" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="19"/>
+      <c r="A196" s="24"/>
       <c r="B196" s="16">
         <v>191</v>
       </c>
       <c r="C196" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
@@ -5979,12 +6080,12 @@
       <c r="W196" s="15"/>
     </row>
     <row r="197" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="19"/>
+      <c r="A197" s="24"/>
       <c r="B197" s="16">
         <v>192</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
@@ -6001,12 +6102,12 @@
       <c r="W197" s="15"/>
     </row>
     <row r="198" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="19"/>
+      <c r="A198" s="24"/>
       <c r="B198" s="16">
         <v>193</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
@@ -6023,12 +6124,12 @@
       <c r="W198" s="15"/>
     </row>
     <row r="199" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="19"/>
+      <c r="A199" s="24"/>
       <c r="B199" s="16">
         <v>194</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
@@ -6045,12 +6146,12 @@
       <c r="W199" s="15"/>
     </row>
     <row r="200" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="19"/>
+      <c r="A200" s="24"/>
       <c r="B200" s="16">
         <v>195</v>
       </c>
       <c r="C200" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
@@ -6067,14 +6168,14 @@
       <c r="W200" s="15"/>
     </row>
     <row r="201" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="19" t="s">
-        <v>256</v>
+      <c r="A201" s="24" t="s">
+        <v>255</v>
       </c>
       <c r="B201" s="16">
         <v>199</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
@@ -6091,12 +6192,12 @@
       <c r="W201" s="15"/>
     </row>
     <row r="202" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="19"/>
+      <c r="A202" s="24"/>
       <c r="B202" s="16">
         <v>200</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
@@ -6113,12 +6214,12 @@
       <c r="W202" s="15"/>
     </row>
     <row r="203" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="19"/>
+      <c r="A203" s="24"/>
       <c r="B203" s="16">
         <v>201</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
@@ -6135,12 +6236,12 @@
       <c r="W203" s="15"/>
     </row>
     <row r="204" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="19"/>
+      <c r="A204" s="24"/>
       <c r="B204" s="16">
         <v>202</v>
       </c>
       <c r="C204" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
@@ -6157,12 +6258,12 @@
       <c r="W204" s="15"/>
     </row>
     <row r="205" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="19"/>
+      <c r="A205" s="24"/>
       <c r="B205" s="16">
         <v>203</v>
       </c>
       <c r="C205" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
@@ -6179,12 +6280,12 @@
       <c r="W205" s="15"/>
     </row>
     <row r="206" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="19"/>
+      <c r="A206" s="24"/>
       <c r="B206" s="16">
         <v>204</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
@@ -6201,12 +6302,12 @@
       <c r="W206" s="15"/>
     </row>
     <row r="207" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="19"/>
+      <c r="A207" s="24"/>
       <c r="B207" s="16">
         <v>205</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
@@ -6223,12 +6324,12 @@
       <c r="W207" s="15"/>
     </row>
     <row r="208" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="19"/>
+      <c r="A208" s="24"/>
       <c r="B208" s="16">
         <v>206</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
@@ -6245,12 +6346,12 @@
       <c r="W208" s="15"/>
     </row>
     <row r="209" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="19"/>
+      <c r="A209" s="24"/>
       <c r="B209" s="16">
         <v>207</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
@@ -6267,12 +6368,12 @@
       <c r="W209" s="15"/>
     </row>
     <row r="210" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="19"/>
+      <c r="A210" s="24"/>
       <c r="B210" s="16">
         <v>208</v>
       </c>
       <c r="C210" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
@@ -6289,12 +6390,12 @@
       <c r="W210" s="15"/>
     </row>
     <row r="211" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="19"/>
+      <c r="A211" s="24"/>
       <c r="B211" s="16">
         <v>209</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D211" s="15"/>
       <c r="E211" s="15"/>
@@ -6311,12 +6412,12 @@
       <c r="W211" s="15"/>
     </row>
     <row r="212" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="19"/>
+      <c r="A212" s="24"/>
       <c r="B212" s="16">
         <v>210</v>
       </c>
       <c r="C212" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
@@ -6333,12 +6434,12 @@
       <c r="W212" s="15"/>
     </row>
     <row r="213" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="19"/>
+      <c r="A213" s="24"/>
       <c r="B213" s="16">
         <v>211</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D213" s="15"/>
       <c r="E213" s="15"/>
@@ -6355,14 +6456,14 @@
       <c r="W213" s="15"/>
     </row>
     <row r="214" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="19" t="s">
-        <v>270</v>
+      <c r="A214" s="24" t="s">
+        <v>269</v>
       </c>
       <c r="B214" s="16">
         <v>215</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
@@ -6379,12 +6480,12 @@
       <c r="W214" s="15"/>
     </row>
     <row r="215" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="19"/>
+      <c r="A215" s="24"/>
       <c r="B215" s="16">
         <v>216</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D215" s="15"/>
       <c r="E215" s="15"/>
@@ -6401,12 +6502,12 @@
       <c r="W215" s="15"/>
     </row>
     <row r="216" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="19"/>
+      <c r="A216" s="24"/>
       <c r="B216" s="16">
         <v>217</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D216" s="15"/>
       <c r="E216" s="15"/>
@@ -6423,12 +6524,12 @@
       <c r="W216" s="15"/>
     </row>
     <row r="217" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="19"/>
+      <c r="A217" s="24"/>
       <c r="B217" s="16">
         <v>218</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D217" s="15"/>
       <c r="E217" s="15"/>
@@ -6445,12 +6546,12 @@
       <c r="W217" s="15"/>
     </row>
     <row r="218" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="19"/>
+      <c r="A218" s="24"/>
       <c r="B218" s="16">
         <v>219</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
@@ -6467,12 +6568,12 @@
       <c r="W218" s="15"/>
     </row>
     <row r="219" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="19"/>
+      <c r="A219" s="24"/>
       <c r="B219" s="16">
         <v>220</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D219" s="15"/>
       <c r="E219" s="15"/>
@@ -6489,12 +6590,12 @@
       <c r="W219" s="15"/>
     </row>
     <row r="220" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="19"/>
+      <c r="A220" s="24"/>
       <c r="B220" s="16">
         <v>221</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D220" s="15"/>
       <c r="E220" s="15"/>
@@ -6511,12 +6612,12 @@
       <c r="W220" s="15"/>
     </row>
     <row r="221" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="19"/>
+      <c r="A221" s="24"/>
       <c r="B221" s="16">
         <v>222</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D221" s="15"/>
       <c r="E221" s="15"/>
@@ -6533,12 +6634,12 @@
       <c r="W221" s="15"/>
     </row>
     <row r="222" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="19"/>
+      <c r="A222" s="24"/>
       <c r="B222" s="16">
         <v>223</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D222" s="15"/>
       <c r="E222" s="15"/>
@@ -6556,7 +6657,7 @@
     </row>
     <row r="223" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B223" s="23"/>
       <c r="C223" s="23"/>
@@ -6617,8 +6718,8 @@
       <c r="J227" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="F3:M3"/>
+  <mergeCells count="16">
+    <mergeCell ref="A68:A92"/>
     <mergeCell ref="A7:A24"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="A223:J227"/>
@@ -6634,7 +6735,6 @@
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A57:A61"/>
     <mergeCell ref="A62:A67"/>
-    <mergeCell ref="A68:A92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6659,11 +6759,11 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6710,7 +6810,7 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -6730,7 +6830,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -6748,7 +6848,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
@@ -6766,7 +6866,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -6784,7 +6884,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6804,7 +6904,7 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
@@ -6822,7 +6922,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
@@ -6840,7 +6940,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
@@ -6858,7 +6958,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
@@ -6876,7 +6976,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
@@ -6894,7 +6994,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
@@ -6912,7 +7012,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
@@ -6926,7 +7026,7 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>

--- a/购车/家用车对比.xlsx
+++ b/购车/家用车对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\iwangding\2020资料\test\购车\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D23673E-68A8-4E6A-94C1-D627DEC6C831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B296D79-5855-4B93-8B5A-BBE1949F91BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="301">
   <si>
     <t>指南</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1226,6 +1226,10 @@
   </si>
   <si>
     <t>12.90w 2.0T铂金冠军版，1.5T自动铂金冠军版 指导价12.1w可谈价10.6w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好后面带拖挂方口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1325,7 +1329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1390,14 +1394,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1689,7 +1696,7 @@
   <dimension ref="A1:W227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1802,6 +1809,9 @@
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="B5" s="22" t="s">
+        <v>300</v>
+      </c>
       <c r="D5" s="21" t="s">
         <v>299</v>
       </c>
@@ -1856,7 +1866,7 @@
       <c r="W6" s="4"/>
     </row>
     <row r="7" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="24" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="16">
@@ -1887,7 +1897,7 @@
       <c r="W7" s="8"/>
     </row>
     <row r="8" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="16">
         <v>3</v>
       </c>
@@ -1916,7 +1926,7 @@
       <c r="W8" s="8"/>
     </row>
     <row r="9" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="16">
         <v>4</v>
       </c>
@@ -1945,7 +1955,7 @@
       <c r="W9" s="8"/>
     </row>
     <row r="10" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="16">
         <v>5</v>
       </c>
@@ -1974,7 +1984,7 @@
       <c r="W10" s="8"/>
     </row>
     <row r="11" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="16">
         <v>6</v>
       </c>
@@ -2003,7 +2013,7 @@
       <c r="W11" s="8"/>
     </row>
     <row r="12" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="16">
         <v>7</v>
       </c>
@@ -2032,7 +2042,7 @@
       <c r="W12" s="8"/>
     </row>
     <row r="13" spans="1:23" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="16">
         <v>8</v>
       </c>
@@ -2061,7 +2071,7 @@
       <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="16">
         <v>9</v>
       </c>
@@ -2082,7 +2092,7 @@
       <c r="W14" s="4"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="16">
         <v>10</v>
       </c>
@@ -2103,7 +2113,7 @@
       <c r="W15" s="4"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="16">
         <v>11</v>
       </c>
@@ -2124,7 +2134,7 @@
       <c r="W16" s="4"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="16">
         <v>12</v>
       </c>
@@ -2145,7 +2155,7 @@
       <c r="W17" s="4"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="16">
         <v>13</v>
       </c>
@@ -2166,7 +2176,7 @@
       <c r="W18" s="4"/>
     </row>
     <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="16">
         <v>14</v>
       </c>
@@ -2187,7 +2197,7 @@
       <c r="W19" s="4"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="16">
         <v>15</v>
       </c>
@@ -2208,7 +2218,7 @@
       <c r="W20" s="4"/>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="16">
         <v>16</v>
       </c>
@@ -2229,7 +2239,7 @@
       <c r="W21" s="4"/>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="16">
         <v>17</v>
       </c>
@@ -2250,7 +2260,7 @@
       <c r="W22" s="4"/>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="16">
         <v>18</v>
       </c>
@@ -2271,7 +2281,7 @@
       <c r="W23" s="4"/>
     </row>
     <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="16">
         <v>19</v>
       </c>
@@ -2292,7 +2302,7 @@
       <c r="W24" s="4"/>
     </row>
     <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="24" t="s">
         <v>70</v>
       </c>
       <c r="B25" s="16">
@@ -2315,7 +2325,7 @@
       <c r="W25" s="4"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="16">
         <v>21</v>
       </c>
@@ -2336,7 +2346,7 @@
       <c r="W26" s="4"/>
     </row>
     <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="16">
         <v>22</v>
       </c>
@@ -2357,7 +2367,7 @@
       <c r="W27" s="4"/>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="16">
         <v>23</v>
       </c>
@@ -2378,7 +2388,7 @@
       <c r="W28" s="4"/>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="16">
         <v>24</v>
       </c>
@@ -2399,7 +2409,7 @@
       <c r="W29" s="4"/>
     </row>
     <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="16">
         <v>25</v>
       </c>
@@ -2420,7 +2430,7 @@
       <c r="W30" s="4"/>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="16">
         <v>26</v>
       </c>
@@ -2441,7 +2451,7 @@
       <c r="W31" s="4"/>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="16">
         <v>27</v>
       </c>
@@ -2462,7 +2472,7 @@
       <c r="W32" s="4"/>
     </row>
     <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="16">
@@ -2485,7 +2495,7 @@
       <c r="W33" s="4"/>
     </row>
     <row r="34" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="16">
         <v>29</v>
       </c>
@@ -2506,7 +2516,7 @@
       <c r="W34" s="4"/>
     </row>
     <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="16">
         <v>30</v>
       </c>
@@ -2527,7 +2537,7 @@
       <c r="W35" s="4"/>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="16">
         <v>31</v>
       </c>
@@ -2548,7 +2558,7 @@
       <c r="W36" s="4"/>
     </row>
     <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="16">
         <v>32</v>
       </c>
@@ -2569,7 +2579,7 @@
       <c r="W37" s="4"/>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="16">
         <v>33</v>
       </c>
@@ -2590,7 +2600,7 @@
       <c r="W38" s="4"/>
     </row>
     <row r="39" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="16">
         <v>34</v>
       </c>
@@ -2611,7 +2621,7 @@
       <c r="W39" s="4"/>
     </row>
     <row r="40" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="16">
         <v>35</v>
       </c>
@@ -2632,7 +2642,7 @@
       <c r="W40" s="4"/>
     </row>
     <row r="41" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="16">
         <v>36</v>
       </c>
@@ -2653,7 +2663,7 @@
       <c r="W41" s="4"/>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="16">
         <v>37</v>
       </c>
@@ -2674,7 +2684,7 @@
       <c r="W42" s="4"/>
     </row>
     <row r="43" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="16">
         <v>38</v>
       </c>
@@ -2695,7 +2705,7 @@
       <c r="W43" s="4"/>
     </row>
     <row r="44" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="25"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="16">
         <v>39</v>
       </c>
@@ -2716,7 +2726,7 @@
       <c r="W44" s="4"/>
     </row>
     <row r="45" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="25"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="16">
         <v>40</v>
       </c>
@@ -2738,7 +2748,7 @@
       <c r="W45" s="5"/>
     </row>
     <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="25"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="16">
         <v>41</v>
       </c>
@@ -2760,7 +2770,7 @@
       <c r="W46" s="5"/>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="16">
         <v>42</v>
       </c>
@@ -2782,7 +2792,7 @@
       <c r="W47" s="5"/>
     </row>
     <row r="48" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
+      <c r="A48" s="26"/>
       <c r="B48" s="16">
         <v>43</v>
       </c>
@@ -2804,7 +2814,7 @@
       <c r="W48" s="5"/>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="16">
         <v>44</v>
       </c>
@@ -2826,7 +2836,7 @@
       <c r="W49" s="5"/>
     </row>
     <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="25"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="16">
         <v>45</v>
       </c>
@@ -2848,7 +2858,7 @@
       <c r="W50" s="5"/>
     </row>
     <row r="51" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="25"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="16">
         <v>46</v>
       </c>
@@ -2870,7 +2880,7 @@
       <c r="W51" s="5"/>
     </row>
     <row r="52" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="25"/>
+      <c r="A52" s="26"/>
       <c r="B52" s="16">
         <v>47</v>
       </c>
@@ -2892,7 +2902,7 @@
       <c r="W52" s="5"/>
     </row>
     <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25"/>
+      <c r="A53" s="26"/>
       <c r="B53" s="16">
         <v>48</v>
       </c>
@@ -2914,7 +2924,7 @@
       <c r="W53" s="5"/>
     </row>
     <row r="54" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
+      <c r="A54" s="26"/>
       <c r="B54" s="16">
         <v>49</v>
       </c>
@@ -2936,7 +2946,7 @@
       <c r="W54" s="5"/>
     </row>
     <row r="55" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B55" s="16">
@@ -2960,7 +2970,7 @@
       <c r="W55" s="14"/>
     </row>
     <row r="56" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25"/>
+      <c r="A56" s="26"/>
       <c r="B56" s="16">
         <v>51</v>
       </c>
@@ -2982,7 +2992,7 @@
       <c r="W56" s="14"/>
     </row>
     <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="26" t="s">
         <v>107</v>
       </c>
       <c r="B57" s="16">
@@ -3006,7 +3016,7 @@
       <c r="W57" s="14"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="25"/>
+      <c r="A58" s="26"/>
       <c r="B58" s="16">
         <v>53</v>
       </c>
@@ -3028,7 +3038,7 @@
       <c r="W58" s="14"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="25"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="16">
         <v>54</v>
       </c>
@@ -3050,7 +3060,7 @@
       <c r="W59" s="14"/>
     </row>
     <row r="60" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="25"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="16">
         <v>55</v>
       </c>
@@ -3072,7 +3082,7 @@
       <c r="W60" s="14"/>
     </row>
     <row r="61" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
+      <c r="A61" s="26"/>
       <c r="B61" s="16">
         <v>56</v>
       </c>
@@ -3094,7 +3104,7 @@
       <c r="W61" s="14"/>
     </row>
     <row r="62" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="23" t="s">
         <v>114</v>
       </c>
       <c r="B62" s="16">
@@ -3118,7 +3128,7 @@
       <c r="W62" s="14"/>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="24"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="16">
         <v>58</v>
       </c>
@@ -3140,7 +3150,7 @@
       <c r="W63" s="14"/>
     </row>
     <row r="64" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="24"/>
+      <c r="A64" s="23"/>
       <c r="B64" s="16">
         <v>59</v>
       </c>
@@ -3162,7 +3172,7 @@
       <c r="W64" s="14"/>
     </row>
     <row r="65" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="24"/>
+      <c r="A65" s="23"/>
       <c r="B65" s="16">
         <v>60</v>
       </c>
@@ -3184,7 +3194,7 @@
       <c r="W65" s="14"/>
     </row>
     <row r="66" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="24"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="16">
         <v>61</v>
       </c>
@@ -3206,7 +3216,7 @@
       <c r="W66" s="14"/>
     </row>
     <row r="67" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="24"/>
+      <c r="A67" s="23"/>
       <c r="B67" s="16">
         <v>62</v>
       </c>
@@ -3228,7 +3238,7 @@
       <c r="W67" s="14"/>
     </row>
     <row r="68" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="23" t="s">
         <v>115</v>
       </c>
       <c r="B68" s="16">
@@ -3252,7 +3262,7 @@
       <c r="W68" s="14"/>
     </row>
     <row r="69" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="24"/>
+      <c r="A69" s="23"/>
       <c r="B69" s="16">
         <v>64</v>
       </c>
@@ -3274,7 +3284,7 @@
       <c r="W69" s="14"/>
     </row>
     <row r="70" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="24"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="16">
         <v>65</v>
       </c>
@@ -3296,7 +3306,7 @@
       <c r="W70" s="14"/>
     </row>
     <row r="71" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="24"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="16">
         <v>66</v>
       </c>
@@ -3318,7 +3328,7 @@
       <c r="W71" s="14"/>
     </row>
     <row r="72" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="24"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="16">
         <v>67</v>
       </c>
@@ -3340,7 +3350,7 @@
       <c r="W72" s="14"/>
     </row>
     <row r="73" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="24"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="16">
         <v>68</v>
       </c>
@@ -3362,7 +3372,7 @@
       <c r="W73" s="14"/>
     </row>
     <row r="74" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="24"/>
+      <c r="A74" s="23"/>
       <c r="B74" s="16">
         <v>69</v>
       </c>
@@ -3384,7 +3394,7 @@
       <c r="W74" s="14"/>
     </row>
     <row r="75" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="24"/>
+      <c r="A75" s="23"/>
       <c r="B75" s="16">
         <v>70</v>
       </c>
@@ -3406,7 +3416,7 @@
       <c r="W75" s="14"/>
     </row>
     <row r="76" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="24"/>
+      <c r="A76" s="23"/>
       <c r="B76" s="16">
         <v>71</v>
       </c>
@@ -3428,7 +3438,7 @@
       <c r="W76" s="14"/>
     </row>
     <row r="77" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="24"/>
+      <c r="A77" s="23"/>
       <c r="B77" s="16">
         <v>72</v>
       </c>
@@ -3450,7 +3460,7 @@
       <c r="W77" s="14"/>
     </row>
     <row r="78" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="24"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="16">
         <v>73</v>
       </c>
@@ -3472,7 +3482,7 @@
       <c r="W78" s="14"/>
     </row>
     <row r="79" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="24"/>
+      <c r="A79" s="23"/>
       <c r="B79" s="16">
         <v>74</v>
       </c>
@@ -3494,7 +3504,7 @@
       <c r="W79" s="14"/>
     </row>
     <row r="80" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="24"/>
+      <c r="A80" s="23"/>
       <c r="B80" s="16">
         <v>75</v>
       </c>
@@ -3516,7 +3526,7 @@
       <c r="W80" s="14"/>
     </row>
     <row r="81" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="24"/>
+      <c r="A81" s="23"/>
       <c r="B81" s="16">
         <v>76</v>
       </c>
@@ -3538,7 +3548,7 @@
       <c r="W81" s="14"/>
     </row>
     <row r="82" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="24"/>
+      <c r="A82" s="23"/>
       <c r="B82" s="16">
         <v>77</v>
       </c>
@@ -3560,7 +3570,7 @@
       <c r="W82" s="14"/>
     </row>
     <row r="83" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="24"/>
+      <c r="A83" s="23"/>
       <c r="B83" s="16">
         <v>78</v>
       </c>
@@ -3582,7 +3592,7 @@
       <c r="W83" s="14"/>
     </row>
     <row r="84" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="24"/>
+      <c r="A84" s="23"/>
       <c r="B84" s="16">
         <v>79</v>
       </c>
@@ -3604,7 +3614,7 @@
       <c r="W84" s="14"/>
     </row>
     <row r="85" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="24"/>
+      <c r="A85" s="23"/>
       <c r="B85" s="16">
         <v>80</v>
       </c>
@@ -3626,7 +3636,7 @@
       <c r="W85" s="14"/>
     </row>
     <row r="86" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="24"/>
+      <c r="A86" s="23"/>
       <c r="B86" s="16">
         <v>81</v>
       </c>
@@ -3648,7 +3658,7 @@
       <c r="W86" s="14"/>
     </row>
     <row r="87" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="24"/>
+      <c r="A87" s="23"/>
       <c r="B87" s="16">
         <v>82</v>
       </c>
@@ -3670,7 +3680,7 @@
       <c r="W87" s="14"/>
     </row>
     <row r="88" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="24"/>
+      <c r="A88" s="23"/>
       <c r="B88" s="16">
         <v>83</v>
       </c>
@@ -3692,7 +3702,7 @@
       <c r="W88" s="14"/>
     </row>
     <row r="89" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="24"/>
+      <c r="A89" s="23"/>
       <c r="B89" s="16">
         <v>84</v>
       </c>
@@ -3714,7 +3724,7 @@
       <c r="W89" s="14"/>
     </row>
     <row r="90" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="24"/>
+      <c r="A90" s="23"/>
       <c r="B90" s="16">
         <v>85</v>
       </c>
@@ -3736,7 +3746,7 @@
       <c r="W90" s="14"/>
     </row>
     <row r="91" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="24"/>
+      <c r="A91" s="23"/>
       <c r="B91" s="16">
         <v>86</v>
       </c>
@@ -3758,7 +3768,7 @@
       <c r="W91" s="14"/>
     </row>
     <row r="92" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="24"/>
+      <c r="A92" s="23"/>
       <c r="B92" s="16">
         <v>87</v>
       </c>
@@ -3780,7 +3790,7 @@
       <c r="W92" s="14"/>
     </row>
     <row r="93" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="24" t="s">
+      <c r="A93" s="23" t="s">
         <v>141</v>
       </c>
       <c r="B93" s="16">
@@ -3804,7 +3814,7 @@
       <c r="W93" s="14"/>
     </row>
     <row r="94" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="24"/>
+      <c r="A94" s="23"/>
       <c r="B94" s="16">
         <v>89</v>
       </c>
@@ -3826,7 +3836,7 @@
       <c r="W94" s="14"/>
     </row>
     <row r="95" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="24"/>
+      <c r="A95" s="23"/>
       <c r="B95" s="16">
         <v>90</v>
       </c>
@@ -3848,7 +3858,7 @@
       <c r="W95" s="14"/>
     </row>
     <row r="96" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="24"/>
+      <c r="A96" s="23"/>
       <c r="B96" s="16">
         <v>91</v>
       </c>
@@ -3870,7 +3880,7 @@
       <c r="W96" s="14"/>
     </row>
     <row r="97" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="24"/>
+      <c r="A97" s="23"/>
       <c r="B97" s="16">
         <v>92</v>
       </c>
@@ -3892,7 +3902,7 @@
       <c r="W97" s="14"/>
     </row>
     <row r="98" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="24"/>
+      <c r="A98" s="23"/>
       <c r="B98" s="16">
         <v>93</v>
       </c>
@@ -3914,7 +3924,7 @@
       <c r="W98" s="14"/>
     </row>
     <row r="99" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="24"/>
+      <c r="A99" s="23"/>
       <c r="B99" s="16">
         <v>94</v>
       </c>
@@ -3936,7 +3946,7 @@
       <c r="W99" s="14"/>
     </row>
     <row r="100" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="24"/>
+      <c r="A100" s="23"/>
       <c r="B100" s="16">
         <v>95</v>
       </c>
@@ -3958,7 +3968,7 @@
       <c r="W100" s="14"/>
     </row>
     <row r="101" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="24"/>
+      <c r="A101" s="23"/>
       <c r="B101" s="16">
         <v>96</v>
       </c>
@@ -3980,7 +3990,7 @@
       <c r="W101" s="14"/>
     </row>
     <row r="102" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="24"/>
+      <c r="A102" s="23"/>
       <c r="B102" s="16">
         <v>97</v>
       </c>
@@ -4002,7 +4012,7 @@
       <c r="W102" s="14"/>
     </row>
     <row r="103" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="24"/>
+      <c r="A103" s="23"/>
       <c r="B103" s="16">
         <v>98</v>
       </c>
@@ -4024,7 +4034,7 @@
       <c r="W103" s="14"/>
     </row>
     <row r="104" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="24"/>
+      <c r="A104" s="23"/>
       <c r="B104" s="16">
         <v>99</v>
       </c>
@@ -4046,7 +4056,7 @@
       <c r="W104" s="14"/>
     </row>
     <row r="105" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="24"/>
+      <c r="A105" s="23"/>
       <c r="B105" s="16">
         <v>100</v>
       </c>
@@ -4068,7 +4078,7 @@
       <c r="W105" s="14"/>
     </row>
     <row r="106" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="24"/>
+      <c r="A106" s="23"/>
       <c r="B106" s="16">
         <v>101</v>
       </c>
@@ -4090,7 +4100,7 @@
       <c r="W106" s="14"/>
     </row>
     <row r="107" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="24"/>
+      <c r="A107" s="23"/>
       <c r="B107" s="16">
         <v>102</v>
       </c>
@@ -4112,7 +4122,7 @@
       <c r="W107" s="14"/>
     </row>
     <row r="108" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="24"/>
+      <c r="A108" s="23"/>
       <c r="B108" s="16">
         <v>103</v>
       </c>
@@ -4134,7 +4144,7 @@
       <c r="W108" s="14"/>
     </row>
     <row r="109" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="24"/>
+      <c r="A109" s="23"/>
       <c r="B109" s="16">
         <v>104</v>
       </c>
@@ -4156,7 +4166,7 @@
       <c r="W109" s="14"/>
     </row>
     <row r="110" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="24"/>
+      <c r="A110" s="23"/>
       <c r="B110" s="16">
         <v>105</v>
       </c>
@@ -4178,7 +4188,7 @@
       <c r="W110" s="14"/>
     </row>
     <row r="111" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="24" t="s">
+      <c r="A111" s="23" t="s">
         <v>160</v>
       </c>
       <c r="B111" s="16">
@@ -4202,7 +4212,7 @@
       <c r="W111" s="14"/>
     </row>
     <row r="112" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="24"/>
+      <c r="A112" s="23"/>
       <c r="B112" s="16">
         <v>107</v>
       </c>
@@ -4224,7 +4234,7 @@
       <c r="W112" s="14"/>
     </row>
     <row r="113" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="24"/>
+      <c r="A113" s="23"/>
       <c r="B113" s="16">
         <v>108</v>
       </c>
@@ -4246,7 +4256,7 @@
       <c r="W113" s="14"/>
     </row>
     <row r="114" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="24"/>
+      <c r="A114" s="23"/>
       <c r="B114" s="16">
         <v>109</v>
       </c>
@@ -4268,7 +4278,7 @@
       <c r="W114" s="14"/>
     </row>
     <row r="115" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="24"/>
+      <c r="A115" s="23"/>
       <c r="B115" s="16">
         <v>110</v>
       </c>
@@ -4290,7 +4300,7 @@
       <c r="W115" s="14"/>
     </row>
     <row r="116" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="24"/>
+      <c r="A116" s="23"/>
       <c r="B116" s="16">
         <v>111</v>
       </c>
@@ -4312,7 +4322,7 @@
       <c r="W116" s="14"/>
     </row>
     <row r="117" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="24"/>
+      <c r="A117" s="23"/>
       <c r="B117" s="16">
         <v>112</v>
       </c>
@@ -4334,7 +4344,7 @@
       <c r="W117" s="14"/>
     </row>
     <row r="118" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="24"/>
+      <c r="A118" s="23"/>
       <c r="B118" s="16">
         <v>113</v>
       </c>
@@ -4356,7 +4366,7 @@
       <c r="W118" s="14"/>
     </row>
     <row r="119" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="24"/>
+      <c r="A119" s="23"/>
       <c r="B119" s="16">
         <v>114</v>
       </c>
@@ -4378,7 +4388,7 @@
       <c r="W119" s="14"/>
     </row>
     <row r="120" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="24"/>
+      <c r="A120" s="23"/>
       <c r="B120" s="16">
         <v>115</v>
       </c>
@@ -4400,7 +4410,7 @@
       <c r="W120" s="14"/>
     </row>
     <row r="121" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="24"/>
+      <c r="A121" s="23"/>
       <c r="B121" s="16">
         <v>116</v>
       </c>
@@ -4422,7 +4432,7 @@
       <c r="W121" s="14"/>
     </row>
     <row r="122" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="24"/>
+      <c r="A122" s="23"/>
       <c r="B122" s="16">
         <v>117</v>
       </c>
@@ -4444,7 +4454,7 @@
       <c r="W122" s="14"/>
     </row>
     <row r="123" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="24"/>
+      <c r="A123" s="23"/>
       <c r="B123" s="16">
         <v>118</v>
       </c>
@@ -4466,7 +4476,7 @@
       <c r="W123" s="14"/>
     </row>
     <row r="124" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="24"/>
+      <c r="A124" s="23"/>
       <c r="B124" s="16">
         <v>119</v>
       </c>
@@ -4488,7 +4498,7 @@
       <c r="W124" s="14"/>
     </row>
     <row r="125" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="24"/>
+      <c r="A125" s="23"/>
       <c r="B125" s="16">
         <v>120</v>
       </c>
@@ -4510,7 +4520,7 @@
       <c r="W125" s="14"/>
     </row>
     <row r="126" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="24"/>
+      <c r="A126" s="23"/>
       <c r="B126" s="16">
         <v>121</v>
       </c>
@@ -4532,7 +4542,7 @@
       <c r="W126" s="14"/>
     </row>
     <row r="127" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="24"/>
+      <c r="A127" s="23"/>
       <c r="B127" s="16">
         <v>122</v>
       </c>
@@ -4554,7 +4564,7 @@
       <c r="W127" s="14"/>
     </row>
     <row r="128" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="24"/>
+      <c r="A128" s="23"/>
       <c r="B128" s="16">
         <v>123</v>
       </c>
@@ -4576,7 +4586,7 @@
       <c r="W128" s="14"/>
     </row>
     <row r="129" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="24"/>
+      <c r="A129" s="23"/>
       <c r="B129" s="16">
         <v>124</v>
       </c>
@@ -4598,7 +4608,7 @@
       <c r="W129" s="14"/>
     </row>
     <row r="130" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="24"/>
+      <c r="A130" s="23"/>
       <c r="B130" s="16">
         <v>125</v>
       </c>
@@ -4620,7 +4630,7 @@
       <c r="W130" s="14"/>
     </row>
     <row r="131" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="24" t="s">
+      <c r="A131" s="23" t="s">
         <v>181</v>
       </c>
       <c r="B131" s="16">
@@ -4644,7 +4654,7 @@
       <c r="W131" s="14"/>
     </row>
     <row r="132" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="24"/>
+      <c r="A132" s="23"/>
       <c r="B132" s="16">
         <v>127</v>
       </c>
@@ -4666,7 +4676,7 @@
       <c r="W132" s="14"/>
     </row>
     <row r="133" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="24"/>
+      <c r="A133" s="23"/>
       <c r="B133" s="16">
         <v>128</v>
       </c>
@@ -4688,7 +4698,7 @@
       <c r="W133" s="14"/>
     </row>
     <row r="134" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="24"/>
+      <c r="A134" s="23"/>
       <c r="B134" s="16">
         <v>129</v>
       </c>
@@ -4710,7 +4720,7 @@
       <c r="W134" s="14"/>
     </row>
     <row r="135" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="24"/>
+      <c r="A135" s="23"/>
       <c r="B135" s="16">
         <v>130</v>
       </c>
@@ -4732,7 +4742,7 @@
       <c r="W135" s="14"/>
     </row>
     <row r="136" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="24"/>
+      <c r="A136" s="23"/>
       <c r="B136" s="16">
         <v>131</v>
       </c>
@@ -4754,7 +4764,7 @@
       <c r="W136" s="14"/>
     </row>
     <row r="137" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="24"/>
+      <c r="A137" s="23"/>
       <c r="B137" s="16">
         <v>132</v>
       </c>
@@ -4776,7 +4786,7 @@
       <c r="W137" s="14"/>
     </row>
     <row r="138" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="24"/>
+      <c r="A138" s="23"/>
       <c r="B138" s="16">
         <v>133</v>
       </c>
@@ -4798,7 +4808,7 @@
       <c r="W138" s="14"/>
     </row>
     <row r="139" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="24"/>
+      <c r="A139" s="23"/>
       <c r="B139" s="16">
         <v>134</v>
       </c>
@@ -4820,7 +4830,7 @@
       <c r="W139" s="14"/>
     </row>
     <row r="140" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="24"/>
+      <c r="A140" s="23"/>
       <c r="B140" s="16">
         <v>135</v>
       </c>
@@ -4842,7 +4852,7 @@
       <c r="W140" s="14"/>
     </row>
     <row r="141" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="24"/>
+      <c r="A141" s="23"/>
       <c r="B141" s="16">
         <v>136</v>
       </c>
@@ -4864,7 +4874,7 @@
       <c r="W141" s="14"/>
     </row>
     <row r="142" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="24"/>
+      <c r="A142" s="23"/>
       <c r="B142" s="16">
         <v>137</v>
       </c>
@@ -4886,7 +4896,7 @@
       <c r="W142" s="14"/>
     </row>
     <row r="143" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="24"/>
+      <c r="A143" s="23"/>
       <c r="B143" s="16">
         <v>138</v>
       </c>
@@ -4908,7 +4918,7 @@
       <c r="W143" s="14"/>
     </row>
     <row r="144" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="24" t="s">
+      <c r="A144" s="23" t="s">
         <v>195</v>
       </c>
       <c r="B144" s="16">
@@ -4932,7 +4942,7 @@
       <c r="W144" s="14"/>
     </row>
     <row r="145" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="24"/>
+      <c r="A145" s="23"/>
       <c r="B145" s="16">
         <v>140</v>
       </c>
@@ -4954,7 +4964,7 @@
       <c r="W145" s="14"/>
     </row>
     <row r="146" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="24"/>
+      <c r="A146" s="23"/>
       <c r="B146" s="16">
         <v>141</v>
       </c>
@@ -4976,7 +4986,7 @@
       <c r="W146" s="14"/>
     </row>
     <row r="147" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="24"/>
+      <c r="A147" s="23"/>
       <c r="B147" s="16">
         <v>142</v>
       </c>
@@ -4998,7 +5008,7 @@
       <c r="W147" s="14"/>
     </row>
     <row r="148" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="24"/>
+      <c r="A148" s="23"/>
       <c r="B148" s="16">
         <v>143</v>
       </c>
@@ -5020,7 +5030,7 @@
       <c r="W148" s="14"/>
     </row>
     <row r="149" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="24"/>
+      <c r="A149" s="23"/>
       <c r="B149" s="16">
         <v>144</v>
       </c>
@@ -5042,7 +5052,7 @@
       <c r="W149" s="14"/>
     </row>
     <row r="150" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="24"/>
+      <c r="A150" s="23"/>
       <c r="B150" s="16">
         <v>145</v>
       </c>
@@ -5064,7 +5074,7 @@
       <c r="W150" s="14"/>
     </row>
     <row r="151" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="24"/>
+      <c r="A151" s="23"/>
       <c r="B151" s="16">
         <v>146</v>
       </c>
@@ -5086,7 +5096,7 @@
       <c r="W151" s="14"/>
     </row>
     <row r="152" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="24"/>
+      <c r="A152" s="23"/>
       <c r="B152" s="16">
         <v>147</v>
       </c>
@@ -5108,7 +5118,7 @@
       <c r="W152" s="14"/>
     </row>
     <row r="153" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="24"/>
+      <c r="A153" s="23"/>
       <c r="B153" s="16">
         <v>148</v>
       </c>
@@ -5130,7 +5140,7 @@
       <c r="W153" s="14"/>
     </row>
     <row r="154" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="24"/>
+      <c r="A154" s="23"/>
       <c r="B154" s="16">
         <v>149</v>
       </c>
@@ -5152,7 +5162,7 @@
       <c r="W154" s="14"/>
     </row>
     <row r="155" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="24"/>
+      <c r="A155" s="23"/>
       <c r="B155" s="16">
         <v>150</v>
       </c>
@@ -5174,7 +5184,7 @@
       <c r="W155" s="14"/>
     </row>
     <row r="156" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="24"/>
+      <c r="A156" s="23"/>
       <c r="B156" s="16">
         <v>151</v>
       </c>
@@ -5196,7 +5206,7 @@
       <c r="W156" s="14"/>
     </row>
     <row r="157" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="24"/>
+      <c r="A157" s="23"/>
       <c r="B157" s="16">
         <v>152</v>
       </c>
@@ -5218,7 +5228,7 @@
       <c r="W157" s="14"/>
     </row>
     <row r="158" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="24"/>
+      <c r="A158" s="23"/>
       <c r="B158" s="16">
         <v>153</v>
       </c>
@@ -5240,7 +5250,7 @@
       <c r="W158" s="14"/>
     </row>
     <row r="159" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="24"/>
+      <c r="A159" s="23"/>
       <c r="B159" s="16">
         <v>154</v>
       </c>
@@ -5262,7 +5272,7 @@
       <c r="W159" s="14"/>
     </row>
     <row r="160" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="24"/>
+      <c r="A160" s="23"/>
       <c r="B160" s="16">
         <v>155</v>
       </c>
@@ -5284,7 +5294,7 @@
       <c r="W160" s="14"/>
     </row>
     <row r="161" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="24"/>
+      <c r="A161" s="23"/>
       <c r="B161" s="16">
         <v>156</v>
       </c>
@@ -5306,7 +5316,7 @@
       <c r="W161" s="14"/>
     </row>
     <row r="162" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="24"/>
+      <c r="A162" s="23"/>
       <c r="B162" s="16">
         <v>157</v>
       </c>
@@ -5328,7 +5338,7 @@
       <c r="W162" s="14"/>
     </row>
     <row r="163" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="24" t="s">
+      <c r="A163" s="23" t="s">
         <v>213</v>
       </c>
       <c r="B163" s="16">
@@ -5352,7 +5362,7 @@
       <c r="W163" s="14"/>
     </row>
     <row r="164" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="24"/>
+      <c r="A164" s="23"/>
       <c r="B164" s="16">
         <v>159</v>
       </c>
@@ -5374,7 +5384,7 @@
       <c r="W164" s="14"/>
     </row>
     <row r="165" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="24"/>
+      <c r="A165" s="23"/>
       <c r="B165" s="16">
         <v>160</v>
       </c>
@@ -5396,7 +5406,7 @@
       <c r="W165" s="14"/>
     </row>
     <row r="166" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="24"/>
+      <c r="A166" s="23"/>
       <c r="B166" s="16">
         <v>161</v>
       </c>
@@ -5418,7 +5428,7 @@
       <c r="W166" s="14"/>
     </row>
     <row r="167" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="24"/>
+      <c r="A167" s="23"/>
       <c r="B167" s="16">
         <v>162</v>
       </c>
@@ -5440,7 +5450,7 @@
       <c r="W167" s="14"/>
     </row>
     <row r="168" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="24"/>
+      <c r="A168" s="23"/>
       <c r="B168" s="16">
         <v>163</v>
       </c>
@@ -5462,7 +5472,7 @@
       <c r="W168" s="14"/>
     </row>
     <row r="169" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="24"/>
+      <c r="A169" s="23"/>
       <c r="B169" s="16">
         <v>164</v>
       </c>
@@ -5484,7 +5494,7 @@
       <c r="W169" s="14"/>
     </row>
     <row r="170" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="24"/>
+      <c r="A170" s="23"/>
       <c r="B170" s="16">
         <v>165</v>
       </c>
@@ -5506,7 +5516,7 @@
       <c r="W170" s="14"/>
     </row>
     <row r="171" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="24"/>
+      <c r="A171" s="23"/>
       <c r="B171" s="16">
         <v>166</v>
       </c>
@@ -5528,7 +5538,7 @@
       <c r="W171" s="14"/>
     </row>
     <row r="172" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="24"/>
+      <c r="A172" s="23"/>
       <c r="B172" s="16">
         <v>167</v>
       </c>
@@ -5550,7 +5560,7 @@
       <c r="W172" s="14"/>
     </row>
     <row r="173" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="24"/>
+      <c r="A173" s="23"/>
       <c r="B173" s="16">
         <v>168</v>
       </c>
@@ -5572,7 +5582,7 @@
       <c r="W173" s="14"/>
     </row>
     <row r="174" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="24"/>
+      <c r="A174" s="23"/>
       <c r="B174" s="16">
         <v>169</v>
       </c>
@@ -5594,7 +5604,7 @@
       <c r="W174" s="14"/>
     </row>
     <row r="175" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="24"/>
+      <c r="A175" s="23"/>
       <c r="B175" s="16">
         <v>170</v>
       </c>
@@ -5616,7 +5626,7 @@
       <c r="W175" s="14"/>
     </row>
     <row r="176" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="24"/>
+      <c r="A176" s="23"/>
       <c r="B176" s="16">
         <v>171</v>
       </c>
@@ -5638,7 +5648,7 @@
       <c r="W176" s="14"/>
     </row>
     <row r="177" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="24"/>
+      <c r="A177" s="23"/>
       <c r="B177" s="16">
         <v>172</v>
       </c>
@@ -5660,7 +5670,7 @@
       <c r="W177" s="14"/>
     </row>
     <row r="178" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="24"/>
+      <c r="A178" s="23"/>
       <c r="B178" s="16">
         <v>173</v>
       </c>
@@ -5682,7 +5692,7 @@
       <c r="W178" s="14"/>
     </row>
     <row r="179" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="24"/>
+      <c r="A179" s="23"/>
       <c r="B179" s="16">
         <v>174</v>
       </c>
@@ -5704,7 +5714,7 @@
       <c r="W179" s="14"/>
     </row>
     <row r="180" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="24"/>
+      <c r="A180" s="23"/>
       <c r="B180" s="16">
         <v>175</v>
       </c>
@@ -5726,7 +5736,7 @@
       <c r="W180" s="14"/>
     </row>
     <row r="181" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="24"/>
+      <c r="A181" s="23"/>
       <c r="B181" s="16">
         <v>176</v>
       </c>
@@ -5748,7 +5758,7 @@
       <c r="W181" s="14"/>
     </row>
     <row r="182" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="24"/>
+      <c r="A182" s="23"/>
       <c r="B182" s="16">
         <v>177</v>
       </c>
@@ -5770,7 +5780,7 @@
       <c r="W182" s="14"/>
     </row>
     <row r="183" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="24"/>
+      <c r="A183" s="23"/>
       <c r="B183" s="16">
         <v>178</v>
       </c>
@@ -5792,7 +5802,7 @@
       <c r="W183" s="14"/>
     </row>
     <row r="184" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="24"/>
+      <c r="A184" s="23"/>
       <c r="B184" s="16">
         <v>179</v>
       </c>
@@ -5814,7 +5824,7 @@
       <c r="W184" s="14"/>
     </row>
     <row r="185" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="24"/>
+      <c r="A185" s="23"/>
       <c r="B185" s="16">
         <v>180</v>
       </c>
@@ -5836,7 +5846,7 @@
       <c r="W185" s="14"/>
     </row>
     <row r="186" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="24" t="s">
+      <c r="A186" s="23" t="s">
         <v>239</v>
       </c>
       <c r="B186" s="16">
@@ -5860,7 +5870,7 @@
       <c r="W186" s="14"/>
     </row>
     <row r="187" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="24"/>
+      <c r="A187" s="23"/>
       <c r="B187" s="16">
         <v>182</v>
       </c>
@@ -5882,7 +5892,7 @@
       <c r="W187" s="14"/>
     </row>
     <row r="188" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="24"/>
+      <c r="A188" s="23"/>
       <c r="B188" s="16">
         <v>183</v>
       </c>
@@ -5904,7 +5914,7 @@
       <c r="W188" s="14"/>
     </row>
     <row r="189" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="24"/>
+      <c r="A189" s="23"/>
       <c r="B189" s="16">
         <v>184</v>
       </c>
@@ -5926,7 +5936,7 @@
       <c r="W189" s="14"/>
     </row>
     <row r="190" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="24"/>
+      <c r="A190" s="23"/>
       <c r="B190" s="16">
         <v>185</v>
       </c>
@@ -5948,7 +5958,7 @@
       <c r="W190" s="14"/>
     </row>
     <row r="191" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="24"/>
+      <c r="A191" s="23"/>
       <c r="B191" s="16">
         <v>186</v>
       </c>
@@ -5970,7 +5980,7 @@
       <c r="W191" s="15"/>
     </row>
     <row r="192" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="24"/>
+      <c r="A192" s="23"/>
       <c r="B192" s="16">
         <v>187</v>
       </c>
@@ -5992,7 +6002,7 @@
       <c r="W192" s="15"/>
     </row>
     <row r="193" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="24"/>
+      <c r="A193" s="23"/>
       <c r="B193" s="16">
         <v>188</v>
       </c>
@@ -6014,7 +6024,7 @@
       <c r="W193" s="15"/>
     </row>
     <row r="194" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="24"/>
+      <c r="A194" s="23"/>
       <c r="B194" s="16">
         <v>189</v>
       </c>
@@ -6036,7 +6046,7 @@
       <c r="W194" s="15"/>
     </row>
     <row r="195" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="24"/>
+      <c r="A195" s="23"/>
       <c r="B195" s="16">
         <v>190</v>
       </c>
@@ -6058,7 +6068,7 @@
       <c r="W195" s="15"/>
     </row>
     <row r="196" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="24"/>
+      <c r="A196" s="23"/>
       <c r="B196" s="16">
         <v>191</v>
       </c>
@@ -6080,7 +6090,7 @@
       <c r="W196" s="15"/>
     </row>
     <row r="197" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="24"/>
+      <c r="A197" s="23"/>
       <c r="B197" s="16">
         <v>192</v>
       </c>
@@ -6102,7 +6112,7 @@
       <c r="W197" s="15"/>
     </row>
     <row r="198" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="24"/>
+      <c r="A198" s="23"/>
       <c r="B198" s="16">
         <v>193</v>
       </c>
@@ -6124,7 +6134,7 @@
       <c r="W198" s="15"/>
     </row>
     <row r="199" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="24"/>
+      <c r="A199" s="23"/>
       <c r="B199" s="16">
         <v>194</v>
       </c>
@@ -6146,7 +6156,7 @@
       <c r="W199" s="15"/>
     </row>
     <row r="200" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="24"/>
+      <c r="A200" s="23"/>
       <c r="B200" s="16">
         <v>195</v>
       </c>
@@ -6168,7 +6178,7 @@
       <c r="W200" s="15"/>
     </row>
     <row r="201" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="24" t="s">
+      <c r="A201" s="23" t="s">
         <v>255</v>
       </c>
       <c r="B201" s="16">
@@ -6192,7 +6202,7 @@
       <c r="W201" s="15"/>
     </row>
     <row r="202" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="24"/>
+      <c r="A202" s="23"/>
       <c r="B202" s="16">
         <v>200</v>
       </c>
@@ -6214,7 +6224,7 @@
       <c r="W202" s="15"/>
     </row>
     <row r="203" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="24"/>
+      <c r="A203" s="23"/>
       <c r="B203" s="16">
         <v>201</v>
       </c>
@@ -6236,7 +6246,7 @@
       <c r="W203" s="15"/>
     </row>
     <row r="204" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="24"/>
+      <c r="A204" s="23"/>
       <c r="B204" s="16">
         <v>202</v>
       </c>
@@ -6258,7 +6268,7 @@
       <c r="W204" s="15"/>
     </row>
     <row r="205" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="24"/>
+      <c r="A205" s="23"/>
       <c r="B205" s="16">
         <v>203</v>
       </c>
@@ -6280,7 +6290,7 @@
       <c r="W205" s="15"/>
     </row>
     <row r="206" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="24"/>
+      <c r="A206" s="23"/>
       <c r="B206" s="16">
         <v>204</v>
       </c>
@@ -6302,7 +6312,7 @@
       <c r="W206" s="15"/>
     </row>
     <row r="207" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="24"/>
+      <c r="A207" s="23"/>
       <c r="B207" s="16">
         <v>205</v>
       </c>
@@ -6324,7 +6334,7 @@
       <c r="W207" s="15"/>
     </row>
     <row r="208" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="24"/>
+      <c r="A208" s="23"/>
       <c r="B208" s="16">
         <v>206</v>
       </c>
@@ -6346,7 +6356,7 @@
       <c r="W208" s="15"/>
     </row>
     <row r="209" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="24"/>
+      <c r="A209" s="23"/>
       <c r="B209" s="16">
         <v>207</v>
       </c>
@@ -6368,7 +6378,7 @@
       <c r="W209" s="15"/>
     </row>
     <row r="210" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="24"/>
+      <c r="A210" s="23"/>
       <c r="B210" s="16">
         <v>208</v>
       </c>
@@ -6390,7 +6400,7 @@
       <c r="W210" s="15"/>
     </row>
     <row r="211" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="24"/>
+      <c r="A211" s="23"/>
       <c r="B211" s="16">
         <v>209</v>
       </c>
@@ -6412,7 +6422,7 @@
       <c r="W211" s="15"/>
     </row>
     <row r="212" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="24"/>
+      <c r="A212" s="23"/>
       <c r="B212" s="16">
         <v>210</v>
       </c>
@@ -6434,7 +6444,7 @@
       <c r="W212" s="15"/>
     </row>
     <row r="213" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="24"/>
+      <c r="A213" s="23"/>
       <c r="B213" s="16">
         <v>211</v>
       </c>
@@ -6456,7 +6466,7 @@
       <c r="W213" s="15"/>
     </row>
     <row r="214" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="24" t="s">
+      <c r="A214" s="23" t="s">
         <v>269</v>
       </c>
       <c r="B214" s="16">
@@ -6480,7 +6490,7 @@
       <c r="W214" s="15"/>
     </row>
     <row r="215" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="24"/>
+      <c r="A215" s="23"/>
       <c r="B215" s="16">
         <v>216</v>
       </c>
@@ -6502,7 +6512,7 @@
       <c r="W215" s="15"/>
     </row>
     <row r="216" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="24"/>
+      <c r="A216" s="23"/>
       <c r="B216" s="16">
         <v>217</v>
       </c>
@@ -6524,7 +6534,7 @@
       <c r="W216" s="15"/>
     </row>
     <row r="217" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="24"/>
+      <c r="A217" s="23"/>
       <c r="B217" s="16">
         <v>218</v>
       </c>
@@ -6546,7 +6556,7 @@
       <c r="W217" s="15"/>
     </row>
     <row r="218" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="24"/>
+      <c r="A218" s="23"/>
       <c r="B218" s="16">
         <v>219</v>
       </c>
@@ -6568,7 +6578,7 @@
       <c r="W218" s="15"/>
     </row>
     <row r="219" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="24"/>
+      <c r="A219" s="23"/>
       <c r="B219" s="16">
         <v>220</v>
       </c>
@@ -6590,7 +6600,7 @@
       <c r="W219" s="15"/>
     </row>
     <row r="220" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="24"/>
+      <c r="A220" s="23"/>
       <c r="B220" s="16">
         <v>221</v>
       </c>
@@ -6612,7 +6622,7 @@
       <c r="W220" s="15"/>
     </row>
     <row r="221" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="24"/>
+      <c r="A221" s="23"/>
       <c r="B221" s="16">
         <v>222</v>
       </c>
@@ -6634,7 +6644,7 @@
       <c r="W221" s="15"/>
     </row>
     <row r="222" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="24"/>
+      <c r="A222" s="23"/>
       <c r="B222" s="16">
         <v>223</v>
       </c>
@@ -6656,66 +6666,66 @@
       <c r="W222" s="15"/>
     </row>
     <row r="223" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="23" t="s">
+      <c r="A223" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="B223" s="23"/>
-      <c r="C223" s="23"/>
-      <c r="D223" s="23"/>
-      <c r="E223" s="23"/>
-      <c r="F223" s="23"/>
-      <c r="G223" s="23"/>
-      <c r="H223" s="23"/>
-      <c r="I223" s="23"/>
-      <c r="J223" s="23"/>
+      <c r="B223" s="25"/>
+      <c r="C223" s="25"/>
+      <c r="D223" s="25"/>
+      <c r="E223" s="25"/>
+      <c r="F223" s="25"/>
+      <c r="G223" s="25"/>
+      <c r="H223" s="25"/>
+      <c r="I223" s="25"/>
+      <c r="J223" s="25"/>
     </row>
     <row r="224" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="23"/>
-      <c r="B224" s="23"/>
-      <c r="C224" s="23"/>
-      <c r="D224" s="23"/>
-      <c r="E224" s="23"/>
-      <c r="F224" s="23"/>
-      <c r="G224" s="23"/>
-      <c r="H224" s="23"/>
-      <c r="I224" s="23"/>
-      <c r="J224" s="23"/>
+      <c r="A224" s="25"/>
+      <c r="B224" s="25"/>
+      <c r="C224" s="25"/>
+      <c r="D224" s="25"/>
+      <c r="E224" s="25"/>
+      <c r="F224" s="25"/>
+      <c r="G224" s="25"/>
+      <c r="H224" s="25"/>
+      <c r="I224" s="25"/>
+      <c r="J224" s="25"/>
     </row>
     <row r="225" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="23"/>
-      <c r="B225" s="23"/>
-      <c r="C225" s="23"/>
-      <c r="D225" s="23"/>
-      <c r="E225" s="23"/>
-      <c r="F225" s="23"/>
-      <c r="G225" s="23"/>
-      <c r="H225" s="23"/>
-      <c r="I225" s="23"/>
-      <c r="J225" s="23"/>
+      <c r="A225" s="25"/>
+      <c r="B225" s="25"/>
+      <c r="C225" s="25"/>
+      <c r="D225" s="25"/>
+      <c r="E225" s="25"/>
+      <c r="F225" s="25"/>
+      <c r="G225" s="25"/>
+      <c r="H225" s="25"/>
+      <c r="I225" s="25"/>
+      <c r="J225" s="25"/>
     </row>
     <row r="226" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="23"/>
-      <c r="B226" s="23"/>
-      <c r="C226" s="23"/>
-      <c r="D226" s="23"/>
-      <c r="E226" s="23"/>
-      <c r="F226" s="23"/>
-      <c r="G226" s="23"/>
-      <c r="H226" s="23"/>
-      <c r="I226" s="23"/>
-      <c r="J226" s="23"/>
+      <c r="A226" s="25"/>
+      <c r="B226" s="25"/>
+      <c r="C226" s="25"/>
+      <c r="D226" s="25"/>
+      <c r="E226" s="25"/>
+      <c r="F226" s="25"/>
+      <c r="G226" s="25"/>
+      <c r="H226" s="25"/>
+      <c r="I226" s="25"/>
+      <c r="J226" s="25"/>
     </row>
     <row r="227" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="23"/>
-      <c r="B227" s="23"/>
-      <c r="C227" s="23"/>
-      <c r="D227" s="23"/>
-      <c r="E227" s="23"/>
-      <c r="F227" s="23"/>
-      <c r="G227" s="23"/>
-      <c r="H227" s="23"/>
-      <c r="I227" s="23"/>
-      <c r="J227" s="23"/>
+      <c r="A227" s="25"/>
+      <c r="B227" s="25"/>
+      <c r="C227" s="25"/>
+      <c r="D227" s="25"/>
+      <c r="E227" s="25"/>
+      <c r="F227" s="25"/>
+      <c r="G227" s="25"/>
+      <c r="H227" s="25"/>
+      <c r="I227" s="25"/>
+      <c r="J227" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -6759,11 +6769,11 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6810,7 +6820,7 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -6830,7 +6840,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -6848,7 +6858,7 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
@@ -6866,7 +6876,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -6884,7 +6894,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6904,7 +6914,7 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
@@ -6922,7 +6932,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
@@ -6940,7 +6950,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
@@ -6958,7 +6968,7 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
@@ -6976,7 +6986,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
@@ -6994,7 +7004,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
@@ -7012,7 +7022,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
@@ -7026,7 +7036,7 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
